--- a/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
@@ -439,8 +439,10 @@
           <t>Year</t>
         </is>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>0</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SFH</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -448,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>12712644.61713264</v>
+        <v>13492526.23057194</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>15299.77696129344</v>
+        <v>16238.37117997823</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>15532.27887927829</v>
+        <v>16485.13637491187</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>15769.72992642923</v>
+        <v>16737.15431285084</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>16012.30102350317</v>
+        <v>16994.60640001435</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>16260.1699333706</v>
+        <v>17257.68130447777</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>16513.52144980762</v>
+        <v>17526.57515654651</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>16772.54758324638</v>
+        <v>17801.49174590165</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>17037.44774273281</v>
+        <v>18082.64271472024</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>17308.42891307774</v>
+        <v>18370.2477456941</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>17585.70582653473</v>
+        <v>18664.53474423951</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>17869.50112811193</v>
+        <v>18965.74001395051</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>18160.04553335331</v>
+        <v>19274.10842405946</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>18457.57797792972</v>
+        <v>19589.89356820508</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>18762.34575770293</v>
+        <v>19913.35791308903</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>19074.60465850146</v>
+        <v>20244.77293621299</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>19394.61907426046</v>
+        <v>20584.41925126614</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>19722.66211257007</v>
+        <v>20932.58672014858</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>20059.01568644378</v>
+        <v>21289.57455036933</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>20403.97059100287</v>
+        <v>21655.6913764352</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>20757.82656410035</v>
+        <v>22031.25532419378</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>21120.89232939501</v>
+        <v>22416.59405655</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>21493.48562078586</v>
+        <v>22812.04479939945</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>21875.93318694794</v>
+        <v>23217.95434644254</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>22268.57077453096</v>
+        <v>23634.67904135244</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>22671.74308895857</v>
+        <v>24062.58473616937</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>23085.80373135219</v>
+        <v>24502.04672435507</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>23511.11511038695</v>
+        <v>24953.44964724128</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>23948.04832784937</v>
+        <v>25417.18737256672</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>24396.98303649089</v>
+        <v>25893.66284361046</v>
       </c>
     </row>
     <row r="32">
@@ -688,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>24858.30726908723</v>
+        <v>26383.28789776449</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>25332.41723742694</v>
+        <v>26886.48305319094</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>25819.7171000265</v>
+        <v>27403.67726228712</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>26320.61869750521</v>
+        <v>27935.30763082653</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>26835.54125444016</v>
+        <v>28481.81910152357</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>27364.91104677437</v>
+        <v>29043.66410103814</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>27909.16103364524</v>
+        <v>29621.30214921792</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>28468.73045292372</v>
+        <v>30215.19942982511</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>29044.06437948797</v>
+        <v>30825.82832171157</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>29635.61324555517</v>
+        <v>31453.66688972442</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>30243.83232232933</v>
+        <v>32099.19833455455</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>30869.18116265979</v>
+        <v>32762.91040120395</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>31512.12300390128</v>
+        <v>33445.29474521307</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>32173.12413101176</v>
+        <v>34146.84625668664</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>32852.6531994491</v>
+        <v>34868.0623416522</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>33551.18051784205</v>
+        <v>35609.44216072511</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>34269.17729068704</v>
+        <v>36371.48582534712</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>35007.11482098082</v>
+        <v>37154.69355150299</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>35765.46367338845</v>
+        <v>37959.56477155146</v>
       </c>
     </row>
     <row r="51">
@@ -840,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>36544.69279845855</v>
+        <v>38786.59720471369</v>
       </c>
     </row>
     <row r="52">
@@ -848,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>37345.26861844046</v>
+        <v>39636.28588680823</v>
       </c>
     </row>
     <row r="53">
@@ -856,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>38167.65407573603</v>
+        <v>40509.12216032817</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>39012.30764486883</v>
+        <v>41405.59262579776</v>
       </c>
     </row>
     <row r="55">
@@ -872,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>39879.68230942025</v>
+        <v>42326.17805594669</v>
       </c>
     </row>
     <row r="56">
@@ -880,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>40770.22450504606</v>
+        <v>43271.35227388392</v>
       </c>
     </row>
     <row r="57">
@@ -888,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>41684.37303040145</v>
+        <v>44241.58099721138</v>
       </c>
     </row>
     <row r="58">
@@ -896,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>42622.5579277679</v>
+        <v>45237.3206499807</v>
       </c>
     </row>
     <row r="59">
@@ -904,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>43585.19933512945</v>
+        <v>46259.01714434788</v>
       </c>
     </row>
     <row r="60">
@@ -912,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>44572.70631213892</v>
+        <v>47307.10463451628</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>45585.47564225549</v>
+        <v>48382.0042453888</v>
       </c>
     </row>
     <row r="62">
@@ -928,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>46623.89061356396</v>
+        <v>49484.12277859438</v>
       </c>
     </row>
     <row r="63">
@@ -936,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>47688.31978105355</v>
+        <v>50613.8513988363</v>
       </c>
     </row>
     <row r="64">
@@ -944,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>48779.11571348931</v>
+        <v>51771.56430388802</v>
       </c>
     </row>
     <row r="65">
@@ -952,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>49896.61372761773</v>
+        <v>52957.61738114619</v>
       </c>
     </row>
     <row r="66">
@@ -960,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>51041.1306135589</v>
+        <v>54172.34685482961</v>
       </c>
     </row>
     <row r="67">
@@ -968,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>52212.96335435687</v>
+        <v>55416.06792697784</v>
       </c>
     </row>
     <row r="68">
@@ -976,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>53412.38784373526</v>
+        <v>56689.07341654515</v>
       </c>
     </row>
     <row r="69">
@@ -984,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>54639.65760578162</v>
+        <v>57991.63240054144</v>
       </c>
     </row>
     <row r="70">
@@ -992,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>55895.00252048329</v>
+        <v>59323.98886138364</v>
       </c>
     </row>
     <row r="71">
@@ -1000,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>57178.62755929161</v>
+        <v>60686.36034489063</v>
       </c>
     </row>
     <row r="72">
@@ -1008,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>58490.71153512374</v>
+        <v>62078.9366336016</v>
       </c>
     </row>
     <row r="73">
@@ -1016,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>59831.40587094046</v>
+        <v>63501.87843980987</v>
       </c>
     </row>
     <row r="74">
@@ -1024,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>61200.83339167055</v>
+        <v>64955.31612337545</v>
       </c>
     </row>
     <row r="75">
@@ -1032,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>62599.08714392901</v>
+        <v>66439.34843903678</v>
       </c>
     </row>
     <row r="76">
@@ -1040,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>64026.22924827875</v>
+        <v>67954.04131826205</v>
       </c>
     </row>
     <row r="77">
@@ -1048,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>65482.28978877675</v>
+        <v>69499.42669067258</v>
       </c>
     </row>
     <row r="78">
@@ -1056,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>66967.26574467374</v>
+        <v>71075.50135020538</v>
       </c>
     </row>
     <row r="79">
@@ -1064,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>68481.11996899093</v>
+        <v>72682.22587102887</v>
       </c>
     </row>
     <row r="80">
@@ -1072,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>70023.78021898353</v>
+        <v>74319.52357852829</v>
       </c>
     </row>
     <row r="81">
@@ -1080,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>71595.13824322732</v>
+        <v>75987.27958038771</v>
       </c>
     </row>
     <row r="82">
@@ -1088,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>73195.04893022122</v>
+        <v>77685.33986296222</v>
       </c>
     </row>
     <row r="83">
@@ -1096,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>74823.32952328146</v>
+        <v>79413.51045800807</v>
       </c>
     </row>
     <row r="84">
@@ -1104,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>76479.75890647285</v>
+        <v>81171.55668480812</v>
       </c>
     </row>
     <row r="85">
@@ -1112,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>78164.07696618103</v>
+        <v>82959.20247257847</v>
       </c>
     </row>
     <row r="86">
@@ -1120,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>79875.98403293791</v>
+        <v>84776.12976805164</v>
       </c>
     </row>
     <row r="87">
@@ -1128,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>81615.14040771192</v>
+        <v>86621.97803270623</v>
       </c>
     </row>
     <row r="88">
@@ -1136,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>83381.16597722319</v>
+        <v>88496.34383448276</v>
       </c>
     </row>
     <row r="89">
@@ -1144,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>85173.63992218119</v>
+        <v>90398.78053812259</v>
       </c>
     </row>
     <row r="90">
@@ -1152,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>86992.1005221793</v>
+        <v>92328.79809809352</v>
       </c>
     </row>
     <row r="91">
@@ -1160,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88836.04506132075</v>
+        <v>94285.86295842608</v>
       </c>
     </row>
     <row r="92">
@@ -1168,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>90704.92983768891</v>
+        <v>96269.39806276468</v>
       </c>
     </row>
     <row r="93">
@@ -1176,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>92598.17027987971</v>
+        <v>98278.78297804919</v>
       </c>
     </row>
     <row r="94">
@@ -1184,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>94515.14117363891</v>
+        <v>100313.3541350554</v>
       </c>
     </row>
     <row r="95">
@@ -1192,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>96455.17700110737</v>
+        <v>102372.4051884524</v>
       </c>
     </row>
     <row r="96">
@@ -1200,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>98417.57239486948</v>
+        <v>104455.1874987047</v>
       </c>
     </row>
     <row r="97">
@@ -1208,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>100401.5827089307</v>
+        <v>106560.9107380786</v>
       </c>
     </row>
     <row r="98">
@@ -1216,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>102406.4247080678</v>
+        <v>108688.7436222806</v>
       </c>
     </row>
     <row r="99">
@@ -1224,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>104431.2773768424</v>
+        <v>110837.8147691029</v>
       </c>
     </row>
     <row r="100">
@@ -1232,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>106475.2828490889</v>
+        <v>113007.2136849312</v>
       </c>
     </row>
     <row r="101">
@@ -1240,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>108537.5474582268</v>
+        <v>115195.9918794914</v>
       </c>
     </row>
     <row r="102">
@@ -1248,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>110617.1429086683</v>
+        <v>117403.164109119</v>
       </c>
     </row>
     <row r="103">
@@ -1256,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>112713.1075676103</v>
+        <v>119627.7097477986</v>
       </c>
     </row>
     <row r="104">
@@ -1264,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>114824.4478765088</v>
+        <v>121868.5742852282</v>
       </c>
     </row>
     <row r="105">
@@ -1272,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>116950.1398811659</v>
+        <v>124124.6709507717</v>
       </c>
     </row>
     <row r="106">
@@ -1280,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>119089.1308782839</v>
+        <v>126394.8824610248</v>
       </c>
     </row>
     <row r="107">
@@ -1288,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>121240.3411767933</v>
+        <v>128678.0628891946</v>
       </c>
     </row>
     <row r="108">
@@ -1296,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>123402.6659709379</v>
+        <v>130973.0396530926</v>
       </c>
     </row>
     <row r="109">
@@ -1304,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>125574.9773223627</v>
+        <v>133278.6156188179</v>
       </c>
     </row>
     <row r="110">
@@ -1312,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>127756.1262475458</v>
+        <v>135593.5713162465</v>
       </c>
     </row>
     <row r="111">
@@ -1320,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>129944.944906599</v>
+        <v>137916.6672621082</v>
       </c>
     </row>
     <row r="112">
@@ -1328,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>132140.2488891902</v>
+        <v>140246.6463861428</v>
       </c>
     </row>
     <row r="113">
@@ -1336,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>134340.8395925605</v>
+        <v>142582.2365550021</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>136545.5066866466</v>
+        <v>144922.153188599</v>
       </c>
     </row>
     <row r="115">
@@ -1352,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>138753.0306604544</v>
+        <v>147265.1019626942</v>
       </c>
     </row>
     <row r="116">
@@ -1360,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>140962.1854437588</v>
+        <v>149609.7815914283</v>
       </c>
     </row>
     <row r="117">
@@ -1368,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>143171.7410977051</v>
+        <v>151954.8866829843</v>
       </c>
     </row>
     <row r="118">
@@ -1376,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>145380.4665675866</v>
+        <v>154299.1106612387</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>147587.1324905759</v>
+        <v>156641.148745739</v>
       </c>
     </row>
     <row r="120">
@@ -1392,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>149790.5140511629</v>
+        <v>158979.700982314</v>
       </c>
     </row>
     <row r="121">
@@ -1400,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>151989.393876486</v>
+        <v>161313.4753160245</v>
       </c>
     </row>
     <row r="122">
@@ -1408,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>154182.5649636587</v>
+        <v>163641.1906980725</v>
       </c>
     </row>
     <row r="123">
@@ -1416,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>156368.8336308387</v>
+        <v>165961.5802179092</v>
       </c>
     </row>
     <row r="124">
@@ -1424,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>158547.0224836869</v>
+        <v>168273.3942516774</v>
       </c>
     </row>
     <row r="125">
@@ -1432,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>160715.9733886128</v>
+        <v>170575.4036178556</v>
       </c>
     </row>
     <row r="126">
@@ -1440,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>162874.5504441086</v>
+        <v>172866.4027308755</v>
       </c>
     </row>
     <row r="127">
@@ -1448,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>165021.6429412646</v>
+        <v>175145.2127432548</v>
       </c>
     </row>
     <row r="128">
@@ -1456,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>167156.1683046926</v>
+        <v>177410.6846669378</v>
       </c>
     </row>
     <row r="129">
@@ -1464,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>169277.0750046963</v>
+        <v>179661.7024641183</v>
       </c>
     </row>
     <row r="130">
@@ -1472,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>171383.34543201</v>
+        <v>181897.1860983345</v>
       </c>
     </row>
     <row r="131">
@@ -1480,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>173473.9987257719</v>
+        <v>184116.0945359305</v>
       </c>
     </row>
     <row r="132">
@@ -1488,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>175548.0935462997</v>
+        <v>186317.4286889319</v>
       </c>
     </row>
     <row r="133">
@@ -1496,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>177604.7307835885</v>
+        <v>188500.2342897031</v>
       </c>
     </row>
     <row r="134">
@@ -1504,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>179643.05619287</v>
+        <v>190663.6046881887</v>
       </c>
     </row>
     <row r="135">
@@ -1512,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>181662.2629491301</v>
+        <v>192806.6835631437</v>
       </c>
     </row>
     <row r="136">
@@ -1520,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>183661.5941117062</v>
+        <v>194928.667537926</v>
       </c>
     </row>
     <row r="137">
@@ -1528,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>185640.3449915781</v>
+        <v>197028.8086930132</v>
       </c>
     </row>
     <row r="138">
@@ -1536,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>187597.8654131828</v>
+        <v>199106.4169665731</v>
       </c>
     </row>
     <row r="139">
@@ -1544,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>189533.5618633529</v>
+        <v>201160.8624352326</v>
       </c>
     </row>
     <row r="140">
@@ -1552,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>191446.8995205029</v>
+        <v>203191.5774677479</v>
       </c>
     </row>
     <row r="141">
@@ -1560,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>193337.4041570582</v>
+        <v>205198.0587441429</v>
       </c>
     </row>
     <row r="142">
@@ -1568,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>195204.6639088712</v>
+        <v>207179.8691336723</v>
       </c>
     </row>
     <row r="143">
@@ -1576,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>197048.3309058703</v>
+        <v>209136.6394255064</v>
       </c>
     </row>
     <row r="144">
@@ -1584,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>198868.122758161</v>
+        <v>211068.0699060001</v>
       </c>
     </row>
     <row r="145">
@@ -1592,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>200663.8238929532</v>
+        <v>212973.9317776361</v>
       </c>
     </row>
     <row r="146">
@@ -1600,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>202435.2867374546</v>
+        <v>214854.0684144855</v>
       </c>
     </row>
     <row r="147">
@@ -1608,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>204182.4327441902</v>
+        <v>216708.3964504278</v>
       </c>
     </row>
     <row r="148">
@@ -1616,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>205905.2532548203</v>
+        <v>218536.9066959606</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>207603.8102000166</v>
+        <v>220339.6648810116</v>
       </c>
     </row>
     <row r="150">
@@ -1632,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>209278.2366328777</v>
+        <v>222116.8122210776</v>
       </c>
     </row>
     <row r="151">
@@ -1640,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>210928.7370939999</v>
+        <v>223868.5658046907</v>
       </c>
     </row>
     <row r="152">
@@ -1648,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>212555.587807425</v>
+        <v>225595.2188013875</v>
       </c>
     </row>
     <row r="153">
@@ -1656,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>214159.1367064527</v>
+        <v>227297.1404891044</v>
       </c>
     </row>
     <row r="154">
@@ -1664,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>215739.8032897481</v>
+        <v>228974.7761014584</v>
       </c>
     </row>
     <row r="155">
@@ -1672,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>217298.0783080155</v>
+        <v>230628.6464951987</v>
       </c>
     </row>
     <row r="156">
@@ -1680,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>218834.5232825925</v>
+        <v>232259.3476392685</v>
       </c>
     </row>
     <row r="157">
@@ -1688,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>220349.769857927</v>
+        <v>233867.5499275581</v>
       </c>
     </row>
     <row r="158">
@@ -1696,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>221844.5189898213</v>
+        <v>235453.9973173505</v>
       </c>
     </row>
     <row r="159">
@@ -1704,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>223319.5399729697</v>
+        <v>237019.5062972013</v>
       </c>
     </row>
     <row r="160">
@@ -1712,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>224775.6693107774</v>
+        <v>238564.9646874247</v>
       </c>
     </row>
     <row r="161">
@@ -1720,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>226213.8094318016</v>
+        <v>240091.3302777918</v>
       </c>
     </row>
     <row r="162">
@@ -1728,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>227634.927257224</v>
+        <v>241599.6293071223</v>
       </c>
     </row>
     <row r="163">
@@ -1736,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>229040.0526244534</v>
+        <v>243090.9547901799</v>
       </c>
     </row>
     <row r="164">
@@ -1744,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>230430.2765724623</v>
+        <v>244566.4646978195</v>
       </c>
     </row>
     <row r="165">
@@ -1752,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>231806.7494946389</v>
+        <v>246027.3799965221</v>
       </c>
     </row>
     <row r="166">
@@ -1760,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>233170.6791658897</v>
+        <v>247474.9825544671</v>
       </c>
     </row>
     <row r="167">
@@ -1768,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>234523.3286506819</v>
+        <v>248910.6129212385</v>
       </c>
     </row>
     <row r="168">
@@ -1776,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>235866.014099164</v>
+        <v>250335.6679887448</v>
       </c>
     </row>
     <row r="169">
@@ -1784,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>237200.1024390731</v>
+        <v>251751.5985415321</v>
       </c>
     </row>
     <row r="170">
@@ -1792,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>238527.0089713286</v>
+        <v>253159.9067048741</v>
       </c>
     </row>
     <row r="171">
@@ -1800,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>239848.1948773433</v>
+        <v>254562.1432991656</v>
       </c>
     </row>
     <row r="172">
@@ -1808,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>241165.1646466074</v>
+        <v>255959.9051096954</v>
       </c>
     </row>
     <row r="173">
@@ -1816,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>242479.4634331409</v>
+        <v>257354.8320809263</v>
       </c>
     </row>
     <row r="174">
@@ -1824,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>243792.6743496604</v>
+        <v>258748.6044446668</v>
       </c>
     </row>
     <row r="175">
@@ -1832,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>245106.4157083577</v>
+        <v>260142.9397915797</v>
       </c>
     </row>
     <row r="176">
@@ -1840,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>246422.3382174854</v>
+        <v>261539.5900957877</v>
       </c>
     </row>
     <row r="177">
@@ -1848,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>247742.122142862</v>
+        <v>262940.3387022446</v>
       </c>
     </row>
     <row r="178">
@@ -1856,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>249067.4744434438</v>
+        <v>264346.9972865843</v>
       </c>
     </row>
     <row r="179">
@@ -1864,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>250400.1258902693</v>
+        <v>265761.4027973204</v>
       </c>
     </row>
     <row r="180">
@@ -1872,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>251741.8281778351</v>
+        <v>267185.4143900147</v>
       </c>
     </row>
     <row r="181">
@@ -1880,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>253094.3510371337</v>
+        <v>268620.9103632083</v>
       </c>
     </row>
     <row r="182">
@@ -1888,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>254459.4793593153</v>
+        <v>270069.7851056288</v>
       </c>
     </row>
     <row r="183">
@@ -1896,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>255839.0103388075</v>
+        <v>271533.9460640497</v>
       </c>
     </row>
     <row r="184">
@@ -1904,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>257234.7506446324</v>
+        <v>273015.310741076</v>
       </c>
     </row>
     <row r="185">
@@ -1912,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>258648.5136285923</v>
+        <v>274515.803732061</v>
       </c>
     </row>
     <row r="186">
@@ -1920,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>260082.1165783816</v>
+        <v>276037.3538097049</v>
       </c>
     </row>
     <row r="187">
@@ -1928,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>261537.3780238319</v>
+        <v>277581.8910650464</v>
       </c>
     </row>
     <row r="188">
@@ -1936,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>263016.1151041508</v>
+        <v>279151.3441131898</v>
       </c>
     </row>
     <row r="189">
@@ -1944,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>264520.1410033046</v>
+        <v>280747.637371356</v>
       </c>
     </row>
     <row r="190">
@@ -1952,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>266051.2624611777</v>
+        <v>282372.6884173597</v>
       </c>
     </row>
     <row r="191">
@@ -1960,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>267611.2773668704</v>
+        <v>284028.4054352629</v>
       </c>
     </row>
     <row r="192">
@@ -1968,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>269201.97244075</v>
+        <v>285716.6847552272</v>
       </c>
     </row>
     <row r="193">
@@ -1976,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>270825.1210115744</v>
+        <v>287439.4084942712</v>
       </c>
     </row>
     <row r="194">
@@ -1984,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>272482.4808938164</v>
+        <v>289198.4423033742</v>
       </c>
     </row>
     <row r="195">
@@ -1992,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>274175.7923708753</v>
+        <v>290995.633226965</v>
       </c>
     </row>
     <row r="196">
@@ -2000,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>275906.7762889277</v>
+        <v>292832.8076798357</v>
       </c>
     </row>
     <row r="197">
@@ -2008,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>277677.132265676</v>
+        <v>294711.7695460027</v>
       </c>
     </row>
     <row r="198">
@@ -2016,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>279488.5370180604</v>
+        <v>296634.2984038292</v>
       </c>
     </row>
     <row r="199">
@@ -2024,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>281342.6428125119</v>
+        <v>298602.1478812052</v>
       </c>
     </row>
     <row r="200">
@@ -2032,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>283241.076040625</v>
+        <v>300617.0441438433</v>
       </c>
     </row>
     <row r="201">
@@ -2040,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>285185.4359231274</v>
+        <v>302680.6845197395</v>
       </c>
     </row>
     <row r="202">
@@ -2048,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>287177.2933441405</v>
+        <v>304794.7362619207</v>
       </c>
     </row>
     <row r="203">
@@ -2056,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>289218.2543550635</v>
+        <v>306960.9039480952</v>
       </c>
     </row>
     <row r="204">
@@ -2064,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>291309.7081792472</v>
+        <v>309180.66202619</v>
       </c>
     </row>
     <row r="205">
@@ -2072,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>293453.1930374509</v>
+        <v>311455.6430820727</v>
       </c>
     </row>
     <row r="206">
@@ -2080,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>295650.1574992609</v>
+        <v>313787.3845506147</v>
       </c>
     </row>
     <row r="207">
@@ -2088,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>297902.0179706796</v>
+        <v>316177.3897299665</v>
       </c>
     </row>
     <row r="208">
@@ -2096,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>300210.158331486</v>
+        <v>318627.1273966713</v>
       </c>
     </row>
     <row r="209">
@@ -2104,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>302575.9297061265</v>
+        <v>321138.0315625012</v>
       </c>
     </row>
     <row r="210">
@@ -2112,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>305000.650366818</v>
+        <v>323711.5013716154</v>
       </c>
     </row>
     <row r="211">
@@ -2120,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>307485.6057673582</v>
+        <v>326348.9011364451</v>
       </c>
     </row>
     <row r="212">
@@ -2128,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>310032.0487057493</v>
+        <v>329051.5605102936</v>
       </c>
     </row>
     <row r="213">
@@ -2136,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>312641.1996132663</v>
+        <v>331820.7747941375</v>
       </c>
     </row>
     <row r="214">
@@ -2144,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>315314.246967505</v>
+        <v>334657.8053750144</v>
       </c>
     </row>
     <row r="215">
@@ -2152,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>318052.347826656</v>
+        <v>337563.8802930733</v>
       </c>
     </row>
     <row r="216">
@@ -2160,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>320856.6284815235</v>
+        <v>340540.1949335923</v>
       </c>
     </row>
     <row r="217">
@@ -2168,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>323728.1852221275</v>
+        <v>343587.912840609</v>
       </c>
     </row>
     <row r="218">
@@ -2176,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>326668.0852151948</v>
+        <v>346708.1666482439</v>
       </c>
     </row>
     <row r="219">
@@ -2184,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>329677.3674884557</v>
+        <v>349902.0591253804</v>
       </c>
     </row>
     <row r="220">
@@ -2192,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>332757.0440177943</v>
+        <v>353170.6643295073</v>
       </c>
     </row>
     <row r="221">
@@ -2200,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>335908.1009132087</v>
+        <v>356515.0288654361</v>
       </c>
     </row>
     <row r="222">
@@ -2208,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>339131.4996981809</v>
+        <v>359936.1732431542</v>
       </c>
     </row>
     <row r="223">
@@ -2216,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>342428.1786792222</v>
+        <v>363435.093331389</v>
       </c>
     </row>
     <row r="224">
@@ -2224,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>345799.0543994648</v>
+        <v>367012.7619003723</v>
       </c>
     </row>
     <row r="225">
@@ -2232,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>349245.0231726703</v>
+        <v>370670.1302499561</v>
       </c>
     </row>
     <row r="226">
@@ -2240,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>352766.9626912882</v>
+        <v>374408.1299163196</v>
       </c>
     </row>
     <row r="227">
@@ -2248,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>356365.7337052686</v>
+        <v>378227.6744537728</v>
       </c>
     </row>
     <row r="228">
@@ -2256,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>360042.1817647555</v>
+        <v>382129.6612843581</v>
       </c>
     </row>
     <row r="229">
@@ -2264,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>363797.1390227599</v>
+        <v>386114.973611112</v>
       </c>
     </row>
     <row r="230">
@@ -2272,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>367631.4260919844</v>
+        <v>390184.4823888004</v>
       </c>
     </row>
     <row r="231">
@@ -2280,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>371545.8539510957</v>
+        <v>394339.0483471347</v>
       </c>
     </row>
     <row r="232">
@@ -2288,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>375541.2258944598</v>
+        <v>398579.5240601174</v>
       </c>
     </row>
     <row r="233">
@@ -2296,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>379618.3395209612</v>
+        <v>402906.7560568693</v>
       </c>
     </row>
     <row r="234">
@@ -2304,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>383777.9887564228</v>
+        <v>407321.5869681186</v>
       </c>
     </row>
     <row r="235">
@@ -2312,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>388020.9659040685</v>
+        <v>411824.857702453</v>
       </c>
     </row>
     <row r="236">
@@ -2320,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>392348.0637186471</v>
+        <v>416417.4096476847</v>
       </c>
     </row>
     <row r="237">
@@ -2328,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>396760.0774985471</v>
+        <v>421100.0868913102</v>
       </c>
     </row>
     <row r="238">
@@ -2336,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>401257.8071910926</v>
+        <v>425873.7384549595</v>
       </c>
     </row>
     <row r="239">
@@ -2344,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>405842.0595061912</v>
+        <v>430739.2205377095</v>
       </c>
     </row>
     <row r="240">
@@ -2352,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>410513.6500332612</v>
+        <v>435697.3987628788</v>
       </c>
     </row>
     <row r="241">
@@ -2360,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>415273.4053564353</v>
+        <v>440749.1504229922</v>
       </c>
     </row>
     <row r="242">
@@ -2368,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>420122.1651638768</v>
+        <v>445895.366718497</v>
       </c>
     </row>
     <row r="243">
@@ -2376,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>425060.7843458751</v>
+        <v>451136.9549845699</v>
       </c>
     </row>
     <row r="244">
@@ -2384,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>430090.1350772446</v>
+        <v>456474.8409012655</v>
       </c>
     </row>
     <row r="245">
@@ -2392,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>435211.1088799307</v>
+        <v>461909.9706826562</v>
       </c>
     </row>
     <row r="246">
@@ -2400,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>440424.6186605559</v>
+        <v>467443.3132393755</v>
       </c>
     </row>
     <row r="247">
@@ -2408,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>445731.6007192822</v>
+        <v>473075.8623107182</v>
       </c>
     </row>
     <row r="248">
@@ -2416,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>451133.016725002</v>
+        <v>478808.6385610026</v>
       </c>
     </row>
     <row r="249">
@@ -2424,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>456629.8556528955</v>
+        <v>484642.6916359923</v>
       </c>
     </row>
     <row r="250">
@@ -2432,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>462223.1356799852</v>
+        <v>490579.1021747353</v>
       </c>
     </row>
     <row r="251">
@@ -2440,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>467913.906034645</v>
+        <v>496618.9837725367</v>
       </c>
     </row>
     <row r="252">
@@ -2448,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>473703.2487954501</v>
+        <v>502763.4848901613</v>
       </c>
     </row>
     <row r="253">
@@ -2456,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>479592.2806359161</v>
+        <v>509013.7907056072</v>
       </c>
     </row>
     <row r="254">
@@ -2464,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>485582.1545105437</v>
+        <v>515371.1249035845</v>
       </c>
     </row>
     <row r="255">
@@ -2472,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>491674.0612779486</v>
+        <v>521836.7513982193</v>
       </c>
     </row>
     <row r="256">
@@ -2480,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>497869.2312575774</v>
+        <v>528411.9759852687</v>
       </c>
     </row>
     <row r="257">
@@ -2488,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>504168.9357154993</v>
+        <v>535098.1479190623</v>
       </c>
     </row>
     <row r="258">
@@ -2496,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>510574.4882751405</v>
+        <v>541896.6614097791</v>
       </c>
     </row>
     <row r="259">
@@ -2504,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>517087.2462490277</v>
+        <v>548808.9570368915</v>
       </c>
     </row>
     <row r="260">
@@ -2512,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>523708.6118876219</v>
+        <v>555836.5230746096</v>
       </c>
     </row>
     <row r="261">
@@ -2520,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>530440.0335402809</v>
+        <v>562980.8967240655</v>
       </c>
     </row>
     <row r="262">
@@ -2528,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>537283.0067253001</v>
+        <v>570243.6652489988</v>
       </c>
     </row>
     <row r="263">
@@ -2536,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>544239.0751035908</v>
+        <v>577626.4670091654</v>
       </c>
     </row>
     <row r="264">
@@ -2544,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>551309.8313521865</v>
+        <v>585130.992387432</v>
       </c>
     </row>
     <row r="265">
@@ -2552,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>558496.9179338871</v>
+        <v>592758.9846066355</v>
       </c>
     </row>
     <row r="266">
@@ -2560,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>565802.027756479</v>
+        <v>600512.2404292435</v>
       </c>
     </row>
     <row r="267">
@@ -2568,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>573226.9047195871</v>
+        <v>608392.6107377546</v>
       </c>
     </row>
     <row r="268">
@@ -2576,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>580773.3441425306</v>
+        <v>616402.0009888016</v>
       </c>
     </row>
     <row r="269">
@@ -2584,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>588443.1930688939</v>
+        <v>624542.371536407</v>
       </c>
     </row>
     <row r="270">
@@ -2592,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>596238.3504435822</v>
+        <v>632815.7378199004</v>
       </c>
     </row>
     <row r="271">
@@ -2600,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>604160.7671563594</v>
+        <v>641224.1704101271</v>
       </c>
     </row>
     <row r="272">
@@ -2608,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>612212.4459477338</v>
+        <v>649769.7949095606</v>
       </c>
     </row>
     <row r="273">
@@ -2616,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>620395.4411710603</v>
+        <v>658454.7916998098</v>
       </c>
     </row>
     <row r="274">
@@ -2624,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>628711.858406235</v>
+        <v>667281.3955316162</v>
       </c>
     </row>
     <row r="275">
@@ -2632,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>637163.8539192227</v>
+        <v>676251.8949512235</v>
       </c>
     </row>
     <row r="276">
@@ -2640,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>645753.6339616171</v>
+        <v>685368.6315569693</v>
       </c>
     </row>
     <row r="277">
@@ -2648,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>654483.4539051992</v>
+        <v>694633.9990807504</v>
       </c>
     </row>
     <row r="278">
@@ -2656,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>663355.6172049696</v>
+        <v>704050.4422874409</v>
       </c>
     </row>
     <row r="279">
@@ -2664,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>672372.4741852998</v>
+        <v>713620.4556865776</v>
       </c>
     </row>
     <row r="280">
@@ -2672,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>681536.4206428493</v>
+        <v>723346.5820495696</v>
       </c>
     </row>
     <row r="281">
@@ -2680,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>690849.8962605691</v>
+        <v>733231.4107264071</v>
       </c>
     </row>
     <row r="282">
@@ -2688,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>700315.382826276</v>
+        <v>743277.5757549495</v>
       </c>
     </row>
     <row r="283">
@@ -2696,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>709935.4022498769</v>
+        <v>753487.7537565134</v>
       </c>
     </row>
     <row r="284">
@@ -2704,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>719712.5143728515</v>
+        <v>763864.6616109731</v>
       </c>
     </row>
     <row r="285">
@@ -2712,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>729649.3145638332</v>
+        <v>774411.0539048379</v>
       </c>
     </row>
     <row r="286">
@@ -2720,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>739748.431094235</v>
+        <v>785129.7201458821</v>
       </c>
     </row>
     <row r="287">
@@ -2728,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>750012.5222869797</v>
+        <v>796023.4817369559</v>
       </c>
     </row>
     <row r="288">
@@ -2736,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>760444.2734332155</v>
+        <v>807095.1887035534</v>
       </c>
     </row>
     <row r="289">
@@ -2744,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>771046.3934700089</v>
+        <v>818347.7161676908</v>
       </c>
     </row>
     <row r="290">
@@ -2752,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>781821.611413573</v>
+        <v>829783.9605623259</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>792772.672541967</v>
+        <v>841406.8355798752</v>
       </c>
     </row>
     <row r="292">
@@ -2768,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>803902.3343215476</v>
+        <v>853219.2678487682</v>
       </c>
     </row>
     <row r="293">
@@ -2776,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>815213.3620717882</v>
+        <v>865224.192332315</v>
       </c>
     </row>
     <row r="294">
@@ -2784,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>826708.5243637643</v>
+        <v>877424.5474449047</v>
       </c>
     </row>
     <row r="295">
@@ -2792,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>838390.5881461191</v>
+        <v>889823.2698789618</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>850262.3135956434</v>
+        <v>902423.2891396263</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>862326.4486872426</v>
+        <v>915227.521781605</v>
       </c>
     </row>
     <row r="298">
@@ -2816,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>874585.7234798798</v>
+        <v>928238.8653445744</v>
       </c>
     </row>
     <row r="299">
@@ -2824,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>887042.8441153796</v>
+        <v>941460.1919838298</v>
       </c>
     </row>
     <row r="300">
@@ -2832,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>899700.4865279914</v>
+        <v>954894.3417939489</v>
       </c>
     </row>
     <row r="301">
@@ -2840,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>912561.2898620837</v>
+        <v>968544.1158226832</v>
       </c>
     </row>
     <row r="302">
@@ -2848,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>925627.8495967443</v>
+        <v>982412.268773773</v>
       </c>
     </row>
     <row r="303">
@@ -2856,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>938902.7103781922</v>
+        <v>996501.5013996494</v>
       </c>
     </row>
     <row r="304">
@@ -2864,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>952388.3585586537</v>
+        <v>1010814.452582594</v>
       </c>
     </row>
     <row r="305">
@@ -2872,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>966087.2144439258</v>
+        <v>1025353.691106714</v>
       </c>
     </row>
     <row r="306">
@@ -2880,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>980001.6242525001</v>
+        <v>1040121.707123782</v>
       </c>
     </row>
     <row r="307">
@@ -2888,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>994133.8517887016</v>
+        <v>1055120.903315552</v>
       </c>
     </row>
     <row r="308">
@@ -2896,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1008486.069834719</v>
+        <v>1070353.585757708</v>
       </c>
     </row>
     <row r="309">
@@ -2904,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1023060.351268243</v>
+        <v>1085821.954492609</v>
       </c>
     </row>
     <row r="310">
@@ -2912,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1037858.65991199</v>
+        <v>1101528.093817448</v>
       </c>
     </row>
     <row r="311">
@@ -2920,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1052882.841123296</v>
+        <v>1117473.962296555</v>
       </c>
     </row>
     <row r="312">
@@ -2928,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1068134.612135587</v>
+        <v>1133661.382510338</v>
       </c>
     </row>
     <row r="313">
@@ -2936,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1083615.552162179</v>
+        <v>1150092.030551989</v>
       </c>
     </row>
     <row r="314">
@@ -2944,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1099327.092275267</v>
+        <v>1166767.425285579</v>
       </c>
     </row>
     <row r="315">
@@ -2952,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1115270.505076718</v>
+        <v>1183688.917383179</v>
       </c>
     </row>
     <row r="316">
@@ -2960,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1131446.894176582</v>
+        <v>1200857.678157921</v>
       </c>
     </row>
     <row r="317">
@@ -2968,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1147857.183497828</v>
+        <v>1218274.688212602</v>
       </c>
     </row>
     <row r="318">
@@ -2976,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1164502.106429513</v>
+        <v>1235940.72592744</v>
       </c>
     </row>
     <row r="319">
@@ -2984,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1181382.194849241</v>
+        <v>1253856.355809095</v>
       </c>
     </row>
     <row r="320">
@@ -2992,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1198497.768040854</v>
+        <v>1272021.916728487</v>
       </c>
     </row>
     <row r="321">
@@ -3000,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1215848.921535179</v>
+        <v>1290437.510076968</v>
       </c>
     </row>
     <row r="322">
@@ -3008,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1233435.515900504</v>
+        <v>1309102.987869116</v>
       </c>
     </row>
     <row r="323">
@@ -3016,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1251257.165516954</v>
+        <v>1328017.940828468</v>
       </c>
     </row>
     <row r="324">
@@ -3024,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1269313.22736539</v>
+        <v>1347181.686488638</v>
       </c>
     </row>
     <row r="325">
@@ -3032,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1287602.789869868</v>
+        <v>1366593.257351303</v>
       </c>
     </row>
     <row r="326">
@@ -3040,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1306124.661828232</v>
+        <v>1386251.389137723</v>
       </c>
     </row>
     <row r="327">
@@ -3048,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1324877.361473106</v>
+        <v>1406154.509178655</v>
       </c>
     </row>
     <row r="328">
@@ -3056,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1343859.105705161</v>
+        <v>1426300.724987115</v>
       </c>
     </row>
     <row r="329">
@@ -3064,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1363067.799542132</v>
+        <v>1446687.813060126</v>
       </c>
     </row>
     <row r="330">
@@ -3072,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1382501.025830688</v>
+        <v>1467313.207959438</v>
       </c>
     </row>
     <row r="331">
@@ -3080,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1402156.035269211</v>
+        <v>1488173.991722244</v>
       </c>
     </row>
     <row r="332">
@@ -3088,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1422029.736791602</v>
+        <v>1509266.883655056</v>
       </c>
     </row>
     <row r="333">
@@ -3096,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1442118.688363104</v>
+        <v>1530588.230564879</v>
       </c>
     </row>
     <row r="334">
@@ -3104,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1462419.088242671</v>
+        <v>1552133.997485557</v>
       </c>
     </row>
     <row r="335">
@@ -3112,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1482926.766765346</v>
+        <v>1573899.758956024</v>
       </c>
     </row>
     <row r="336">
@@ -3120,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1503637.178701015</v>
+        <v>1595880.690910291</v>
       </c>
     </row>
     <row r="337">
@@ -3128,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1524545.396246631</v>
+        <v>1618071.563239763</v>
       </c>
     </row>
     <row r="338">
@@ -3136,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1545646.10270873</v>
+        <v>1640466.733088196</v>
       </c>
     </row>
     <row r="339">
@@ -3144,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1566933.586934189</v>
+        <v>1663060.138940808</v>
       </c>
     </row>
     <row r="340">
@@ -3152,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1588401.738549592</v>
+        <v>1685845.29557158</v>
       </c>
     </row>
     <row r="341">
@@ -3160,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1610044.044064705</v>
+        <v>1708815.289907707</v>
       </c>
     </row>
     <row r="342">
@@ -3168,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1631853.58389971</v>
+        <v>1731962.777874445</v>
       </c>
     </row>
     <row r="343">
@@ -3176,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1653823.030393985</v>
+        <v>1755279.982281754</v>
       </c>
     </row>
     <row r="344">
@@ -3184,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1675944.646851582</v>
+        <v>1778758.691811203</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1698210.287680514</v>
+        <v>1802390.261163814</v>
       </c>
     </row>
     <row r="346">
@@ -3200,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1720611.399676499</v>
+        <v>1826165.61242255</v>
       </c>
     </row>
     <row r="347">
@@ -3208,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1743139.024507293</v>
+        <v>1850075.237689062</v>
       </c>
     </row>
     <row r="348">
@@ -3216,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1765783.802441591</v>
+        <v>1874109.20304134</v>
       </c>
     </row>
     <row r="349">
@@ -3224,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1788535.977374554</v>
+        <v>1898257.153867547</v>
       </c>
     </row>
     <row r="350">
@@ -3232,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1811385.403188091</v>
+        <v>1922508.321616479</v>
       </c>
     </row>
     <row r="351">
@@ -3240,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1834321.55149101</v>
+        <v>1946851.532012556</v>
       </c>
     </row>
     <row r="352">
@@ -3248,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>1857333.520771044</v>
+        <v>1971275.214769293</v>
       </c>
     </row>
     <row r="353">
@@ -3256,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>1880410.046993633</v>
+        <v>1995767.414838282</v>
       </c>
     </row>
     <row r="354">
@@ -3264,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>1903539.515672564</v>
+        <v>2020315.805220334</v>
       </c>
     </row>
     <row r="355">
@@ -3272,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1926709.975436734</v>
+        <v>2044907.70136452</v>
       </c>
     </row>
     <row r="356">
@@ -3280,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>1949909.153108604</v>
+        <v>2069530.07717164</v>
       </c>
     </row>
     <row r="357">
@@ -3288,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>1973124.47030641</v>
+        <v>2094169.58261493</v>
       </c>
     </row>
     <row r="358">
@@ -3296,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>1996343.061575667</v>
+        <v>2022356.35159514</v>
       </c>
     </row>
     <row r="359">
@@ -3304,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2019551.794048355</v>
+        <v>2045867.504779187</v>
       </c>
     </row>
     <row r="360">
@@ -3312,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2042737.288623056</v>
+        <v>2069355.117264494</v>
       </c>
     </row>
     <row r="361">
@@ -3320,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2065885.942651526</v>
+        <v>2092805.409153908</v>
       </c>
     </row>
     <row r="362">
@@ -3328,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2088983.954111295</v>
+        <v>2116204.398578106</v>
       </c>
     </row>
     <row r="363">
@@ -3336,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2112017.347233583</v>
+        <v>2139537.927657462</v>
       </c>
     </row>
     <row r="364">
@@ -3344,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2134971.999555428</v>
+        <v>2162791.689906673</v>
       </c>
     </row>
     <row r="365">
@@ -3352,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>2157833.670348454</v>
+        <v>2185951.259033966</v>
       </c>
     </row>
     <row r="366">
@@ -3360,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>2180588.030376123</v>
+        <v>2209002.119086104</v>
       </c>
     </row>
     <row r="367">
@@ -3368,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>2203220.692923745</v>
+        <v>2231929.695882733</v>
       </c>
     </row>
     <row r="368">
@@ -3376,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2225717.246031533</v>
+        <v>2254719.389669443</v>
       </c>
     </row>
     <row r="369">
@@ -3384,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2248063.285864451</v>
+        <v>2277356.608922446</v>
       </c>
     </row>
     <row r="370">
@@ -3392,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2270244.451134298</v>
+        <v>2299826.805219194</v>
       </c>
     </row>
     <row r="371">
@@ -3400,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2292246.45849167</v>
+        <v>2322115.509091517</v>
       </c>
     </row>
     <row r="372">
@@ -3408,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2314055.138794831</v>
+        <v>2344208.366767087</v>
       </c>
     </row>
     <row r="373">
@@ -3416,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2335656.474154877</v>
+        <v>2561484.275347198</v>
       </c>
     </row>
     <row r="374">
@@ -3424,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2357036.635654787</v>
+        <v>2584931.622203384</v>
       </c>
     </row>
     <row r="375">
@@ -3432,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2378182.021632171</v>
+        <v>2608121.493777633</v>
       </c>
     </row>
     <row r="376">
@@ -3440,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2399079.296408902</v>
+        <v>2631039.265004061</v>
       </c>
     </row>
     <row r="377">
@@ -3448,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2419715.429350579</v>
+        <v>2653670.645354293</v>
       </c>
     </row>
     <row r="378">
@@ -3456,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2440077.734131255</v>
+        <v>2676001.721898587</v>
       </c>
     </row>
     <row r="379">
@@ -3464,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2460153.908076774</v>
+        <v>2698019.002453164</v>
       </c>
     </row>
     <row r="380">
@@ -3472,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2479932.07145711</v>
+        <v>2719709.458671607</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2499400.806596462</v>
+        <v>2741060.568936396</v>
       </c>
     </row>
     <row r="382">
@@ -3488,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2518549.196666942</v>
+        <v>2762060.360903447</v>
       </c>
     </row>
     <row r="383">
@@ -3496,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>2537366.864033681</v>
+        <v>2974784.041478297</v>
       </c>
     </row>
     <row r="384">
@@ -3504,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>2555844.008013226</v>
+        <v>2996446.463976818</v>
       </c>
     </row>
     <row r="385">
@@ -3512,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>2573971.441915848</v>
+        <v>3017698.889808827</v>
       </c>
     </row>
     <row r="386">
@@ -3520,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>2591740.629234425</v>
+        <v>3038531.310857044</v>
       </c>
     </row>
     <row r="387">
@@ -3528,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>2609143.718851105</v>
+        <v>3058934.522547849</v>
       </c>
     </row>
     <row r="388">
@@ -3536,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>2626173.579131049</v>
+        <v>3078900.163822461</v>
       </c>
     </row>
     <row r="389">
@@ -3544,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>2642823.830776885</v>
+        <v>3098420.755655166</v>
       </c>
     </row>
     <row r="390">
@@ -3552,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>2659088.878321035</v>
+        <v>3117489.737974618</v>
       </c>
     </row>
     <row r="391">
@@ -3560,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>2674963.940134742</v>
+        <v>3136101.504846132</v>
       </c>
     </row>
     <row r="392">
@@ -3568,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>2690445.076839844</v>
+        <v>3154251.43778136</v>
       </c>
     </row>
     <row r="393">
@@ -3576,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>2705529.218009138</v>
+        <v>2466913.02564107</v>
       </c>
     </row>
     <row r="394">
@@ -3584,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>2720214.18705333</v>
+        <v>2480302.842751569</v>
       </c>
     </row>
     <row r="395">
@@ -3592,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>2734498.724187051</v>
+        <v>2493327.544346313</v>
       </c>
     </row>
     <row r="396">
@@ -3600,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>2748382.507382563</v>
+        <v>2505986.836799043</v>
       </c>
     </row>
     <row r="397">
@@ -3608,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>2761866.171216369</v>
+        <v>2518281.298719309</v>
       </c>
     </row>
     <row r="398">
@@ -3616,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>2774951.32352297</v>
+        <v>2530212.396137435</v>
       </c>
     </row>
     <row r="399">
@@ -3624,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>2787640.559777147</v>
+        <v>2541782.495618342</v>
       </c>
     </row>
     <row r="400">
@@ -3632,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>2799937.475123452</v>
+        <v>2552994.875230093</v>
       </c>
     </row>
     <row r="401">
@@ -3640,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>2811846.67398866</v>
+        <v>2563853.73330857</v>
       </c>
     </row>
     <row r="402">
@@ -3648,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>2823373.777202282</v>
+        <v>2574364.194949977</v>
       </c>
     </row>
     <row r="403">
@@ -3656,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2834525.426569085</v>
+        <v>1827953.431039269</v>
       </c>
     </row>
     <row r="404">
@@ -3664,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2845309.286833048</v>
+        <v>1834907.82071755</v>
       </c>
     </row>
     <row r="405">
@@ -3672,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2855734.044974183</v>
+        <v>1841630.629492954</v>
       </c>
     </row>
     <row r="406">
@@ -3680,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2865809.406790972</v>
+        <v>1848128.116525291</v>
       </c>
     </row>
     <row r="407">
@@ -3688,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2875546.09071629</v>
+        <v>1854407.194010855</v>
       </c>
     </row>
     <row r="408">
@@ -3696,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2884955.81881626</v>
+        <v>1860475.421377687</v>
       </c>
     </row>
     <row r="409">
@@ -3704,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2894051.304933548</v>
+        <v>1866340.997639315</v>
       </c>
     </row>
     <row r="410">
@@ -3712,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2902846.239918317</v>
+        <v>1872012.75187037</v>
       </c>
     </row>
     <row r="411">
@@ -3720,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2911355.273915096</v>
+        <v>1877500.131783582</v>
       </c>
     </row>
     <row r="412">
@@ -3728,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2919593.995648406</v>
+        <v>1882813.190371315</v>
       </c>
     </row>
     <row r="413">
@@ -3736,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2927578.90867245</v>
+        <v>1907439.040922031</v>
       </c>
     </row>
     <row r="414">
@@ -3744,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2935327.404531205</v>
+        <v>1912487.507238559</v>
       </c>
     </row>
     <row r="415">
@@ -3752,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2942857.732786757</v>
+        <v>1917393.828316037</v>
       </c>
     </row>
     <row r="416">
@@ -3760,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2950188.967866513</v>
+        <v>1922170.431934774</v>
       </c>
     </row>
     <row r="417">
@@ -3768,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2957340.972681148</v>
+        <v>1926830.259604622</v>
       </c>
     </row>
     <row r="418">
@@ -3776,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2964334.358960913</v>
+        <v>1931386.740722435</v>
       </c>
     </row>
     <row r="419">
@@ -3784,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2971190.444261982</v>
+        <v>1935853.764559917</v>
       </c>
     </row>
     <row r="420">
@@ -3792,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2977931.205589608</v>
+        <v>1940245.650047193</v>
       </c>
     </row>
     <row r="421">
@@ -3800,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2984579.229588497</v>
+        <v>1944577.113319763</v>
       </c>
     </row>
     <row r="422">
@@ -3808,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2991157.659245806</v>
+        <v>1948863.232993307</v>
       </c>
     </row>
     <row r="423">
@@ -3816,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2997690.137064344</v>
+        <v>1953119.413138656</v>
       </c>
     </row>
     <row r="424">
@@ -3824,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>3004200.744651332</v>
+        <v>1957361.343921378</v>
       </c>
     </row>
     <row r="425">
@@ -3832,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>3010713.938690663</v>
+        <v>1961604.959885039</v>
       </c>
     </row>
     <row r="426">
@@ -3840,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>3017254.483252157</v>
+        <v>1965866.395847884</v>
       </c>
     </row>
     <row r="427">
@@ -3848,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>3023847.378416839</v>
+        <v>1970161.940399243</v>
       </c>
     </row>
     <row r="428">
@@ -3856,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>3030517.785196838</v>
+        <v>1974507.986981732</v>
       </c>
     </row>
     <row r="429">
@@ -3864,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>3037290.946739305</v>
+        <v>1978920.982552338</v>
       </c>
     </row>
     <row r="430">
@@ -3872,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>3044192.105826002</v>
+        <v>1983417.373829986</v>
       </c>
     </row>
     <row r="431">
@@ -3880,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>3051246.418688762</v>
+        <v>1988013.55114273</v>
       </c>
     </row>
     <row r="432">
@@ -3888,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>3058478.865182987</v>
+        <v>1992725.789902067</v>
       </c>
     </row>
     <row r="433">
@@ -3896,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>3065914.155388529</v>
+        <v>1997570.189749539</v>
       </c>
     </row>
     <row r="434">
@@ -3904,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>3073576.632723088</v>
+        <v>2002562.611431094</v>
       </c>
     </row>
     <row r="435">
@@ -3912,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>3081490.173694527</v>
+        <v>2007718.611481559</v>
       </c>
     </row>
     <row r="436">
@@ -3920,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>3089678.08443484</v>
+        <v>2013053.37481224</v>
       </c>
     </row>
     <row r="437">
@@ -3928,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>3098162.994211958</v>
+        <v>2018581.645329435</v>
       </c>
     </row>
     <row r="438">
@@ -3936,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>3106966.746134246</v>
+        <v>2024317.654723893</v>
       </c>
     </row>
     <row r="439">
@@ -3944,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>3116110.285323542</v>
+        <v>2030275.04961091</v>
       </c>
     </row>
     <row r="440">
@@ -3952,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>3125613.544857666</v>
+        <v>2036466.817217141</v>
       </c>
     </row>
     <row r="441">
@@ -3960,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>3135495.329847939</v>
+        <v>2042905.2098523</v>
       </c>
     </row>
     <row r="442">
@@ -3968,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>3145773.200054932</v>
+        <v>2049601.668428455</v>
       </c>
     </row>
     <row r="443">
@@ -3976,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>3156463.351500159</v>
+        <v>2056566.745325132</v>
       </c>
     </row>
     <row r="444">
@@ -3984,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>3167580.497590216</v>
+        <v>2063810.026936771</v>
       </c>
     </row>
     <row r="445">
@@ -3992,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>3179137.750317415</v>
+        <v>2071340.056270005</v>
       </c>
     </row>
     <row r="446">
@@ -4000,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>3191146.502160456</v>
+        <v>2079164.255997058</v>
       </c>
     </row>
     <row r="447">
@@ -4008,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>3203616.309362375</v>
+        <v>2087288.852406483</v>
       </c>
     </row>
     <row r="448">
@@ -4016,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>3216554.777318401</v>
+        <v>2095718.800728605</v>
       </c>
     </row>
     <row r="449">
@@ -4024,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>3229967.448864701</v>
+        <v>2104457.712351001</v>
       </c>
     </row>
     <row r="450">
@@ -4032,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>3243857.696293414</v>
+        <v>2113507.784461819</v>
       </c>
     </row>
     <row r="451">
@@ -4040,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>3258226.617992662</v>
+        <v>2122869.732706461</v>
       </c>
     </row>
     <row r="452">
@@ -4048,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>3273072.940630876</v>
+        <v>2132542.727456616</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>13492526.23057194</v>
+        <v>23857510.00534276</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>16238.37117997823</v>
+        <v>28712.71815792335</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>16485.13637491187</v>
+        <v>29149.04883510671</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>16737.15431285084</v>
+        <v>29594.66742225323</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>16994.60640001435</v>
+        <v>30049.89468217752</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>17257.68130447777</v>
+        <v>30515.06421812177</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>17526.57515654651</v>
+        <v>30990.52282805719</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>17801.49174590165</v>
+        <v>31476.63085327739</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>18082.64271472024</v>
+        <v>31973.76251987389</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>18370.2477456941</v>
+        <v>32482.30627119146</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>18664.53474423951</v>
+        <v>33002.66509001155</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>18965.74001395051</v>
+        <v>33535.25680878914</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>19274.10842405946</v>
+        <v>34080.51440575688</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>19589.89356820508</v>
+        <v>34638.88628565898</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>19913.35791308903</v>
+        <v>35210.83654260603</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>20244.77293621299</v>
+        <v>35796.84520362204</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>20584.41925126614</v>
+        <v>36397.40845035474</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>20932.58672014858</v>
+        <v>37013.03881715563</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>21289.57455036933</v>
+        <v>37644.26536329933</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>21655.6913764352</v>
+        <v>38291.63381689547</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>22031.25532419378</v>
+        <v>38955.70668866017</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>22416.59405655</v>
+        <v>39637.06335275204</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>22812.04479939945</v>
+        <v>40336.30009262762</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>23217.95434644254</v>
+        <v>41054.03010955377</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>23634.67904135244</v>
+        <v>41790.88349107687</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>24062.58473616937</v>
+        <v>42547.50713745575</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>24502.04672435507</v>
+        <v>43324.56464328828</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>24953.44964724128</v>
+        <v>44122.73613209348</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>25417.18737256672</v>
+        <v>44942.71804154036</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>25893.66284361046</v>
+        <v>45785.22285668532</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>26383.28789776449</v>
+        <v>46650.97878917174</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>26886.48305319094</v>
+        <v>47540.72939999693</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>27403.67726228712</v>
+        <v>48455.23316358861</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>27935.30763082653</v>
+        <v>49395.2629711894</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>28481.81910152357</v>
+        <v>50361.60557133541</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>29043.66410103814</v>
+        <v>51355.06094568917</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>29621.30214921792</v>
+        <v>52376.44161810099</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>30215.19942982511</v>
+        <v>53426.5718955673</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>30825.82832171157</v>
+        <v>54506.28703925356</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>31453.66688972442</v>
+        <v>55616.43236431264</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>32099.19833455455</v>
+        <v>56757.86226710599</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>32762.91040120395</v>
+        <v>57931.4391792543</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>33445.29474521307</v>
+        <v>59138.03244699974</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>34146.84625668664</v>
+        <v>60378.517135947</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>34868.0623416522</v>
+        <v>61653.77276036023</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>35609.44216072511</v>
+        <v>62964.68193696901</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>36371.48582534712</v>
+        <v>64312.12896375584</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>37154.69355150299</v>
+        <v>65696.99832355649</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>37959.56477155146</v>
+        <v>67120.17311359763</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>38786.59720471369</v>
+        <v>68582.53340193293</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>39636.28588680823</v>
+        <v>70084.95451181856</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>40509.12216032817</v>
+        <v>71628.30523596574</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>41405.59262579776</v>
+        <v>73213.44598232755</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>42326.17805594669</v>
+        <v>74841.22685413987</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>43271.35227388392</v>
+        <v>76512.48566630627</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>44241.58099721138</v>
+        <v>78228.04590155766</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>45237.3206499807</v>
+        <v>79988.7146097521</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>46259.01714434788</v>
+        <v>81795.28025359413</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>47307.10463451628</v>
+        <v>83648.51050535454</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>48382.0042453888</v>
+        <v>85549.14999887088</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>49484.12277859438</v>
+        <v>87497.91804154094</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>50613.8513988363</v>
+        <v>89495.50629152139</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>51771.56430388802</v>
+        <v>91542.5764060121</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>52957.61738114619</v>
+        <v>93639.75766577054</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>54172.34685482961</v>
+        <v>95787.64458308642</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>55416.06792697784</v>
+        <v>97986.79449879307</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>56689.07341654515</v>
+        <v>100237.7251759107</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>57991.63240054144</v>
+        <v>102540.9123969092</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>59323.98886138364</v>
+        <v>104896.7875719525</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>60686.36034489063</v>
+        <v>107305.7353659628</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>62078.9366336016</v>
+        <v>109768.0913527791</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>63501.87843980987</v>
+        <v>112284.1397041778</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>64955.31612337545</v>
+        <v>114854.1109227061</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>66439.34843903678</v>
+        <v>117478.1796266764</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>67954.04131826205</v>
+        <v>120156.4623962336</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>69499.42669067258</v>
+        <v>122889.0156893934</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>71075.50135020538</v>
+        <v>125675.8338371893</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>72682.22587102887</v>
+        <v>128516.8471267926</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>74319.52357852829</v>
+        <v>131411.9199820066</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>75987.27958038771</v>
+        <v>134360.8492500244</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>77685.33986296222</v>
+        <v>137363.3626036323</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>79413.51045800807</v>
+        <v>140419.1170678204</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>81171.55668480812</v>
+        <v>143527.6976797078</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>82959.20247257847</v>
+        <v>146688.6162904202</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>84776.12976805164</v>
+        <v>149901.3105175778</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>86621.97803270623</v>
+        <v>153165.1428562958</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>88496.34383448276</v>
+        <v>156479.3999572553</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>90398.78053812259</v>
+        <v>159843.2920791604</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>92328.79809809352</v>
+        <v>163255.9527225885</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>94285.86295842608</v>
+        <v>166716.4384528808</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>96269.39806276468</v>
+        <v>170223.7289179148</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>98278.78297804919</v>
+        <v>173776.7270667984</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>100313.3541350554</v>
+        <v>177374.2595751937</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>102372.4051884524</v>
+        <v>181015.0774819709</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>104455.1874987047</v>
+        <v>184697.85704131</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>106560.9107380786</v>
+        <v>188421.20079424</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>108688.7436222806</v>
+        <v>192183.6388623257</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>110837.8147691029</v>
+        <v>195983.630465924</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>113007.2136849312</v>
+        <v>199819.5656685315</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>115195.9918794914</v>
+        <v>203689.7673478787</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>117403.164109119</v>
+        <v>207592.4933942836</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>119627.7097477986</v>
+        <v>211525.9391349254</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>121868.5742852282</v>
+        <v>215488.2399827242</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>124124.6709507717</v>
+        <v>219477.474307818</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>126394.8824610248</v>
+        <v>223491.6665276105</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>128678.0628891946</v>
+        <v>227528.7904122127</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>130973.0396530926</v>
+        <v>231586.7725996154</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>133278.6156188179</v>
+        <v>235663.496315426</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>135593.5713162465</v>
+        <v>239756.8052903003</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>137916.6672621082</v>
+        <v>243864.5078676121</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>140246.6463861428</v>
+        <v>247984.3812933864</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>142582.2365550021</v>
+        <v>252114.176179068</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>144922.153188599</v>
+        <v>256251.6211277549</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>147265.1019626942</v>
+        <v>260394.4275129172</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>149609.7815914283</v>
+        <v>264540.2943984749</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>151954.8866829843</v>
+        <v>268686.9135881866</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>154299.1106612387</v>
+        <v>272831.9747917175</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>156641.148745739</v>
+        <v>276973.1708938422</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>158979.700982314</v>
+        <v>281108.2033131744</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>161313.4753160245</v>
+        <v>285234.7874357647</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>163641.1906980725</v>
+        <v>289350.658108743</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>165961.5802179092</v>
+        <v>293453.5751785176</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>168273.3942516774</v>
+        <v>297541.3290578576</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>170575.4036178556</v>
+        <v>301611.7463057076</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>172866.4027308755</v>
+        <v>305662.6952034209</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>175145.2127432548</v>
+        <v>309692.0913106842</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>177410.6846669378</v>
+        <v>313697.9029846778</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>179661.7024641183</v>
+        <v>317678.1568452746</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>181897.1860983345</v>
+        <v>321630.943169992</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>184116.0945359305</v>
+        <v>325554.4212011806</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>186317.4286889319</v>
+        <v>329446.824349624</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>188500.2342897031</v>
+        <v>333306.4652775121</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>190663.6046881887</v>
+        <v>337131.7408445282</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>192806.6835631437</v>
+        <v>340921.1369018527</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>194928.667537926</v>
+        <v>344673.2329174111</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>197028.8086930132</v>
+        <v>348386.7064185112</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>199106.4169665731</v>
+        <v>352060.337236536</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>201160.8624352326</v>
+        <v>355693.0115398044</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>203191.5774677479</v>
+        <v>359283.7256416943</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>205198.0587441429</v>
+        <v>362831.5895708867</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>207179.8691336723</v>
+        <v>366335.8303919835</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>209136.6394255064</v>
+        <v>369795.7952657084</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>211068.0699060001</v>
+        <v>373210.9542378358</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>212973.9317776361</v>
+        <v>376580.9027481695</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>214854.0684144855</v>
+        <v>379905.363850451</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>216708.3964504278</v>
+        <v>383184.19013655</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>218536.9066959606</v>
+        <v>386417.3653575717</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>220339.6648810116</v>
+        <v>389605.0057372965</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>222116.8122210776</v>
+        <v>392747.3609732289</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>223868.5658046907</v>
+        <v>395844.8149217156</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>225595.2188013875</v>
+        <v>398897.885965677</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>227297.1404891044</v>
+        <v>401907.227063048</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>228974.7761014584</v>
+        <v>404873.6254767391</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>230628.6464951987</v>
+        <v>407798.0021866242</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>232259.3476392685</v>
+        <v>410681.4109860985</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>233867.5499275581</v>
+        <v>413525.0372668871</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>235453.9973173505</v>
+        <v>416330.1964956432</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>237019.5062972013</v>
+        <v>419098.3323889511</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>238564.9646874247</v>
+        <v>421831.0147923437</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>240091.3302777918</v>
+        <v>424529.9372714774</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>241599.6293071223</v>
+        <v>427196.9144237448</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>243090.9547901799</v>
+        <v>429833.8789198858</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>244566.4646978195</v>
+        <v>432442.8782861223</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>246027.3799965221</v>
+        <v>435026.0714376601</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>247474.9825544671</v>
+        <v>437585.7249762005</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>248910.6129212385</v>
+        <v>440124.2092640142</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>250335.6679887448</v>
+        <v>442643.9942879752</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>251751.5985415321</v>
+        <v>445147.6453280192</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>253159.9067048741</v>
+        <v>447637.8184448525</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>254562.1432991656</v>
+        <v>450117.2558019848</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>255959.9051096954</v>
+        <v>452588.7808381373</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>257354.8320809263</v>
+        <v>455055.2933061625</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>258748.6044446668</v>
+        <v>457519.7641950732</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>260142.9397915797</v>
+        <v>459985.2305518778</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>261539.5900957877</v>
+        <v>462454.790220482</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>262940.3387022446</v>
+        <v>464931.5965147545</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>264346.9972865843</v>
+        <v>467418.8528429241</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>265761.4027973204</v>
+        <v>469919.8073007735</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>267185.4143900147</v>
+        <v>472437.7472506289</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>268620.9103632083</v>
+        <v>474975.9939034681</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>270069.7851056288</v>
+        <v>477537.896920967</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>271533.9460640497</v>
+        <v>480126.8290540623</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>273015.310741076</v>
+        <v>482746.1808344307</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>274515.803732061</v>
+        <v>485399.3553351598</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>276037.3538097049</v>
+        <v>488089.7630157295</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>277581.8910650464</v>
+        <v>490820.8166667087</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>279151.3441131898</v>
+        <v>493595.9264689157</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>280747.637371356</v>
+        <v>496418.4951804643</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>282372.6884173597</v>
+        <v>499291.9134660172</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>284028.4054352629</v>
+        <v>502219.5553801858</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>285716.6847552272</v>
+        <v>505204.7740174932</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>287439.4084942712</v>
+        <v>508250.8973407563</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>289198.4423033742</v>
+        <v>511361.2241975107</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>290995.633226965</v>
+        <v>514539.0205351548</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>292832.8076798357</v>
+        <v>517787.515823725</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>294711.7695460027</v>
+        <v>521109.899694298</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>296634.2984038292</v>
+        <v>524509.3188006496</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>298602.1478812052</v>
+        <v>527988.8739108802</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>300617.0441438433</v>
+        <v>531551.617234417</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>302680.6845197395</v>
+        <v>535200.5499897833</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>304794.7362619207</v>
+        <v>538938.6202168857</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>306960.9039480952</v>
+        <v>542768.8419532024</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>309180.66202619</v>
+        <v>546693.8223203031</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>311455.6430820727</v>
+        <v>550716.4480595593</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>313787.3845506147</v>
+        <v>554839.4376661732</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>316177.3897299665</v>
+        <v>559065.4492747338</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>318627.1273966713</v>
+        <v>563397.0799786601</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>321138.0315625012</v>
+        <v>567836.8654002373</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>323711.5013716154</v>
+        <v>572387.2795087735</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>326348.9011364451</v>
+        <v>577050.7346840501</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>329051.5605102936</v>
+        <v>581829.5820215134</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>331820.7747941375</v>
+        <v>586726.1118747626</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>334657.8053750144</v>
+        <v>591742.5546307063</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>337563.8802930733</v>
+        <v>596881.081712223</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>340540.1949335923</v>
+        <v>602143.8068017869</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>343587.912840609</v>
+        <v>607532.7872801321</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>346708.1666482439</v>
+        <v>613050.0258730197</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>349902.0591253804</v>
+        <v>618697.4724984424</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>353170.6643295073</v>
+        <v>624477.0263068525</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>356515.0288654361</v>
+        <v>630390.5379068259</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>359936.1732431542</v>
+        <v>636439.8117660232</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>363435.093331389</v>
+        <v>642626.6087813822</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>367012.7619003723</v>
+        <v>648952.6490070384</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>370670.1302499561</v>
+        <v>655419.6145331614</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>374408.1299163196</v>
+        <v>662029.152503758</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>378227.6744537728</v>
+        <v>668782.8782672602</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>382129.6612843581</v>
+        <v>675682.3786469944</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>386114.973611112</v>
+        <v>682729.2153242143</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>390184.4823888004</v>
+        <v>689924.928322759</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>394339.0483471347</v>
+        <v>697271.0395865068</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>398579.5240601174</v>
+        <v>704769.0566383963</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>402906.7560568693</v>
+        <v>712420.4763127959</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>407321.5869681186</v>
+        <v>720226.7885509275</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>411824.857702453</v>
+        <v>728189.4802489222</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>416417.4096476847</v>
+        <v>736310.039150276</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>421100.0868913102</v>
+        <v>744589.9577720723</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>425873.7384549595</v>
+        <v>753030.7373559379</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>430739.2205377095</v>
+        <v>761633.891834675</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>435697.3987628788</v>
+        <v>770400.9518050478</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>440749.1504229922</v>
+        <v>779333.4684973317</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>445895.366718497</v>
+        <v>788433.0177338172</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>451136.9549845699</v>
+        <v>797701.2038662536</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>456474.8409012655</v>
+        <v>807139.663683837</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>461909.9706826562</v>
+        <v>816750.0702840522</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>467443.3132393755</v>
+        <v>826534.1368964855</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>473075.8623107182</v>
+        <v>836493.6206528085</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>478808.6385610026</v>
+        <v>846630.3262935694</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>484642.6916359923</v>
+        <v>856946.1098043615</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>490579.1021747353</v>
+        <v>867442.8819731624</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>496618.9837725367</v>
+        <v>878122.6118612642</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>502763.4848901613</v>
+        <v>888987.3301791289</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>509013.7907056072</v>
+        <v>900039.1325607004</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>515371.1249035845</v>
+        <v>911280.1827275619</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>521836.7513982193</v>
+        <v>922712.7155350239</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>528411.9759852687</v>
+        <v>934339.0398935768</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>535098.1479190623</v>
+        <v>946161.5415572374</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>541896.6614097791</v>
+        <v>958182.6857710411</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>548808.9570368915</v>
+        <v>970405.0197702933</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>555836.5230746096</v>
+        <v>982831.1751242235</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>562980.8967240655</v>
+        <v>995463.8699147362</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>570243.6652489988</v>
+        <v>1008305.910744531</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>577626.4670091654</v>
+        <v>1021360.19456438</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>585130.992387432</v>
+        <v>1034629.710312414</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>592758.9846066355</v>
+        <v>1048117.540358501</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>600512.2404292435</v>
+        <v>1061826.861741381</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>608392.6107377546</v>
+        <v>1075760.947194936</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>616402.0009888016</v>
+        <v>1089923.16595113</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>624542.371536407</v>
+        <v>1104316.984311597</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>632815.7378199004</v>
+        <v>1118945.965979913</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>641224.1704101271</v>
+        <v>1133813.772143302</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>649769.7949095606</v>
+        <v>1148924.161296015</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>658454.7916998098</v>
+        <v>1164280.988792875</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>667281.3955316162</v>
+        <v>1179888.206124302</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>676251.8949512235</v>
+        <v>1195749.859902027</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>685368.6315569693</v>
+        <v>1211870.09054459</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>694633.9990807504</v>
+        <v>1228253.130653189</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>704050.4422874409</v>
+        <v>1244903.303065626</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>713620.4556865776</v>
+        <v>1261825.01857831</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>723346.5820495696</v>
+        <v>1279022.773324382</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>733231.4107264071</v>
+        <v>1296501.145797315</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>743277.5757549495</v>
+        <v>1314264.793507756</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>753487.7537565134</v>
+        <v>1332318.449262503</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>763864.6616109731</v>
+        <v>1350666.917053609</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>774411.0539048379</v>
+        <v>1369315.067546067</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>785129.7201458821</v>
+        <v>1388267.83315272</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>796023.4817369559</v>
+        <v>1407530.20268334</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>807095.1887035534</v>
+        <v>1427107.215558313</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>818347.7161676908</v>
+        <v>1447003.955573743</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>829783.9605623259</v>
+        <v>1467225.544207778</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>841406.8355798752</v>
+        <v>1487777.133456775</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>853219.2678487682</v>
+        <v>1508663.898190572</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>865224.192332315</v>
+        <v>1529891.02801676</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>877424.5474449047</v>
+        <v>1551463.718645134</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>889823.2698789618</v>
+        <v>1573387.162740706</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>902423.2891396263</v>
+        <v>1595666.540259921</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>915227.521781605</v>
+        <v>1618307.008260241</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>928238.8653445744</v>
+        <v>1641313.690176718</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>941460.1919838298</v>
+        <v>1664691.664559694</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>954894.3417939489</v>
+        <v>1688445.953269689</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>968544.1158226832</v>
+        <v>1712581.509124554</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>982412.268773773</v>
+        <v>1737103.202996571</v>
       </c>
     </row>
     <row r="303">

--- a/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>23857510.00534276</v>
+        <v>24182101.97820457</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>28712.71815792335</v>
+        <v>29103.36738456176</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>29149.04883510671</v>
+        <v>29545.63453354353</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>29594.66742225323</v>
+        <v>29997.31595861042</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>30049.89468217752</v>
+        <v>30458.73678669694</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>30515.06421812177</v>
+        <v>30930.23515986492</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>30990.52282805719</v>
+        <v>31412.16259442532</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>31476.63085327739</v>
+        <v>31904.88433427436</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>31973.76251987389</v>
+        <v>32408.77969701503</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>32482.30627119146</v>
+        <v>32924.24241093556</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>33002.66509001155</v>
+        <v>33451.68094157633</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>33535.25680878914</v>
+        <v>33991.51880618763</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>34080.51440575688</v>
+        <v>34544.19487386242</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>34638.88628565898</v>
+        <v>35110.16365008971</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>35210.83654260603</v>
+        <v>35689.89554318571</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>35796.84520362204</v>
+        <v>36283.87711115431</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>36397.40845035474</v>
+        <v>36892.61128641399</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>37013.03881715563</v>
+        <v>37516.61757657271</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>37644.26536329933</v>
+        <v>38156.43223899048</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>38291.63381689547</v>
+        <v>38812.60842664915</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>38955.70668866017</v>
+        <v>39485.71630347187</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>39637.06335275204</v>
+        <v>40176.34312625887</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>40336.30009262762</v>
+        <v>40885.09329116678</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>41054.03010955377</v>
+        <v>41612.58834233681</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>41790.88349107687</v>
+        <v>42359.46693993507</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>42547.50713745575</v>
+        <v>43126.38478558441</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>43324.56464328828</v>
+        <v>43914.01450238063</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>44122.73613209348</v>
+        <v>44723.04546722399</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>44942.71804154036</v>
+        <v>45554.18359312595</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>45785.22285668532</v>
+        <v>46408.15105881709</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>46650.97878917174</v>
+        <v>47285.68598358224</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>47540.72939999693</v>
+        <v>48187.54204489486</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>48455.23316358861</v>
+        <v>49114.4880365626</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>49395.2629711894</v>
+        <v>50067.30736535523</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>50361.60557133541</v>
+        <v>51046.79748387059</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>51355.06094568917</v>
+        <v>52053.76925787541</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>52376.44161810099</v>
+        <v>53089.04626596631</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>53426.5718955673</v>
+        <v>54153.46403020087</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>54506.28703925356</v>
+        <v>55247.86917584204</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>55616.43236431264</v>
+        <v>56373.11851892914</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>56757.86226710599</v>
+        <v>57530.07808026388</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>57931.4391792543</v>
+        <v>58719.62202523054</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>59138.03244699974</v>
+        <v>59942.6315279113</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>60378.517135947</v>
+        <v>61199.99355956532</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>61653.77276036023</v>
+        <v>62492.59960063724</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>62964.68193696901</v>
+        <v>63821.3442762475</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>64312.12896375584</v>
+        <v>65187.12391564368</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>65696.99832355649</v>
+        <v>66590.83503544162</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>67120.17311359763</v>
+        <v>68033.37274779624</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>68582.53340193293</v>
+        <v>69515.62909447624</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>70084.95451181856</v>
+        <v>71038.49130789773</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>71628.30523596574</v>
+        <v>72602.84000108093</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>73213.44598232755</v>
+        <v>74209.54728820956</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>74841.22685413987</v>
+        <v>75859.47483854993</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>76512.48566630627</v>
+        <v>77553.47186584784</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>78228.04590155766</v>
+        <v>79292.3730566809</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>79988.7146097521</v>
+        <v>81076.99644117728</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>81795.28025359413</v>
+        <v>82908.14120942533</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>83648.51050535454</v>
+        <v>84786.58547821651</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>85549.14999887088</v>
+        <v>86713.08401246098</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>87497.91804154094</v>
+        <v>88688.36590605169</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>89495.50629152139</v>
+        <v>90713.13222746048</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>91542.5764060121</v>
+        <v>92788.05363602587</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>93639.75766577054</v>
+        <v>94913.76797414836</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>95787.64458308642</v>
+        <v>97090.87784272023</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>97986.79449879307</v>
+        <v>99319.9481654433</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>100237.7251759107</v>
+        <v>101601.5037497326</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>102540.9123969092</v>
+        <v>103936.0268512889</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>104896.7875719525</v>
+        <v>106323.9547498022</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>107305.7353659628</v>
+        <v>108765.677343731</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>109768.0913527791</v>
+        <v>111261.5347725448</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>112284.1397041778</v>
+        <v>113811.8150743027</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>114854.1109227061</v>
+        <v>116416.7518876409</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>117478.1796266764</v>
+        <v>119076.5222066312</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>120156.4623962336</v>
+        <v>121791.2441975429</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>122889.0156893934</v>
+        <v>124560.975086528</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>125675.8338371893</v>
+        <v>127385.7091274912</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>128516.8471267926</v>
+        <v>130265.3756591299</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>131411.9199820066</v>
+        <v>133199.8372606734</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>134360.8492500244</v>
+        <v>136188.8880153309</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>137363.3626036323</v>
+        <v>139232.2518907566</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>140419.1170678204</v>
+        <v>142329.5812456139</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>143527.6976797078</v>
+        <v>145480.4554712684</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>146688.6162904202</v>
+        <v>148684.3797773647</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>149901.3105175778</v>
+        <v>151940.7841300619</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>153165.1428562958</v>
+        <v>155249.0223509393</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>156479.3999572553</v>
+        <v>158608.3713852452</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>159843.2920791604</v>
+        <v>162018.0307469041</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>163255.9527225885</v>
+        <v>165477.1221473856</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>166716.4384528808</v>
+        <v>168984.6893161852</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>170223.7289179148</v>
+        <v>172539.6980188388</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>173776.7270667984</v>
+        <v>176141.0362785915</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>177374.2595751937</v>
+        <v>179787.5148075092</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>181015.0774819709</v>
+        <v>183477.8676517937</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>184697.85704131</v>
+        <v>187210.7530554775</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>188421.20079424</v>
+        <v>190984.7545465426</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>192183.6388623257</v>
+        <v>194798.3822482077</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>195983.630465924</v>
+        <v>198650.0744178414</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>199819.5656685315</v>
+        <v>202538.1992150421</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>203689.7673478787</v>
+        <v>206461.0566995505</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>207592.4933942836</v>
+        <v>210416.881059512</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>211525.9391349254</v>
+        <v>214403.843068734</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>215488.2399827242</v>
+        <v>218420.0527716048</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>219477.474307818</v>
+        <v>222463.5623936387</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>223491.6665276105</v>
+        <v>226532.3694735644</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>227528.7904122127</v>
+        <v>230624.4202137394</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>231586.7725996154</v>
+        <v>234737.6130431476</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>235663.496315426</v>
+        <v>238869.8023877447</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>239756.8052903003</v>
+        <v>243018.8026411888</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>243864.5078676121</v>
+        <v>247182.3923283959</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>247984.3812933864</v>
+        <v>251358.3184538406</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>252114.176179068</v>
+        <v>255544.3010250417</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>256251.6211277549</v>
+        <v>259738.037741738</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>260394.4275129172</v>
+        <v>263937.2088396235</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>264540.2943984749</v>
+        <v>268139.4820773657</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>268686.9135881866</v>
+        <v>272342.5178546925</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>272831.9747917175</v>
+        <v>276543.9744487477</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>276973.1708938422</v>
+        <v>280741.5133549829</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>281108.2033131744</v>
+        <v>284932.8047187958</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>285234.7874357647</v>
+        <v>289115.532843054</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>289350.658108743</v>
+        <v>293287.4017564809</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>293453.5751785176</v>
+        <v>297446.1408272049</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>297541.3290578576</v>
+        <v>301589.5104055835</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>301611.7463057076</v>
+        <v>305715.3074799349</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>305662.6952034209</v>
+        <v>309821.3713286376</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>309692.0913106842</v>
+        <v>313905.5891516459</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>313697.9029846778</v>
+        <v>317965.9016647415</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>317678.1568452746</v>
+        <v>322000.3086390879</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>321630.943169992</v>
+        <v>326006.8743695837</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>325554.4212011806</v>
+        <v>329983.7330542579</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>329446.824349624</v>
+        <v>333929.0940686666</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>333306.4652775121</v>
+        <v>337841.2471180224</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>337131.7408445282</v>
+        <v>341718.5672505762</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>340921.1369018527</v>
+        <v>345559.519716844</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>344673.2329174111</v>
+        <v>349362.664657784</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>348386.7064185112</v>
+        <v>353126.6616078786</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>352060.337236536</v>
+        <v>356850.2737975773</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>355693.0115398044</v>
+        <v>360532.3722410263</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>359283.7256416943</v>
+        <v>364171.9395960031</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>362831.5895708867</v>
+        <v>367768.0737827354</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>366335.8303919835</v>
+        <v>371319.9913496976</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>369795.7952657084</v>
+        <v>374827.0305754459</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>373210.9542378358</v>
+        <v>378288.6542954934</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>376580.9027481695</v>
+        <v>381704.4524454235</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>379905.363850451</v>
+        <v>385074.1443110013</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>383184.19013655</v>
+        <v>388397.5804785439</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>386417.3653575717</v>
+        <v>391674.7444780828</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>389605.0057372965</v>
+        <v>394905.7541146747</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>392747.3609732289</v>
+        <v>398090.8624830688</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>395844.8149217156</v>
+        <v>401230.4586621471</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>398897.885965677</v>
+        <v>404325.068087659</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>401907.227063048</v>
+        <v>407375.3526013208</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>404873.6254767391</v>
+        <v>410382.1101771028</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>407798.0021866242</v>
+        <v>413346.2743252177</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>410681.4109860985</v>
+        <v>416268.9131763856</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>413525.0372668871</v>
+        <v>419151.2282501101</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>416330.1964956432</v>
+        <v>421994.5529105499</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>419098.3323889511</v>
+        <v>424800.3505166919</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>421831.0147923437</v>
+        <v>427570.2122725116</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>424529.9372714774</v>
+        <v>430305.8547853751</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>427196.9144237448</v>
+        <v>433009.1173410746</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>429833.8789198858</v>
+        <v>435681.9589051903</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>432442.8782861223</v>
+        <v>438326.4548614437</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>435026.0714376601</v>
+        <v>440944.7934980365</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>437585.7249762005</v>
+        <v>443539.2722547883</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>440124.2092640142</v>
+        <v>446112.2937437967</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>442643.9942879752</v>
+        <v>448666.3615571994</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>445147.6453280192</v>
+        <v>451204.0758766997</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>447637.8184448525</v>
+        <v>453728.1288998845</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>450117.2558019848</v>
+        <v>456241.3000986105</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>452588.7808381373</v>
+        <v>458746.4513257309</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>455055.2933061625</v>
+        <v>461246.5217865184</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>457519.7641950732</v>
+        <v>463744.5228916048</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>459985.2305518778</v>
+        <v>466243.5330083659</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>462454.790220482</v>
+        <v>468746.6921282437</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>464931.5965147545</v>
+        <v>471257.1964673362</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>467418.8528429241</v>
+        <v>473778.2930176578</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>469919.8073007735</v>
+        <v>476313.2740667704</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>472437.7472506289</v>
+        <v>478865.4717030184</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>474975.9939034681</v>
+        <v>481438.2523239235</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>477537.896920967</v>
+        <v>484035.0111647897</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>480126.8290540623</v>
+        <v>486659.1668643216</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>482746.1808344307</v>
+        <v>489314.1560838788</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>485399.3553351598</v>
+        <v>492003.4281968626</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>488089.7630157295</v>
+        <v>494730.4400635625</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>490820.8166667087</v>
+        <v>497498.6509070721</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>493595.9264689157</v>
+        <v>500311.5173052275</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>496418.4951804643</v>
+        <v>503172.4883121713</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>499291.9134660172</v>
+        <v>506085.0007240582</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>502219.5553801858</v>
+        <v>509052.4745010047</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>505204.7740174932</v>
+        <v>512078.3083578672</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>508250.8973407563</v>
+        <v>515165.8755358686</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>511361.2241975107</v>
+        <v>518318.5197648237</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>514539.0205351548</v>
+        <v>521539.5514267895</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>517787.515823725</v>
+        <v>524832.2439301702</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>521109.899694298</v>
+        <v>528199.8303023838</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>524509.3188006496</v>
+        <v>531645.5000088216</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>527988.8739108802</v>
+        <v>535172.3960049057</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>531551.617234417</v>
+        <v>538783.6120267219</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>535200.5499897833</v>
+        <v>542482.1901256988</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>538938.6202168857</v>
+        <v>546271.1184511291</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>542768.8419532024</v>
+        <v>550153.4520478038</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>546693.8223203031</v>
+        <v>554131.8335083345</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>550716.4480595593</v>
+        <v>558209.1888494854</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>554839.4376661732</v>
+        <v>562388.2735527877</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>559065.4492747338</v>
+        <v>566671.7819179274</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>563397.0799786601</v>
+        <v>571062.3463729275</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>567836.8654002373</v>
+        <v>575562.5370383358</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>572387.2795087735</v>
+        <v>580174.8615429065</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>577050.7346840501</v>
+        <v>584901.7650879147</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>581829.5820215134</v>
+        <v>589745.6307565001</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>586726.1118747626</v>
+        <v>594708.7800635347</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>591742.5546307063</v>
+        <v>599793.4737413282</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>596881.081712223</v>
+        <v>605001.9127559266</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>602143.8068017869</v>
+        <v>610336.2395473893</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>607532.7872801321</v>
+        <v>615798.539488025</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>613050.0258730197</v>
+        <v>621390.8425515642</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>618697.4724984424</v>
+        <v>627115.1251854961</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>624477.0263068525</v>
+        <v>632973.3123790545</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>630390.5379068259</v>
+        <v>638967.2799191637</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>636439.8117660232</v>
+        <v>645098.8568240642</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>642626.6087813822</v>
+        <v>651369.8279484758</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>648952.6490070384</v>
+        <v>657781.9367486307</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>655419.6145331614</v>
+        <v>664336.8882002792</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>662029.152503758</v>
+        <v>671036.3518575506</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>668782.8782672602</v>
+        <v>677881.9650464065</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>675682.3786469944</v>
+        <v>684875.3361796064</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>682729.2153242143</v>
+        <v>692018.0481857682</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>689924.928322759</v>
+        <v>699311.6620414359</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>697271.0395865068</v>
+        <v>706757.7203972075</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>704769.0566383963</v>
+        <v>714357.7512865379</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>712420.4763127959</v>
+        <v>722113.2719088882</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>720226.7885509275</v>
+        <v>730025.7924767904</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>728189.4802489222</v>
+        <v>738096.8201162544</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>736310.039150276</v>
+        <v>746327.8628121845</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>744589.9577720723</v>
+        <v>754720.4333880187</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>753030.7373559379</v>
+        <v>763276.0535104405</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>761633.891834675</v>
+        <v>771996.2577099768</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>770400.9518050478</v>
+        <v>780882.5974078375</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>779333.4684973317</v>
+        <v>789936.6449394722</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>788433.0177338172</v>
+        <v>799159.9975669304</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>797701.2038662536</v>
+        <v>808554.2814698762</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>807139.663683837</v>
+        <v>818121.1557067464</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>816750.0702840522</v>
+        <v>827862.3161382569</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>826534.1368964855</v>
+        <v>837779.4993032403</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>836493.6206528085</v>
+        <v>847874.4862399215</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>846630.3262935694</v>
+        <v>858149.1062431417</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>856946.1098043615</v>
+        <v>868605.2405499992</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>867442.8819731624</v>
+        <v>879244.8259455865</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>878122.6118612642</v>
+        <v>890069.8582811452</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>888987.3301791289</v>
+        <v>901082.3958958519</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>900039.1325607004</v>
+        <v>912284.562935676</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>911280.1827275619</v>
+        <v>923678.5525605899</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>922712.7155350239</v>
+        <v>935266.6300320991</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>934339.0398935768</v>
+        <v>947051.1356744417</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>946161.5415572374</v>
+        <v>959034.4877008732</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>958182.6857710411</v>
+        <v>971219.1848971776</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>970405.0197702933</v>
+        <v>983607.8091549231</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>982831.1751242235</v>
+        <v>996203.027847002</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>995463.8699147362</v>
+        <v>1009007.596036025</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>1008305.910744531</v>
+        <v>1022024.358509763</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>1021360.19456438</v>
+        <v>1035256.251633283</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>1034629.710312414</v>
+        <v>1048706.305010542</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>1048117.540358501</v>
+        <v>1062377.642948413</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>1061826.861741381</v>
+        <v>1076273.485710652</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>1075760.947194936</v>
+        <v>1090397.150558132</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>1089923.16595113</v>
+        <v>1104752.05256271</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>1104316.984311597</v>
+        <v>1119341.705186585</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>1118945.965979913</v>
+        <v>1134169.720619095</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>1133813.772143302</v>
+        <v>1149239.809859537</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>1148924.161296015</v>
+        <v>1164555.782538138</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>1164280.988792875</v>
+        <v>1180121.546463526</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>1179888.206124302</v>
+        <v>1195941.106887897</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1195749.859902027</v>
+        <v>1212018.565478925</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1211870.09054459</v>
+        <v>1228358.118987373</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1228253.130653189</v>
+        <v>1244964.057600851</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1244903.303065626</v>
+        <v>1261840.762971281</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1261825.01857831</v>
+        <v>1278992.705905907</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1279022.773324382</v>
+        <v>1296424.443709748</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1296501.145797315</v>
+        <v>1314140.617168707</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1314264.793507756</v>
+        <v>1332145.947160923</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1332318.449262503</v>
+        <v>1350445.230885123</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1350666.917053609</v>
+        <v>1369043.337693794</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1369315.067546067</v>
+        <v>1387945.204519483</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1388267.83315272</v>
+        <v>1407155.830882689</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1407530.20268334</v>
+        <v>1426680.273468147</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1427107.215558313</v>
+        <v>1446523.640259787</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1447003.955573743</v>
+        <v>1466691.084221005</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1467225.544207778</v>
+        <v>1487187.796509924</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1487777.133456775</v>
+        <v>1508018.999218091</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1508663.898190572</v>
+        <v>1529189.937621736</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1529891.02801676</v>
+        <v>1550705.871935356</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1551463.718645134</v>
+        <v>1572572.068558673</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1573387.162740706</v>
+        <v>1594793.790805205</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1595666.540259921</v>
+        <v>1617376.289106994</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1618307.008260241</v>
+        <v>1640324.79068555</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1641313.690176718</v>
+        <v>1663644.488682524</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1664691.664559694</v>
+        <v>1687340.530744179</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1688445.953269689</v>
+        <v>1711418.007055671</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1712581.509124554</v>
+        <v>1735881.937820126</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1737103.202996571</v>
+        <v>1760737.260180198</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>996501.5013996494</v>
+        <v>1233523.122231114</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1010814.452582594</v>
+        <v>1251240.462552959</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1025353.691106714</v>
+        <v>1269237.913509074</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1040121.707123782</v>
+        <v>1287518.557543174</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1055120.903315552</v>
+        <v>1306085.368823881</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1070353.585757708</v>
+        <v>1324941.201935635</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1085821.954492609</v>
+        <v>1344088.780209123</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1101528.093817448</v>
+        <v>1363530.683699444</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1117473.962296555</v>
+        <v>1383269.336822803</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1133661.382510338</v>
+        <v>1403306.995667197</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1150092.030551989</v>
+        <v>1423645.734990872</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1166767.425285579</v>
+        <v>1444287.434925416</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1183688.917383179</v>
+        <v>1465233.76740532</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1200857.678157921</v>
+        <v>1486486.182344939</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1218274.688212602</v>
+        <v>1508045.893587124</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1235940.72592744</v>
+        <v>1529913.864652751</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1253856.355809095</v>
+        <v>1552090.794318502</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1272021.916728487</v>
+        <v>1574577.10205702</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1290437.510076968</v>
+        <v>1597372.91337597</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1309102.987869116</v>
+        <v>1620478.045091042</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1328017.940828468</v>
+        <v>1643891.990577831</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1347181.686488638</v>
+        <v>1667613.905042759</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1366593.257351303</v>
+        <v>1691642.5908644</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1386251.389137723</v>
+        <v>1715976.48305057</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1406154.509178655</v>
+        <v>1740613.634866747</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1426300.724987115</v>
+        <v>1765551.703690816</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1446687.813060126</v>
+        <v>1790787.937151277</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1467313.207959438</v>
+        <v>1816319.159610766</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1488173.991722244</v>
+        <v>1842141.759058074</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1509266.883655056</v>
+        <v>1868251.67447446</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1530588.230564879</v>
+        <v>1894644.383741266</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1552133.997485557</v>
+        <v>1921314.892160501</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1573899.758956024</v>
+        <v>1948257.721658577</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1595880.690910291</v>
+        <v>1975466.900747313</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1618071.563239763</v>
+        <v>2002935.95531716</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1640466.733088196</v>
+        <v>2030657.900337348</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1663060.138940808</v>
+        <v>2058625.232539059</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1685845.29557158</v>
+        <v>2086829.924160938</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1708815.289907707</v>
+        <v>2115263.417829871</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1731962.777874445</v>
+        <v>2143916.622655388</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1755279.982281754</v>
+        <v>2172779.911613613</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1778758.691811203</v>
+        <v>2201843.120293225</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1802390.261163814</v>
+        <v>2231095.547078443</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1826165.61242255</v>
+        <v>2260525.954835607</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1850075.237689062</v>
+        <v>2290122.574177071</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1874109.20304134</v>
+        <v>2319873.108360208</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1898257.153867547</v>
+        <v>2349764.739889903</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1922508.321616479</v>
+        <v>2379784.138874648</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1946851.532012556</v>
+        <v>2409917.473195491</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>1971275.214769293</v>
+        <v>2440150.420529897</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>1995767.414838282</v>
+        <v>2470468.182276341</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2020315.805220334</v>
+        <v>2500855.499412627</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2044907.70136452</v>
+        <v>2531296.6703198</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2069530.07717164</v>
+        <v>2561775.570592089</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2094169.58261493</v>
+        <v>2592275.674848779</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2022356.35159514</v>
+        <v>2504897.739758637</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2045867.504779187</v>
+        <v>2534018.737362935</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2069355.117264494</v>
+        <v>2563110.577374399</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2092805.409153908</v>
+        <v>2592156.191963608</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2116204.398578106</v>
+        <v>2621138.263137701</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2139537.927657462</v>
+        <v>2650039.254896829</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2162791.689906673</v>
+        <v>2678841.447177625</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>2185951.259033966</v>
+        <v>2707526.971524006</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>2209002.119086104</v>
+        <v>2736077.848424881</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>2231929.695882733</v>
+        <v>2764476.026248843</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2254719.389669443</v>
+        <v>2792703.421688373</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2277356.608922446</v>
+        <v>2820741.961630428</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2299826.805219194</v>
+        <v>2848573.626347312</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2322115.509091517</v>
+        <v>2876180.493904503</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2344208.366767087</v>
+        <v>2903544.785668758</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2561484.275347198</v>
+        <v>3125235.551509051</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2584931.622203384</v>
+        <v>3153843.371861015</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2608121.493777633</v>
+        <v>3182137.049779046</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2631039.265004061</v>
+        <v>3210098.741399611</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2653670.645354293</v>
+        <v>3237711.011024292</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2676001.721898587</v>
+        <v>3264956.883658133</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2698019.002453164</v>
+        <v>3291819.897653168</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2719709.458671607</v>
+        <v>3318284.157283706</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2741060.568936396</v>
+        <v>3344334.38507777</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2762060.360903447</v>
+        <v>3369955.973725168</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>2974784.041478297</v>
+        <v>3667323.400436685</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>2996446.463976818</v>
+        <v>3694028.905048542</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3017698.889808827</v>
+        <v>3720228.96444211</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3038531.310857044</v>
+        <v>3745911.240577997</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3058934.522547849</v>
+        <v>3771064.386028036</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3078900.163822461</v>
+        <v>3795678.093251877</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3098420.755655166</v>
+        <v>3819743.142082406</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3117489.737974618</v>
+        <v>3843251.445242418</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3136101.504846132</v>
+        <v>3866196.091717481</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3154251.43778136</v>
+        <v>3888571.387820199</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>2466913.02564107</v>
+        <v>3300971.426083894</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>2480302.842751569</v>
+        <v>3318888.313798556</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>2493327.544346313</v>
+        <v>3336316.641165851</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>2505986.836799043</v>
+        <v>3353256.015285067</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>2518281.298719309</v>
+        <v>3369707.210392496</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>2530212.396137435</v>
+        <v>3385672.188180401</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>2541782.495618342</v>
+        <v>3401154.115344614</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>2552994.875230093</v>
+        <v>3416157.378261506</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>2563853.73330857</v>
+        <v>3430687.59471599</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>2574364.194949977</v>
+        <v>3444751.622589133</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>1827953.431039269</v>
+        <v>2380099.904857051</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>1834907.82071755</v>
+        <v>2389154.917928257</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>1841630.629492954</v>
+        <v>2397908.399420185</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>1848128.116525291</v>
+        <v>2406368.499116863</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>1854407.194010855</v>
+        <v>2414544.21709316</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>1860475.421377687</v>
+        <v>2422445.396156697</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>1866340.997639315</v>
+        <v>2430082.711891975</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>1872012.75187037</v>
+        <v>2437467.660259086</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>1877500.131783582</v>
+        <v>2444612.5427203</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>1882813.190371315</v>
+        <v>2451530.448846592</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>1907439.040922031</v>
+        <v>2555346.58376493</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>1912487.507238559</v>
+        <v>2562109.883078001</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>1917393.828316037</v>
+        <v>2568682.754103084</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>1922170.431934774</v>
+        <v>2575081.846014949</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>1926830.259604622</v>
+        <v>2581324.496218503</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>1931386.740722435</v>
+        <v>2587428.69572821</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>1935853.764559917</v>
+        <v>2593413.051640937</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>1940245.650047193</v>
+        <v>2599296.746655782</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>1944577.113319763</v>
+        <v>2605099.495597587</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>1948863.232993307</v>
+        <v>2610841.498896472</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>1953119.413138656</v>
+        <v>2616543.392986387</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>1957361.343921378</v>
+        <v>2622226.197574971</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>1961604.959885039</v>
+        <v>2627911.259756727</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>1965866.395847884</v>
+        <v>2633620.19492895</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>1970161.940399243</v>
+        <v>2639374.824492062</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>1974507.986981732</v>
+        <v>2645197.110315716</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>1978920.982552338</v>
+        <v>2651109.085961381</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>1983417.373829986</v>
+        <v>2657132.784671591</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>1988013.55114273</v>
+        <v>2663290.164143504</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>1992725.789902067</v>
+        <v>2669603.028123542</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>1997570.189749539</v>
+        <v>2676092.944883685</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>2002562.611431094</v>
+        <v>2682781.162653679</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>2007718.611481559</v>
+        <v>2689688.522119531</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>2013053.37481224</v>
+        <v>2696835.366112857</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>2018581.645329435</v>
+        <v>2704241.446662311</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>2024317.654723893</v>
+        <v>2711925.829594668</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>2030275.04961091</v>
+        <v>2719906.7969263</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>2036466.817217141</v>
+        <v>2728201.747307728</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>2042905.2098523</v>
+        <v>2736827.094840323</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>2049601.668428455</v>
+        <v>2745798.16661708</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>2056566.745325132</v>
+        <v>2755129.09938701</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>2063810.026936771</v>
+        <v>2764832.735793971</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>2071340.056270005</v>
+        <v>2774920.520682252</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>2079164.255997058</v>
+        <v>2785402.398013207</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>2087288.852406483</v>
+        <v>2796286.708984035</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>2095718.800728605</v>
+        <v>2807580.09198821</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>2104457.712351001</v>
+        <v>2819287.385107951</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>2113507.784461819</v>
+        <v>2831411.531859202</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>2122869.732706461</v>
+        <v>2843953.490973537</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>2132542.727456616</v>
+        <v>2856912.151019436</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24182101.97820457</v>
+        <v>24117183.58363221</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>29103.36738456176</v>
+        <v>29025.23753923408</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>29545.63453354353</v>
+        <v>29466.31739385617</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>29997.31595861042</v>
+        <v>29916.78625133898</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>30458.73678669694</v>
+        <v>30376.96836579306</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>30930.23515986492</v>
+        <v>30847.20097151629</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>31412.16259442532</v>
+        <v>31327.83464115169</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>31904.88433427436</v>
+        <v>31819.23363807497</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>32408.77969701503</v>
+        <v>32321.77626158681</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>32924.24241093556</v>
+        <v>32835.85518298675</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>33451.68094157633</v>
+        <v>33361.87777126337</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>33991.51880618763</v>
+        <v>33900.26640670793</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>34544.19487386242</v>
+        <v>34451.45878024132</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>35110.16365008971</v>
+        <v>35015.90817720357</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>35689.89554318571</v>
+        <v>35594.08374306977</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>36283.87711115431</v>
+        <v>36186.47072964786</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>36892.61128641399</v>
+        <v>36793.57071920214</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>37516.61757657271</v>
+        <v>37415.9018246893</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>38156.43223899048</v>
+        <v>38053.99886385225</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>38812.60842664915</v>
+        <v>38708.41350469842</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>39485.71630347187</v>
+        <v>39379.71438050953</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>40176.34312625887</v>
+        <v>40068.48717155751</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>40885.09329116678</v>
+        <v>40775.33465145895</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>41612.58834233681</v>
+        <v>41500.87669578021</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>42359.46693993507</v>
+        <v>42245.75025016342</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>43126.38478558441</v>
+        <v>43010.60925595868</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>43914.01450238063</v>
+        <v>43796.12453056217</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>44723.04546722399</v>
+        <v>44602.9836001979</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>45554.18359312595</v>
+        <v>45431.89048280884</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>46408.15105881709</v>
+        <v>46283.56541839075</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>47285.68598358224</v>
+        <v>47158.74454470014</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>48187.54204489486</v>
+        <v>48058.17951591528</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>49114.4880365626</v>
+        <v>48982.63706196781</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>50067.30736535523</v>
+        <v>49932.89848652207</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>51046.79748387059</v>
+        <v>50909.75910136356</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>52053.76925787541</v>
+        <v>51914.02759543817</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>53089.04626596631</v>
+        <v>52946.52533639324</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>54153.46403020087</v>
+        <v>54008.08560327416</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>55247.86917584204</v>
+        <v>55099.55274852435</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>56373.11851892914</v>
+        <v>56221.78128800584</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>57530.07808026388</v>
+        <v>57375.63491763231</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>58719.62202523054</v>
+        <v>58561.9854560353</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>59942.6315279113</v>
+        <v>59781.71171172899</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>61199.99355956532</v>
+        <v>61035.69827484167</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>62492.59960063724</v>
+        <v>62324.83423258185</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>63821.3442762475</v>
+        <v>63650.0118083918</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>65187.12391564368</v>
+        <v>65012.12492526611</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>66590.83503544162</v>
+        <v>66412.06769306459</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>68033.37274779624</v>
+        <v>67850.73282095652</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>69515.62909447624</v>
+        <v>69329.00995596757</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>71038.49130789773</v>
+        <v>70847.78394868188</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>72602.84000108093</v>
+        <v>72407.93304805789</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>74209.54728820956</v>
+        <v>74010.32702703317</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>75859.47483854993</v>
+        <v>75655.82524166793</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>77553.47186584784</v>
+        <v>77345.27462593952</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>79292.3730566809</v>
+        <v>79079.50762565626</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>81076.99644117728</v>
+        <v>80859.34007489226</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>82908.14120942533</v>
+        <v>82685.56901825911</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>84786.58547821651</v>
+        <v>84558.97048364411</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>86713.08401246098</v>
+        <v>86480.29720974297</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>88688.36590605169</v>
+        <v>88450.27633314954</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>90713.13222746048</v>
+        <v>90469.60704027266</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>92788.05363602587</v>
+        <v>92538.95819002313</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>94913.76797414836</v>
+        <v>94658.96591247279</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>97090.87784272023</v>
+        <v>96830.23119079349</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>99319.9481654433</v>
+        <v>99053.31743211325</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>101601.5037497326</v>
+        <v>101328.7480349682</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>103936.0268512889</v>
+        <v>103657.003960413</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>106323.9547498022</v>
+        <v>106038.5213142323</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>108765.677343731</v>
+        <v>108473.6889481774</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>111261.5347725448</v>
+        <v>110962.8460885917</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>113811.8150743027</v>
+        <v>113506.2800002777</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>116416.7518876409</v>
+        <v>116104.2236946539</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>119076.5222066312</v>
+        <v>118756.8536906403</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>121791.2441975429</v>
+        <v>121464.287837281</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>124560.975086528</v>
+        <v>124226.5832071011</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>127385.7091274912</v>
+        <v>127043.7340694309</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>130265.3756591299</v>
+        <v>129915.6699526625</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>133199.8372606734</v>
+        <v>132842.25380494</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>136188.8880153309</v>
+        <v>135823.2802622696</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>139232.2518907566</v>
+        <v>138858.4740333317</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>142329.5812456139</v>
+        <v>141947.4884100552</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>145480.4554712684</v>
+        <v>145089.9039129563</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>148684.3797773647</v>
+        <v>148285.2270799758</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>151940.7841300619</v>
+        <v>151532.8894075651</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>155249.0223509393</v>
+        <v>154832.2464520106</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>158608.3713852452</v>
+        <v>158182.5770996472</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>162018.0307469041</v>
+        <v>161583.0830133554</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>165477.1221473856</v>
+        <v>165032.8882624262</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>168984.6893161852</v>
+        <v>168531.0391435244</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>172539.6980188388</v>
+        <v>172076.504198654</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>176141.0362785915</v>
+        <v>175668.1744362329</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>179787.5148075092</v>
+        <v>179304.8637610461</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>183477.8676517937</v>
+        <v>182985.3096178291</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>187210.7530554775</v>
+        <v>186708.173852644</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>190984.7545465426</v>
+        <v>190472.0437960821</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>194798.3822482077</v>
+        <v>194275.4335710313</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>198650.0744178414</v>
+        <v>198116.7856274579</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>202538.1992150421</v>
+        <v>201994.4725057399</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>206461.0566995505</v>
+        <v>205906.7988292162</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>210416.881059512</v>
+        <v>209852.0035264663</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>214403.843068734</v>
+        <v>213828.2622819722</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>218420.0527716048</v>
+        <v>217833.6902138287</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>222463.5623936387</v>
+        <v>221866.3447764745</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>226532.3694735644</v>
+        <v>225924.2288843736</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>230624.4202137394</v>
+        <v>230005.2942534341</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>234737.6130431476</v>
+        <v>234107.4449544412</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>238869.8023877447</v>
+        <v>238228.541173281</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>243018.8026411888</v>
+        <v>242366.4031710111</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>247182.3923283959</v>
+        <v>246518.8154362392</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>251358.3184538406</v>
+        <v>250683.5310217498</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>255544.3010250417</v>
+        <v>254858.276055847</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>259738.037741738</v>
+        <v>259040.7544189414</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>263937.2088396235</v>
+        <v>263228.6525742823</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>268139.4820773657</v>
+        <v>267419.6445415875</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>272342.5178546925</v>
+        <v>271611.3970013913</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>276543.9744487477</v>
+        <v>275801.5745173417</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>280741.5133549829</v>
+        <v>279987.8448627548</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>284932.8047187958</v>
+        <v>284167.8844376715</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>289115.532843054</v>
+        <v>288339.3837615961</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>293287.4017564809</v>
+        <v>292500.0530269333</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>297446.1408272049</v>
+        <v>296647.6276974675</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>301589.5104055835</v>
+        <v>300779.8741360384</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>305715.3074799349</v>
+        <v>304894.5952450895</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>309821.3713286376</v>
+        <v>308989.6361035942</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>313905.5891516459</v>
+        <v>313062.8895834535</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>317965.9016647415</v>
+        <v>317112.3019287288</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>322000.3086390879</v>
+        <v>321135.8782803253</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>326006.8743695837</v>
+        <v>325131.6881296653</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>329983.7330542579</v>
+        <v>329097.8706836424</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>333929.0940686666</v>
+        <v>333032.6401248581</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>337841.2471180224</v>
+        <v>336934.2907499204</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>341718.5672505762</v>
+        <v>340801.2019693665</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>345559.519716844</v>
+        <v>344631.8431538457</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>349362.664657784</v>
+        <v>348424.7783097094</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>353126.6616078786</v>
+        <v>352178.6705700052</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>356850.2737975773</v>
+        <v>355892.286485369</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>360532.3722410263</v>
+        <v>359564.500100782</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>364171.9395960031</v>
+        <v>363194.2968051414</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>367768.0737827354</v>
+        <v>366780.7769403657</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>371319.9913496976</v>
+        <v>370323.1591581548</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>374827.0305754459</v>
+        <v>373820.7835134984</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>378288.6542954934</v>
+        <v>377273.1142839619</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>381704.4524454235</v>
+        <v>380679.7425059728</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>385074.1443110013</v>
+        <v>384040.3882188912</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>388397.5804785439</v>
+        <v>387354.9024101451</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>391674.7444780828</v>
+        <v>390623.2686539806</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>394905.7541146747</v>
+        <v>393845.6044391991</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>398090.8624830688</v>
+        <v>397022.1621811008</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>401230.4586621471</v>
+        <v>400153.3299140608</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>404325.068087659</v>
+        <v>403239.6316632627</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>407375.3526013208</v>
+        <v>406281.7274936662</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>410382.1101771028</v>
+        <v>409280.4132370302</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>413346.2743252177</v>
+        <v>412236.619897499</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>416268.9131763856</v>
+        <v>415151.4127383282</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>419151.2282501101</v>
+        <v>418025.9900534655</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>421994.5529105499</v>
+        <v>420861.6816275686</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>424800.3505166919</v>
+        <v>423659.9468911438</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>427570.2122725116</v>
+        <v>426422.3727764781</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>430305.8547853751</v>
+        <v>429150.6712825957</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>433009.1173410746</v>
+        <v>431846.6767576087</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>435681.9589051903</v>
+        <v>434512.3429081294</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>438326.4548614437</v>
+        <v>437149.7395463795</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>440944.7934980365</v>
+        <v>439761.0490859612</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>443539.2722547883</v>
+        <v>442348.5627990707</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>446112.2937437967</v>
+        <v>444914.6768478403</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>448666.3615571994</v>
+        <v>447461.8881033546</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>451204.0758766997</v>
+        <v>449992.7897669637</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>453728.1288998845</v>
+        <v>452510.0668088782</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>456241.3000986105</v>
+        <v>455016.4912392853</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>458746.4513257309</v>
+        <v>457514.9172282123</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>461246.5217865184</v>
+        <v>460008.2760904472</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>463744.5228916048</v>
+        <v>462499.5711522985</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>466243.5330083659</v>
+        <v>464991.8725170683</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>468746.6921282437</v>
+        <v>467488.3117466914</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>471257.1964673362</v>
+        <v>469992.0764768198</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>473778.2930176578</v>
+        <v>472506.404982711</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>476313.2740667704</v>
+        <v>475034.580713571</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>478865.4717030184</v>
+        <v>477579.9268125405</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>481438.2523239235</v>
+        <v>480145.8006398324</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>484035.0111647897</v>
+        <v>482735.5883160252</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>486659.1668643216</v>
+        <v>485352.6993022698</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>489314.1560838788</v>
+        <v>488000.5610339892</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>492003.4281968626</v>
+        <v>490682.6136245221</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>494730.4400635625</v>
+        <v>493402.304653996</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>497498.6509070721</v>
+        <v>496163.0840589994</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>500311.5173052275</v>
+        <v>498968.3991379652</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>503172.4883121713</v>
+        <v>501821.68968583</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>506085.0007240582</v>
+        <v>504726.3832724501</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>509052.4745010047</v>
+        <v>507685.8906768409</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>512078.3083578672</v>
+        <v>510703.6014897925</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>515165.8755358686</v>
+        <v>513782.8798968461</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>518318.5197648237</v>
+        <v>516927.0606513612</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>521539.5514267895</v>
+        <v>520139.4452484626</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>524832.2439301702</v>
+        <v>523423.2983088812</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>528199.8303023838</v>
+        <v>526781.8441807666</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>531645.5000088216</v>
+        <v>530218.2637671873</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>535172.3960049057</v>
+        <v>533735.6915861006</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>538783.6120267219</v>
+        <v>537337.2130682609</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>542482.1901256988</v>
+        <v>541025.8620985156</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>546271.1184511291</v>
+        <v>544804.6188042804</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>550153.4520478038</v>
+        <v>548676.5300288835</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>554131.8335083345</v>
+        <v>552644.2312707282</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>558209.1888494854</v>
+        <v>556710.6406915002</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>562388.2735527877</v>
+        <v>560878.506375465</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>566671.7819179274</v>
+        <v>565150.5153892888</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>571062.3463729275</v>
+        <v>569529.2930940741</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>575562.5370383358</v>
+        <v>574017.402710716</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>580174.8615429065</v>
+        <v>578617.3451360799</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>584901.7650879147</v>
+        <v>583331.5590071417</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>589745.6307565001</v>
+        <v>588162.4210095027</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>594708.7800635347</v>
+        <v>593112.2464257804</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>599793.4737413282</v>
+        <v>598183.2899192038</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>605001.9127559266</v>
+        <v>603377.746547186</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>610336.2395473893</v>
+        <v>608697.7529982689</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>615798.539488025</v>
+        <v>614145.3890464465</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>621390.8425515642</v>
+        <v>619722.6792158553</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>627115.1251854961</v>
+        <v>625431.5946480852</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>632973.3123790545</v>
+        <v>631274.0551646142</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>638967.2799191637</v>
+        <v>637251.9315166961</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>645098.8568240642</v>
+        <v>643367.047812456</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>651369.8279484758</v>
+        <v>649621.1841150572</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>657781.9367486307</v>
+        <v>656016.0792003124</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>664336.8882002792</v>
+        <v>662553.4334668557</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>671036.3518575506</v>
+        <v>669234.9119867921</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>677881.9650464065</v>
+        <v>676062.1476905773</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>684875.3361796064</v>
+        <v>683036.7446730841</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>692018.0481857682</v>
+        <v>690160.2816134574</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>699311.6620414359</v>
+        <v>697434.3152977007</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>706757.7203972075</v>
+        <v>704860.3842350674</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>714357.7512865379</v>
+        <v>712440.0123569096</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>722113.2719088882</v>
+        <v>720174.7127896699</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>730025.7924767904</v>
+        <v>728065.9916916179</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>738096.8201162544</v>
+        <v>736115.352142788</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>746327.8628121845</v>
+        <v>744324.2980798029</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>754720.4333880187</v>
+        <v>752694.3382648296</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>763276.0535104405</v>
+        <v>761226.9902795401</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>771996.2577099768</v>
+        <v>769923.7845349164</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>780882.5974078375</v>
+        <v>778786.2682872796</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>789936.6449394722</v>
+        <v>787816.0096510443</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>799159.9975669304</v>
+        <v>797014.6016003077</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>808554.2814698762</v>
+        <v>806383.6659491516</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>818121.1557067464</v>
+        <v>815924.8573021645</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>827862.3161382569</v>
+        <v>825639.8669674161</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>837779.4993032403</v>
+        <v>835530.4268218894</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>847874.4862399215</v>
+        <v>845598.3131224989</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>858149.1062431417</v>
+        <v>855845.3502532273</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>868605.2405499992</v>
+        <v>866273.4144008716</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>879244.8259455865</v>
+        <v>876884.4371511017</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>890069.8582811452</v>
+        <v>887680.4089971691</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>901082.3958958519</v>
+        <v>898663.3827525073</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>912284.562935676</v>
+        <v>909835.476860681</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>923678.5525605899</v>
+        <v>921198.8785939844</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>935266.6300320991</v>
+        <v>932755.8471326842</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>947051.1356744417</v>
+        <v>944508.7165182689</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>959034.4877008732</v>
+        <v>956459.8984721461</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>971219.1848971776</v>
+        <v>968611.8850719504</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>983607.8091549231</v>
+        <v>980967.2512779972</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>996203.027847002</v>
+        <v>993528.6573024463</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>1009007.596036025</v>
+        <v>1006298.850811767</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>1022024.358509763</v>
+        <v>1019280.668956717</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>1035256.251633283</v>
+        <v>1032477.040219502</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>1048706.305010542</v>
+        <v>1045890.986070917</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>1062377.642948413</v>
+        <v>1059525.622430431</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>1076273.485710652</v>
+        <v>1073384.160916798</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>1090397.150558132</v>
+        <v>1087469.909885493</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>1104752.05256271</v>
+        <v>1101786.275240394</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>1119341.705186585</v>
+        <v>1116336.761011587</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>1134169.720619095</v>
+        <v>1131124.969691259</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>1149239.809859537</v>
+        <v>1146154.60231629</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>1164555.782538138</v>
+        <v>1161429.458289714</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>1180121.546463526</v>
+        <v>1176953.434929396</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>1195941.106887897</v>
+        <v>1192730.526735178</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1212018.565478925</v>
+        <v>1208764.824363545</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1228358.118987373</v>
+        <v>1225060.513298817</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1244964.057600851</v>
+        <v>1241621.872211319</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1261840.762971281</v>
+        <v>1258453.270990151</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1278992.705905907</v>
+        <v>1275559.168440388</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1296424.443709748</v>
+        <v>1292944.109632675</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1314140.617168707</v>
+        <v>1310612.722894429</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1332145.947160923</v>
+        <v>1328569.71643029</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1350445.230885123</v>
+        <v>1346819.874560599</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1369043.337693794</v>
+        <v>1365368.053565757</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1387945.204519483</v>
+        <v>1384219.1771248</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1407155.830882689</v>
+        <v>1403378.231336695</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1426680.273468147</v>
+        <v>1422850.259311186</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1446523.640259787</v>
+        <v>1442640.355319492</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1466691.084221005</v>
+        <v>1462753.658491553</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1487187.796509924</v>
+        <v>1483195.346049495</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1508018.999218091</v>
+        <v>1503970.626065828</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1529189.937621736</v>
+        <v>1525084.729735504</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1550705.871935356</v>
+        <v>1546542.903151637</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1572572.068558673</v>
+        <v>1568350.398575965</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1594793.790805205</v>
+        <v>1590512.465192306</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1617376.289106994</v>
+        <v>1613034.33933758</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1640324.79068555</v>
+        <v>1635921.234200488</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1663644.488682524</v>
+        <v>1659178.328981363</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1687340.530744179</v>
+        <v>1682810.757507282</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1711418.007055671</v>
+        <v>1706823.596298475</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1735881.937820126</v>
+        <v>1731221.852081012</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1760737.260180198</v>
+        <v>1756010.448743473</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1233523.122231114</v>
+        <v>1275307.074874476</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1251240.462552959</v>
+        <v>1293624.56649923</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1269237.913509074</v>
+        <v>1312231.657132865</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1287518.557543174</v>
+        <v>1331131.533632774</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1306085.368823881</v>
+        <v>1350327.270913577</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1324941.201935635</v>
+        <v>1369821.820254961</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1344088.780209123</v>
+        <v>1389617.997236812</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1363530.683699444</v>
+        <v>1409718.469310158</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1383269.336822803</v>
+        <v>1430125.743015074</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1403306.995667197</v>
+        <v>1450842.150861533</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1423645.734990872</v>
+        <v>1471869.837887452</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1444287.434925416</v>
+        <v>1493210.747911372</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1465233.76740532</v>
+        <v>1514866.60950234</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1486486.182344939</v>
+        <v>1536838.921688625</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1508045.893587124</v>
+        <v>1559128.939430391</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1529913.864652751</v>
+        <v>1581737.658886497</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1552090.794318502</v>
+        <v>1604665.802503757</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1574577.10205702</v>
+        <v>1627913.803963891</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1597372.91337597</v>
+        <v>1651481.793025966</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1620478.045091042</v>
+        <v>1675369.580300551</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1643891.990577831</v>
+        <v>1699576.642002011</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1667613.905042759</v>
+        <v>1724102.104720515</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1691642.5908644</v>
+        <v>1748944.730266802</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1715976.48305057</v>
+        <v>1774102.900636665</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1740613.634866747</v>
+        <v>1799574.603152541</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1765551.703690816</v>
+        <v>1825357.415839115</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1790787.937151277</v>
+        <v>1851448.493091965</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1816319.159610766</v>
+        <v>1877844.551703245</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1842141.759058074</v>
+        <v>1904541.857309675</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1868251.67447446</v>
+        <v>1931536.211330914</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1894644.383741266</v>
+        <v>1958822.938467559</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1921314.892160501</v>
+        <v>1986396.874832877</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1948257.721658577</v>
+        <v>2014252.356790836</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1975466.900747313</v>
+        <v>2042383.210577045</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2002935.95531716</v>
+        <v>2070782.742780119</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2030657.900337348</v>
+        <v>2099443.731760675</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>2058625.232539059</v>
+        <v>2128358.420086659</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>2086829.924160938</v>
+        <v>2157518.508066992</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>2115263.417829871</v>
+        <v>2186915.148458946</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2143916.622655388</v>
+        <v>2216538.942430246</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>2172779.911613613</v>
+        <v>2246379.936854407</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2201843.120293225</v>
+        <v>2276427.62301421</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>2231095.547078443</v>
+        <v>2306670.9367909</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>2260525.954835607</v>
+        <v>2337098.260407878</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>2290122.574177071</v>
+        <v>2367697.425805171</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>2319873.108360208</v>
+        <v>2398455.719704376</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>2349764.739889903</v>
+        <v>2429359.890434804</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>2379784.138874648</v>
+        <v>2460396.156572629</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>2409917.473195491</v>
+        <v>2491550.217454293</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>2440150.420529897</v>
+        <v>2522807.265607665</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>2470468.182276341</v>
+        <v>2554152.001148305</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2500855.499412627</v>
+        <v>2585568.648174967</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2531296.6703198</v>
+        <v>2617040.973197266</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2561775.570592089</v>
+        <v>2648552.305616669</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2592275.674848779</v>
+        <v>2680085.560277199</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2504897.739758637</v>
+        <v>2623745.228278452</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2534018.737362935</v>
+        <v>2654247.902018077</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2563110.577374399</v>
+        <v>2684720.034752435</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2592156.191963608</v>
+        <v>2715143.748851118</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2621138.263137701</v>
+        <v>2745500.904651011</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2650039.254896829</v>
+        <v>2775773.134138444</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2678841.447177625</v>
+        <v>2805941.876503144</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>2707526.971524006</v>
+        <v>2835988.415501473</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>2736077.848424881</v>
+        <v>2865893.918565663</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>2764476.026248843</v>
+        <v>2895639.477585811</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2792703.421688373</v>
+        <v>2925206.151272989</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2820741.961630428</v>
+        <v>2954575.009016439</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2848573.626347312</v>
+        <v>2983727.176123671</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2876180.493904503</v>
+        <v>3012643.880335266</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2903544.785668758</v>
+        <v>3041306.499492167</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>3125235.551509051</v>
+        <v>3225607.858877595</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>3153843.371861015</v>
+        <v>3255134.468514457</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>3182137.049779046</v>
+        <v>3284336.846493578</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>3210098.741399611</v>
+        <v>3313196.575865098</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>3237711.011024292</v>
+        <v>3341695.6609532</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>3264956.883658133</v>
+        <v>3369816.58158181</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>3291819.897653168</v>
+        <v>3397542.347408864</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>3318284.157283706</v>
+        <v>3424856.552190139</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>3344334.38507777</v>
+        <v>3451743.427791408</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>3369955.973725168</v>
+        <v>3478187.897763622</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3667323.400436685</v>
+        <v>3542766.971794669</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3694028.905048542</v>
+        <v>3568565.454604428</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3720228.96444211</v>
+        <v>3593875.659062409</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3745911.240577997</v>
+        <v>3618685.666176561</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3771064.386028036</v>
+        <v>3642984.513921086</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3795678.093251877</v>
+        <v>3666762.244839409</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3819743.142082406</v>
+        <v>3690009.951916802</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3843251.445242418</v>
+        <v>3712719.822551149</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3866196.091717481</v>
+        <v>3734885.180452685</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3888571.387820199</v>
+        <v>3756500.525313571</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>3300971.426083894</v>
+        <v>3368379.752545911</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>3318888.313798556</v>
+        <v>3386662.516622516</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>3336316.641165851</v>
+        <v>3404446.743580937</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>3353256.015285067</v>
+        <v>3421732.032497133</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>3369707.210392496</v>
+        <v>3438519.173417885</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>3385672.188180401</v>
+        <v>3454810.168094692</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>3401154.115344614</v>
+        <v>3470608.247889703</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>3416157.378261506</v>
+        <v>3485917.888752404</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>3430687.59471599</v>
+        <v>3500744.823187113</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>3444751.622589133</v>
+        <v>3515096.049118001</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2380099.904857051</v>
+        <v>1827604.643336314</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2389154.917928257</v>
+        <v>1834557.706063066</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2397908.399420185</v>
+        <v>1841279.232074374</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2406368.499116863</v>
+        <v>1847775.479335753</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2414544.21709316</v>
+        <v>1854053.358724596</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2422445.396156697</v>
+        <v>1860120.428226545</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2430082.711891975</v>
+        <v>1865984.885290695</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2437467.660259086</v>
+        <v>1871655.557307019</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2444612.5427203</v>
+        <v>1877141.890185551</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2451530.448846592</v>
+        <v>1882453.935000466</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2555346.58376493</v>
+        <v>2011807.282141327</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2562109.883078001</v>
+        <v>2017131.982475828</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2568682.754103084</v>
+        <v>2022306.759892265</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2575081.846014949</v>
+        <v>2027344.722174631</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2581324.496218503</v>
+        <v>2032259.518945904</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2587428.69572821</v>
+        <v>2037065.314411496</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2593413.051640937</v>
+        <v>2041776.757814375</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2599296.746655782</v>
+        <v>2046408.9515653</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2605099.495597587</v>
+        <v>2050977.41701407</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2610841.498896472</v>
+        <v>2055498.057824271</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2616543.392986387</v>
+        <v>2059987.120922392</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2622226.197574971</v>
+        <v>2064461.154983735</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2627911.259756727</v>
+        <v>2068936.966433089</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2633620.19492895</v>
+        <v>2073431.572928239</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2639374.824492062</v>
+        <v>2077962.154311856</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2645197.110315716</v>
+        <v>2082546.001017096</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2651109.085961381</v>
+        <v>2087200.459919601</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2657132.784671591</v>
+        <v>2091942.87764392</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>2663290.164143504</v>
+        <v>2096790.541338233</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>2669603.028123542</v>
+        <v>2101760.616946332</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>2676092.944883685</v>
+        <v>2106870.085024556</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>2682781.162653679</v>
+        <v>2112135.674162134</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>2689688.522119531</v>
+        <v>2117573.792091834</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>2696835.366112857</v>
+        <v>2123200.454588988</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>2704241.446662311</v>
+        <v>2129031.212293708</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>2711925.829594668</v>
+        <v>2135081.075603953</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>2719906.7969263</v>
+        <v>2141364.437828991</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>2728201.747307728</v>
+        <v>2147894.996810063</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>2736827.094840323</v>
+        <v>2154685.675259445</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>2745798.16661708</v>
+        <v>2161748.540094986</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>2755129.09938701</v>
+        <v>2169094.721084673</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>2764832.735793971</v>
+        <v>2176734.329156159</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>2774920.520682252</v>
+        <v>2184676.374758841</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>2785402.398013207</v>
+        <v>2192928.686707015</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>2796286.708984035</v>
+        <v>2201497.831969471</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>2807580.09198821</v>
+        <v>2210389.036909012</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>2819287.385107951</v>
+        <v>2219606.110515425</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>2831411.531859202</v>
+        <v>2229151.370199136</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>2843953.490973537</v>
+        <v>2239025.5707631</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>2856912.151019436</v>
+        <v>2249227.837184716</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24117183.58363221</v>
+        <v>13264450.97099772</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>29025.23753923408</v>
+        <v>15963.88064657874</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>29466.31739385617</v>
+        <v>16206.47456662089</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>29916.78625133898</v>
+        <v>16454.23243823644</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>30376.96836579306</v>
+        <v>16707.33260118619</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>30847.20097151629</v>
+        <v>16965.96053433396</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>31327.83464115169</v>
+        <v>17230.30905263343</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>31819.23363807497</v>
+        <v>17500.57850094123</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>32321.77626158681</v>
+        <v>17776.97694387275</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>32835.85518298675</v>
+        <v>18059.72035064271</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>33361.87777126337</v>
+        <v>18349.03277419486</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>33900.26640670793</v>
+        <v>18645.14652368936</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>34451.45878024132</v>
+        <v>18948.30232913273</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>35015.90817720357</v>
+        <v>19258.74949746197</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>35594.08374306977</v>
+        <v>19576.74605868838</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>36186.47072964786</v>
+        <v>19902.55890130633</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>36793.57071920214</v>
+        <v>20236.46389556118</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>37415.9018246893</v>
+        <v>20578.74600357912</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>38053.99886385225</v>
+        <v>20929.69937511874</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>38708.41350469842</v>
+        <v>21289.62742758413</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>39379.71438050953</v>
+        <v>21658.84290928025</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>40068.48717155751</v>
+        <v>22037.66794435663</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>40775.33465145895</v>
+        <v>22426.43405830242</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>41500.87669578021</v>
+        <v>22825.48218267912</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>42245.75025016342</v>
+        <v>23235.16263758988</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>43010.60925595868</v>
+        <v>23655.83509077727</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>43796.12453056217</v>
+        <v>24087.86849180919</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>44602.9836001979</v>
+        <v>24531.64098010884</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>45431.89048280884</v>
+        <v>24987.53976554487</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>46283.56541839075</v>
+        <v>25455.96098011491</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>47158.74454470014</v>
+        <v>25937.30949958508</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>48058.17951591528</v>
+        <v>26431.9987337534</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>48982.63706196781</v>
+        <v>26940.45038408229</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>49932.89848652207</v>
+        <v>27463.09416758714</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>50909.75910136356</v>
+        <v>28000.36750574996</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>51914.02759543817</v>
+        <v>28552.71517749099</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>52946.52533639324</v>
+        <v>29120.58893501629</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>54008.08560327416</v>
+        <v>29704.44708180079</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>55099.55274852435</v>
+        <v>30304.75401168839</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>56221.78128800584</v>
+        <v>30921.97970840322</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>57375.63491763231</v>
+        <v>31556.59920469778</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>58561.9854560353</v>
+        <v>32209.09200081942</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>59781.71171172899</v>
+        <v>32879.94144145094</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>61035.69827484167</v>
+        <v>33569.63405116292</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>62324.83423258185</v>
+        <v>34278.65882792002</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>63650.0118083918</v>
+        <v>35007.50649461549</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>65012.12492526611</v>
+        <v>35756.66870889637</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>66412.06769306459</v>
+        <v>36526.63723118553</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>67850.73282095652</v>
+        <v>37317.90305152609</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>69329.00995596757</v>
+        <v>38130.95547578217</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>70847.78394868188</v>
+        <v>38966.28117177504</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>72407.93304805789</v>
+        <v>39824.36317643185</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>74010.32702703317</v>
+        <v>40705.67986486825</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>75655.82524166793</v>
+        <v>41610.70388291736</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>77345.27462593952</v>
+        <v>42539.90104426674</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>79079.50762565626</v>
+        <v>43493.72919411094</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80859.34007489226</v>
+        <v>44472.63704119074</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>82685.56901825911</v>
+        <v>45477.06296004251</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>84558.97048364411</v>
+        <v>46507.43376600427</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>86480.29720974297</v>
+        <v>47564.16346535864</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>88450.27633314954</v>
+        <v>48647.65198323224</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>90469.60704027266</v>
+        <v>49758.28387214996</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>92538.95819002313</v>
+        <v>50896.42700451272</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>94658.96591247279</v>
+        <v>52062.43125186004</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>96830.23119079349</v>
+        <v>53256.62715493642</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>99053.31743211325</v>
+        <v>54479.3245876623</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>101328.7480349682</v>
+        <v>55730.81141923252</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>103657.003960413</v>
+        <v>57011.35217822714</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>106038.5213142323</v>
+        <v>58321.18672282777</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>108473.6889481774</v>
+        <v>59660.52892149756</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>110962.8460885917</v>
+        <v>61029.56534872544</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>113506.2800002777</v>
+        <v>62428.45400015275</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>116104.2236946539</v>
+        <v>63857.32303205967</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>118756.8536906403</v>
+        <v>65316.26952985215</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>121464.287837281</v>
+        <v>66805.35831050455</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>124226.5832071011</v>
+        <v>68324.62076390559</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>127043.7340694309</v>
+        <v>69874.05373818697</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>129915.6699526625</v>
+        <v>71453.61847396436</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>132842.25380494</v>
+        <v>73063.23959271703</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>135823.2802622696</v>
+        <v>74702.80414424831</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>138858.4740333317</v>
+        <v>76372.16071833245</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>141947.4884100552</v>
+        <v>78071.11862553038</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>145089.9039129563</v>
+        <v>79799.44715212597</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>148285.2270799758</v>
+        <v>81556.87489398668</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>151532.8894075651</v>
+        <v>83343.08917416079</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>154832.2464520106</v>
+        <v>85157.73554860584</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>158182.5770996472</v>
+        <v>87000.41740480598</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>161583.0830133554</v>
+        <v>88870.69565734545</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>165032.8882624262</v>
+        <v>90768.08854433443</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>168531.0391435244</v>
+        <v>92692.07152893842</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>172076.504198654</v>
+        <v>94642.07730925974</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>175668.1744362329</v>
+        <v>96617.49593992811</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>179304.8637610461</v>
+        <v>98617.67506857537</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>182985.3096178291</v>
+        <v>100641.920289806</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>186708.173852644</v>
+        <v>102689.4956189542</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>190472.0437960821</v>
+        <v>104759.6240878451</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>194275.4335710313</v>
+        <v>106851.4884640672</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>198116.7856274579</v>
+        <v>108964.2320951019</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>201994.4725057399</v>
+        <v>111096.959878157</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>205906.7988292162</v>
+        <v>113248.7393560689</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>209852.0035264663</v>
+        <v>115418.6019395565</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>213828.2622819722</v>
+        <v>117605.5442550848</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>217833.6902138287</v>
+        <v>119808.5296176058</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>221866.3447764745</v>
+        <v>122026.489627061</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>225924.2288843736</v>
+        <v>124258.3258864055</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>230005.2942534341</v>
+        <v>126502.9118393888</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>234107.4449544412</v>
+        <v>128759.0947249427</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>238228.541173281</v>
+        <v>131025.6976453045</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>242366.4031710111</v>
+        <v>133301.5217440561</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>246518.8154362392</v>
+        <v>135585.3484899316</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>250683.5310217498</v>
+        <v>137875.9420619624</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>254858.276055847</v>
+        <v>140172.0518307158</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>259040.7544189414</v>
+        <v>142472.4149304178</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>263228.6525742823</v>
+        <v>144775.7589158553</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>267419.6445415875</v>
+        <v>147080.8044978731</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>271611.3970013913</v>
+        <v>149386.2683507652</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>275801.5745173417</v>
+        <v>151690.865984538</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>279987.8448627548</v>
+        <v>153993.3146745152</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>284167.8844376715</v>
+        <v>156292.3364407193</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>288339.3837615961</v>
+        <v>158586.6610688779</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>292500.0530269333</v>
+        <v>160875.0291648133</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>296647.6276974675</v>
+        <v>163156.1952336071</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>300779.8741360384</v>
+        <v>165428.9307748211</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>304894.5952450895</v>
+        <v>167692.0273847992</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>308989.6361035942</v>
+        <v>169944.2998569768</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>313062.8895834535</v>
+        <v>172184.5892708995</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>317112.3019287288</v>
+        <v>174411.7660608009</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>321135.8782803253</v>
+        <v>176624.7330541789</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>325131.6881296653</v>
+        <v>178822.4284713159</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>329097.8706836424</v>
+        <v>181003.8288760034</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>333032.6401248581</v>
+        <v>183167.952068672</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>336934.2907499204</v>
+        <v>185313.8599124562</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>340801.2019693665</v>
+        <v>187440.6610831516</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>344631.8431538457</v>
+        <v>189547.5137346152</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>348424.7783097094</v>
+        <v>191633.6280703402</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>352178.6705700052</v>
+        <v>193698.2688135029</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>355892.286485369</v>
+        <v>195740.757566953</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>359564.500100782</v>
+        <v>197760.4750554301</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>363194.2968051414</v>
+        <v>199756.8632428278</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>366780.7769403657</v>
+        <v>201729.4273172012</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>370323.1591581548</v>
+        <v>203677.7375369851</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>373820.7835134984</v>
+        <v>205601.4309324242</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>377273.1142839619</v>
+        <v>207500.212856179</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>380679.7425059728</v>
+        <v>209373.858378285</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>384040.3882188912</v>
+        <v>211222.2135203902</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>387354.9024101451</v>
+        <v>213045.1963255798</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>390623.2686539806</v>
+        <v>214842.7977596894</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>393845.6044391991</v>
+        <v>216615.0824415595</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>397022.1621811008</v>
+        <v>218362.1891996055</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>400153.3299140608</v>
+        <v>220084.3314527335</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>403239.6316632627</v>
+        <v>221781.7974147945</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>406281.7274936662</v>
+        <v>223454.9501215164</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>409280.4132370302</v>
+        <v>225104.2272803666</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>412236.619897499</v>
+        <v>226730.1409436245</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>415151.4127383282</v>
+        <v>228333.2770060805</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>418025.9900534655</v>
+        <v>229914.2945294061</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>420861.6816275686</v>
+        <v>231473.9248951628</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>423659.9468911438</v>
+        <v>233012.9707901291</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>426422.3727764781</v>
+        <v>234532.3050270629</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>429150.6712825957</v>
+        <v>236032.8692054276</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>431846.6767576087</v>
+        <v>237515.6722166848</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>434512.3429081294</v>
+        <v>238981.7885994712</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>437149.7395463795</v>
+        <v>240432.3567505087</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>439761.0490859612</v>
+        <v>241868.5769972787</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>442348.5627990707</v>
+        <v>243291.7095394889</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>444914.6768478403</v>
+        <v>244703.0722663121</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>447461.8881033546</v>
+        <v>246104.0384568451</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>449992.7897669637</v>
+        <v>247496.0343718301</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>452510.0668088782</v>
+        <v>248880.536744883</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>455016.4912392853</v>
+        <v>250259.0701816069</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>457514.9172282123</v>
+        <v>251633.2044755168</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>460008.2760904472</v>
+        <v>253004.551849746</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>462499.5711522985</v>
+        <v>254374.7641337642</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>464991.8725170683</v>
+        <v>255745.5298843876</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>467488.3117466914</v>
+        <v>257118.5714606803</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>469992.0764768198</v>
+        <v>258495.6420622509</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>472506.404982711</v>
+        <v>259878.5227404911</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>475034.580713571</v>
+        <v>261269.0193924641</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>477579.9268125405</v>
+        <v>262668.9597468973</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>480145.8006398324</v>
+        <v>264080.1903519079</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>482735.5883160252</v>
+        <v>265504.5735738138</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>485352.6993022698</v>
+        <v>266943.9846162484</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>488000.5610339892</v>
+        <v>268400.3085686941</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>490682.6136245221</v>
+        <v>269875.4374934872</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>493402.304653996</v>
+        <v>271371.2675596978</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>496163.0840589994</v>
+        <v>272889.6962324497</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>498968.3991379652</v>
+        <v>274432.6195258808</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>501821.68968583</v>
+        <v>276001.9293272065</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>504726.3832724501</v>
+        <v>277599.5107998475</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>507685.8906768409</v>
+        <v>279227.2398722625</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>510703.6014897925</v>
+        <v>280886.9808193859</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>513782.8798968461</v>
+        <v>282580.5839432654</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>516927.0606513612</v>
+        <v>284309.8833582486</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>520139.4452484626</v>
+        <v>286076.6948866544</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>523423.2983088812</v>
+        <v>287882.8140698847</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>526781.8441807666</v>
+        <v>289730.0142994216</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>530218.2637671873</v>
+        <v>291620.045071953</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>533735.6915861006</v>
+        <v>293554.6303723554</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>537337.2130682609</v>
+        <v>295535.4671875436</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>541025.8620985156</v>
+        <v>297564.2241541836</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>544804.6188042804</v>
+        <v>299642.5403423542</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>548676.5300288835</v>
+        <v>301772.091515886</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>552644.2312707282</v>
+        <v>303954.3271989006</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>556710.6406915002</v>
+        <v>306190.8523803251</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>560878.506375465</v>
+        <v>308483.1785065057</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>565150.5153892888</v>
+        <v>310832.7834641088</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>569529.2930940741</v>
+        <v>313241.1112017408</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>574017.402710716</v>
+        <v>315709.5714908938</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>578617.3451360799</v>
+        <v>318239.539824844</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>583331.5590071417</v>
+        <v>320832.357453928</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>588162.4210095027</v>
+        <v>323489.3315552265</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>593112.2464257804</v>
+        <v>326211.7355341792</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>598183.2899192038</v>
+        <v>329000.8094555621</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>603377.746547186</v>
+        <v>331857.7606009523</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>608697.7529982689</v>
+        <v>334783.764149048</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>614145.3890464465</v>
+        <v>337779.9639755456</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>619722.6792158553</v>
+        <v>340847.4735687205</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>625431.5946480852</v>
+        <v>343987.3770564469</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>631274.0551646142</v>
+        <v>347200.7303405378</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>637251.9315166961</v>
+        <v>350488.5623341829</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>643367.047812456</v>
+        <v>353851.8762968509</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>649621.1841150572</v>
+        <v>357291.6512632815</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>656016.0792003124</v>
+        <v>360808.8435601719</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>662553.4334668557</v>
+        <v>364404.3884067707</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>669234.9119867921</v>
+        <v>368079.2015927357</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>676062.1476905773</v>
+        <v>371834.1812298176</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>683036.7446730841</v>
+        <v>375670.2095701963</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>690160.2816134574</v>
+        <v>379588.1548874016</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>697434.3152977007</v>
+        <v>383588.8734137354</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>704860.3842350674</v>
+        <v>387673.2113292871</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>712440.0123569096</v>
+        <v>391842.0067963003</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>720174.7127896699</v>
+        <v>396096.0920343185</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>728065.9916916179</v>
+        <v>400436.2954303899</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>736115.352142788</v>
+        <v>404863.4436785334</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>744324.2980798029</v>
+        <v>409378.3639438916</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>752694.3382648296</v>
+        <v>413981.8860456563</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>761226.9902795401</v>
+        <v>418674.8446537471</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>769923.7845349164</v>
+        <v>423458.0814942041</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>778786.2682872796</v>
+        <v>428332.4475580038</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>787816.0096510443</v>
+        <v>433298.8053080744</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>797014.6016003077</v>
+        <v>438358.0308801693</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>806383.6659491516</v>
+        <v>443511.0162720334</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>815924.8573021645</v>
+        <v>448758.6715161905</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>825639.8669674161</v>
+        <v>454101.9268320788</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>835530.4268218894</v>
+        <v>459541.7347520392</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>845598.3131224989</v>
+        <v>465079.0722173744</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>855845.3502532273</v>
+        <v>470714.9426392751</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>866273.4144008716</v>
+        <v>476450.3779204794</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>876884.4371511017</v>
+        <v>482286.440433106</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>887680.4089971691</v>
+        <v>488224.224948443</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>898663.3827525073</v>
+        <v>494264.8605138791</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>909835.476860681</v>
+        <v>500409.5122733745</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>921198.8785939844</v>
+        <v>506659.3832266915</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>932755.8471326842</v>
+        <v>513015.7159229764</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>944508.7165182689</v>
+        <v>519479.7940850479</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>956459.8984721461</v>
+        <v>526052.9441596804</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>968611.8850719504</v>
+        <v>532736.5367895728</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>980967.2512779972</v>
+        <v>539531.9882028985</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>993528.6573024463</v>
+        <v>546440.7615163455</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>1006298.850811767</v>
+        <v>553464.367946472</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>1019280.668956717</v>
+        <v>560604.3679261942</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>1032477.040219502</v>
+        <v>567862.3721207263</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>1045890.986070917</v>
+        <v>575240.0423390043</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>1059525.622430431</v>
+        <v>582739.092336737</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>1073384.160916798</v>
+        <v>590361.2885042391</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>1087469.909885493</v>
+        <v>598108.4504370211</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>1101786.275240394</v>
+        <v>605982.4513822165</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>1116336.761011587</v>
+        <v>613985.218556373</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>1131124.969691259</v>
+        <v>622118.7333301926</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>1146154.60231629</v>
+        <v>630385.0312739598</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>1161429.458289714</v>
+        <v>638786.2020593424</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>1176953.434929396</v>
+        <v>647324.3892111676</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>1192730.526735178</v>
+        <v>656001.7897043482</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1208764.824363545</v>
+        <v>664820.65339995</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1225060.513298817</v>
+        <v>673783.2823143492</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1241621.872211319</v>
+        <v>682892.0297162253</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1258453.270990151</v>
+        <v>692149.2990445829</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1275559.168440388</v>
+        <v>701557.5426422133</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1292944.109632675</v>
+        <v>711119.2602979711</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1310612.722894429</v>
+        <v>720836.9975919357</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1328569.71643029</v>
+        <v>730713.3440366595</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1346819.874560599</v>
+        <v>740750.9310083295</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1365368.053565757</v>
+        <v>750952.4294611664</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1384219.1771248</v>
+        <v>761320.5474186401</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1403378.231336695</v>
+        <v>771858.0272351822</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1422850.259311186</v>
+        <v>782567.6426211525</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1442640.355319492</v>
+        <v>793452.1954257208</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1462753.658491553</v>
+        <v>804514.512170354</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1483195.346049495</v>
+        <v>815757.4403272223</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1503970.626065828</v>
+        <v>827183.8443362054</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1525084.729735504</v>
+        <v>838796.6013545271</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1546542.903151637</v>
+        <v>850598.5967334004</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1568350.398575965</v>
+        <v>862592.7192167811</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1590512.465192306</v>
+        <v>874781.8558557681</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1613034.33933758</v>
+        <v>887168.8866356689</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1635921.234200488</v>
+        <v>899756.6788102685</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1659178.328981363</v>
+        <v>912548.0809397496</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1682810.757507282</v>
+        <v>925545.9166290053</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1706823.596298475</v>
+        <v>938752.9779641611</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1731221.852081012</v>
+        <v>952172.0186445565</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1756010.448743473</v>
+        <v>965805.7468089099</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1275307.074874476</v>
+        <v>701418.8911809621</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1293624.56649923</v>
+        <v>711493.5115745763</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1312231.657132865</v>
+        <v>721727.4114230759</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1331131.533632774</v>
+        <v>732122.3434980259</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1350327.270913577</v>
+        <v>742679.9990024676</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1369821.820254961</v>
+        <v>753402.0011402287</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1389617.997236812</v>
+        <v>764289.8984802464</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1409718.469310158</v>
+        <v>775345.1581205868</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1430125.743015074</v>
+        <v>786569.1586582905</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1450842.150861533</v>
+        <v>797963.182973843</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1471869.837887452</v>
+        <v>809528.4108380984</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1493210.747911372</v>
+        <v>821265.9113512547</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1514866.60950234</v>
+        <v>833176.6352262867</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1536838.921688625</v>
+        <v>845261.4069287439</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1559128.939430391</v>
+        <v>857520.9166867151</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1581737.658886497</v>
+        <v>869955.7123875734</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1604665.802503757</v>
+        <v>882566.1913770667</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1627913.803963891</v>
+        <v>895352.5921801401</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1651481.793025966</v>
+        <v>908314.9861642813</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1675369.580300551</v>
+        <v>921453.2691653031</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1699576.642002011</v>
+        <v>934767.1531011064</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1724102.104720515</v>
+        <v>948256.1575962831</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1748944.730266802</v>
+        <v>961919.6016467409</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1774102.900636665</v>
+        <v>975756.5953501655</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1799574.603152541</v>
+        <v>989766.0317338977</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1825357.415839115</v>
+        <v>1003946.578711513</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1851448.493091965</v>
+        <v>1018296.671200581</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1877844.551703245</v>
+        <v>1032814.503436785</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1904541.857309675</v>
+        <v>1047498.021520321</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1931536.211330914</v>
+        <v>1062344.916232003</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1958822.938467559</v>
+        <v>1077352.616157158</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1986396.874832877</v>
+        <v>1092518.281158082</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2014252.356790836</v>
+        <v>1107838.79623496</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2042383.210577045</v>
+        <v>1123310.765817375</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2070782.742780119</v>
+        <v>1138930.508529065</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2099443.731760675</v>
+        <v>1154694.052468372</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>2128358.420086659</v>
+        <v>1170597.131047663</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>2157518.508066992</v>
+        <v>1186635.179436846</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>2186915.148458946</v>
+        <v>1202803.331652421</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2216538.942430246</v>
+        <v>1219096.418336635</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>2246379.936854407</v>
+        <v>1235508.965269924</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2276427.62301421</v>
+        <v>1252035.192657816</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>2306670.9367909</v>
+        <v>1268669.015234995</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>2337098.260407878</v>
+        <v>1285404.043224333</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>2367697.425805171</v>
+        <v>1302233.584192845</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>2398455.719704376</v>
+        <v>1319150.645837407</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>2429359.890434804</v>
+        <v>1336147.939739142</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>2460396.156572629</v>
+        <v>1353217.886114946</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>2491550.217454293</v>
+        <v>1370352.619599861</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>2522807.265607665</v>
+        <v>1387543.996084216</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>2554152.001148305</v>
+        <v>1404783.600631568</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2585568.648174967</v>
+        <v>1422062.756496232</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2617040.973197266</v>
+        <v>1439372.535258497</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2648552.305616669</v>
+        <v>1456703.768089168</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2680085.560277199</v>
+        <v>1474047.05815246</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2623745.228278452</v>
+        <v>1443059.875553148</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2654247.902018077</v>
+        <v>1459836.346109943</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2684720.034752435</v>
+        <v>1476596.019113839</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2715143.748851118</v>
+        <v>1493329.061868115</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2745500.904651011</v>
+        <v>1510025.497558056</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2775773.134138444</v>
+        <v>1526675.223776145</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2805941.876503144</v>
+        <v>1543268.032076729</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>2835988.415501473</v>
+        <v>1559793.62852581</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>2865893.918565663</v>
+        <v>1576241.655211115</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>2895639.477585811</v>
+        <v>1592601.712672196</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2925206.151272989</v>
+        <v>1608863.383200144</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2954575.009016439</v>
+        <v>1625016.254959041</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2983727.176123671</v>
+        <v>1641049.946868019</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>3012643.880335266</v>
+        <v>1656954.134184396</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>3041306.499492167</v>
+        <v>1672718.574720692</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>3225607.858877595</v>
+        <v>1774084.322382677</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>3255134.468514457</v>
+        <v>1790323.957682951</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>3284336.846493578</v>
+        <v>1806385.265571468</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>3313196.575865098</v>
+        <v>1822258.116725804</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>3341695.6609532</v>
+        <v>1837932.61352426</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>3369816.58158181</v>
+        <v>1853399.119869996</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>3397542.347408864</v>
+        <v>1868648.291074875</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>3424856.552190139</v>
+        <v>1883671.103704577</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>3451743.427791408</v>
+        <v>1898458.885285275</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>3478187.897763622</v>
+        <v>1913003.343769992</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3542766.971794669</v>
+        <v>1948521.834487068</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3568565.454604428</v>
+        <v>1962711.000032436</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3593875.659062409</v>
+        <v>1976631.612484325</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3618685.666176561</v>
+        <v>1990277.116397109</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3642984.513921086</v>
+        <v>2003641.482656598</v>
       </c>
     </row>
     <row r="388">

--- a/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>13264450.97099772</v>
+        <v>23857510.00534276</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>15963.88064657874</v>
+        <v>28712.71815792335</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>16206.47456662089</v>
+        <v>29149.04883510671</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>16454.23243823644</v>
+        <v>29594.66742225323</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>16707.33260118619</v>
+        <v>30049.89468217752</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>16965.96053433396</v>
+        <v>30515.06421812177</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>17230.30905263343</v>
+        <v>30990.52282805719</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>17500.57850094123</v>
+        <v>31476.63085327739</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>17776.97694387275</v>
+        <v>31973.76251987389</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>18059.72035064271</v>
+        <v>32482.30627119146</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>18349.03277419486</v>
+        <v>33002.66509001155</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>18645.14652368936</v>
+        <v>33535.25680878914</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>18948.30232913273</v>
+        <v>34080.51440575688</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>19258.74949746197</v>
+        <v>34638.88628565898</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>19576.74605868838</v>
+        <v>35210.83654260603</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>19902.55890130633</v>
+        <v>35796.84520362204</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>20236.46389556118</v>
+        <v>36397.40845035474</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>20578.74600357912</v>
+        <v>37013.03881715563</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>20929.69937511874</v>
+        <v>37644.26536329933</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>21289.62742758413</v>
+        <v>38291.63381689547</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>21658.84290928025</v>
+        <v>38955.70668866017</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>22037.66794435663</v>
+        <v>39637.06335275204</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>22426.43405830242</v>
+        <v>40336.30009262762</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>22825.48218267912</v>
+        <v>41054.03010955377</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>23235.16263758988</v>
+        <v>41790.88349107687</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>23655.83509077727</v>
+        <v>42547.50713745575</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>24087.86849180919</v>
+        <v>43324.56464328828</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>24531.64098010884</v>
+        <v>44122.73613209348</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>24987.53976554487</v>
+        <v>44942.71804154036</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>25455.96098011491</v>
+        <v>45785.22285668532</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>25937.30949958508</v>
+        <v>46650.97878917174</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>26431.9987337534</v>
+        <v>47540.72939999693</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>26940.45038408229</v>
+        <v>48455.23316358861</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>27463.09416758714</v>
+        <v>49395.2629711894</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>28000.36750574996</v>
+        <v>50361.60557133541</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>28552.71517749099</v>
+        <v>51355.06094568917</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>29120.58893501629</v>
+        <v>52376.44161810099</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>29704.44708180079</v>
+        <v>53426.5718955673</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>30304.75401168839</v>
+        <v>54506.28703925356</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>30921.97970840322</v>
+        <v>55616.43236431264</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>31556.59920469778</v>
+        <v>56757.86226710599</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>32209.09200081942</v>
+        <v>57931.4391792543</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>32879.94144145094</v>
+        <v>59138.03244699974</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>33569.63405116292</v>
+        <v>60378.517135947</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>34278.65882792002</v>
+        <v>61653.77276036023</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>35007.50649461549</v>
+        <v>62964.68193696901</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>35756.66870889637</v>
+        <v>64312.12896375584</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>36526.63723118553</v>
+        <v>65696.99832355649</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>37317.90305152609</v>
+        <v>67120.17311359763</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>38130.95547578217</v>
+        <v>68582.53340193293</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>38966.28117177504</v>
+        <v>70084.95451181856</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>39824.36317643185</v>
+        <v>71628.30523596574</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>40705.67986486825</v>
+        <v>73213.44598232755</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>41610.70388291736</v>
+        <v>74841.22685413987</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>42539.90104426674</v>
+        <v>76512.48566630627</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>43493.72919411094</v>
+        <v>78228.04590155766</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>44472.63704119074</v>
+        <v>79988.7146097521</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>45477.06296004251</v>
+        <v>81795.28025359413</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>46507.43376600427</v>
+        <v>83648.51050535454</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>47564.16346535864</v>
+        <v>85549.14999887088</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>48647.65198323224</v>
+        <v>87497.91804154094</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>49758.28387214996</v>
+        <v>89495.50629152139</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>50896.42700451272</v>
+        <v>91542.5764060121</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>52062.43125186004</v>
+        <v>93639.75766577054</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>53256.62715493642</v>
+        <v>95787.64458308642</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>54479.3245876623</v>
+        <v>97986.79449879307</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>55730.81141923252</v>
+        <v>100237.7251759107</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>57011.35217822714</v>
+        <v>102540.9123969092</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>58321.18672282777</v>
+        <v>104896.7875719525</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>59660.52892149756</v>
+        <v>107305.7353659628</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>61029.56534872544</v>
+        <v>109768.0913527791</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>62428.45400015275</v>
+        <v>112284.1397041778</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>63857.32303205967</v>
+        <v>114854.1109227061</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>65316.26952985215</v>
+        <v>117478.1796266764</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>66805.35831050455</v>
+        <v>120156.4623962336</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>68324.62076390559</v>
+        <v>122889.0156893934</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>69874.05373818697</v>
+        <v>125675.8338371893</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>71453.61847396436</v>
+        <v>128516.8471267926</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>73063.23959271703</v>
+        <v>131411.9199820066</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>74702.80414424831</v>
+        <v>134360.8492500244</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>76372.16071833245</v>
+        <v>137363.3626036323</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>78071.11862553038</v>
+        <v>140419.1170678204</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>79799.44715212597</v>
+        <v>143527.6976797078</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>81556.87489398668</v>
+        <v>146688.6162904202</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>83343.08917416079</v>
+        <v>149901.3105175778</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>85157.73554860584</v>
+        <v>153165.1428562958</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>87000.41740480598</v>
+        <v>156479.3999572553</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>88870.69565734545</v>
+        <v>159843.2920791604</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>90768.08854433443</v>
+        <v>163255.9527225885</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>92692.07152893842</v>
+        <v>166716.4384528808</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>94642.07730925974</v>
+        <v>170223.7289179148</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>96617.49593992811</v>
+        <v>173776.7270667984</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>98617.67506857537</v>
+        <v>177374.2595751937</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>100641.920289806</v>
+        <v>181015.0774819709</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>102689.4956189542</v>
+        <v>184697.85704131</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>104759.6240878451</v>
+        <v>188421.20079424</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>106851.4884640672</v>
+        <v>192183.6388623257</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>108964.2320951019</v>
+        <v>195983.630465924</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>111096.959878157</v>
+        <v>199819.5656685315</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>113248.7393560689</v>
+        <v>203689.7673478787</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>115418.6019395565</v>
+        <v>207592.4933942836</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>117605.5442550848</v>
+        <v>211525.9391349254</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>119808.5296176058</v>
+        <v>215488.2399827242</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>122026.489627061</v>
+        <v>219477.474307818</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>124258.3258864055</v>
+        <v>223491.6665276105</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>126502.9118393888</v>
+        <v>227528.7904122127</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>128759.0947249427</v>
+        <v>231586.7725996154</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>131025.6976453045</v>
+        <v>235663.496315426</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>133301.5217440561</v>
+        <v>239756.8052903003</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>135585.3484899316</v>
+        <v>243864.5078676121</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>137875.9420619624</v>
+        <v>247984.3812933864</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>140172.0518307158</v>
+        <v>252114.176179068</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>142472.4149304178</v>
+        <v>256251.6211277549</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>144775.7589158553</v>
+        <v>260394.4275129172</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>147080.8044978731</v>
+        <v>264540.2943984749</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>149386.2683507652</v>
+        <v>268686.9135881866</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>151690.865984538</v>
+        <v>272831.9747917175</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>153993.3146745152</v>
+        <v>276973.1708938422</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>156292.3364407193</v>
+        <v>281108.2033131744</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>158586.6610688779</v>
+        <v>285234.7874357647</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>160875.0291648133</v>
+        <v>289350.658108743</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>163156.1952336071</v>
+        <v>293453.5751785176</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>165428.9307748211</v>
+        <v>297541.3290578576</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>167692.0273847992</v>
+        <v>301611.7463057076</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>169944.2998569768</v>
+        <v>305662.6952034209</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>172184.5892708995</v>
+        <v>309692.0913106842</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>174411.7660608009</v>
+        <v>313697.9029846778</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>176624.7330541789</v>
+        <v>317678.1568452746</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>178822.4284713159</v>
+        <v>321630.943169992</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>181003.8288760034</v>
+        <v>325554.4212011806</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>183167.952068672</v>
+        <v>329446.824349624</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>185313.8599124562</v>
+        <v>333306.4652775121</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>187440.6610831516</v>
+        <v>337131.7408445282</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>189547.5137346152</v>
+        <v>340921.1369018527</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>191633.6280703402</v>
+        <v>344673.2329174111</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>193698.2688135029</v>
+        <v>348386.7064185112</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>195740.757566953</v>
+        <v>352060.337236536</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>197760.4750554301</v>
+        <v>355693.0115398044</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>199756.8632428278</v>
+        <v>359283.7256416943</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>201729.4273172012</v>
+        <v>362831.5895708867</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>203677.7375369851</v>
+        <v>366335.8303919835</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>205601.4309324242</v>
+        <v>369795.7952657084</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>207500.212856179</v>
+        <v>373210.9542378358</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>209373.858378285</v>
+        <v>376580.9027481695</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>211222.2135203902</v>
+        <v>379905.363850451</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>213045.1963255798</v>
+        <v>383184.19013655</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>214842.7977596894</v>
+        <v>386417.3653575717</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>216615.0824415595</v>
+        <v>389605.0057372965</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>218362.1891996055</v>
+        <v>392747.3609732289</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>220084.3314527335</v>
+        <v>395844.8149217156</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>221781.7974147945</v>
+        <v>398897.885965677</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>223454.9501215164</v>
+        <v>401907.227063048</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>225104.2272803666</v>
+        <v>404873.6254767391</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>226730.1409436245</v>
+        <v>407798.0021866242</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>228333.2770060805</v>
+        <v>410681.4109860985</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>229914.2945294061</v>
+        <v>413525.0372668871</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>231473.9248951628</v>
+        <v>416330.1964956432</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>233012.9707901291</v>
+        <v>419098.3323889511</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>234532.3050270629</v>
+        <v>421831.0147923437</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>236032.8692054276</v>
+        <v>424529.9372714774</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>237515.6722166848</v>
+        <v>427196.9144237448</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>238981.7885994712</v>
+        <v>429833.8789198858</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>240432.3567505087</v>
+        <v>432442.8782861223</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>241868.5769972787</v>
+        <v>435026.0714376601</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>243291.7095394889</v>
+        <v>437585.7249762005</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>244703.0722663121</v>
+        <v>440124.2092640142</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>246104.0384568451</v>
+        <v>442643.9942879752</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>247496.0343718301</v>
+        <v>445147.6453280192</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>248880.536744883</v>
+        <v>447637.8184448525</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>250259.0701816069</v>
+        <v>450117.2558019848</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>251633.2044755168</v>
+        <v>452588.7808381373</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>253004.551849746</v>
+        <v>455055.2933061625</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>254374.7641337642</v>
+        <v>457519.7641950732</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>255745.5298843876</v>
+        <v>459985.2305518778</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>257118.5714606803</v>
+        <v>462454.790220482</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>258495.6420622509</v>
+        <v>464931.5965147545</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>259878.5227404911</v>
+        <v>467418.8528429241</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>261269.0193924641</v>
+        <v>469919.8073007735</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>262668.9597468973</v>
+        <v>472437.7472506289</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>264080.1903519079</v>
+        <v>474975.9939034681</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>265504.5735738138</v>
+        <v>477537.896920967</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>266943.9846162484</v>
+        <v>480126.8290540623</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>268400.3085686941</v>
+        <v>482746.1808344307</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>269875.4374934872</v>
+        <v>485399.3553351598</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>271371.2675596978</v>
+        <v>488089.7630157295</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>272889.6962324497</v>
+        <v>490820.8166667087</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>274432.6195258808</v>
+        <v>493595.9264689157</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>276001.9293272065</v>
+        <v>496418.4951804643</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>277599.5107998475</v>
+        <v>499291.9134660172</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>279227.2398722625</v>
+        <v>502219.5553801858</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>280886.9808193859</v>
+        <v>505204.7740174932</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>282580.5839432654</v>
+        <v>508250.8973407563</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>284309.8833582486</v>
+        <v>511361.2241975107</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>286076.6948866544</v>
+        <v>514539.0205351548</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>287882.8140698847</v>
+        <v>517787.515823725</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>289730.0142994216</v>
+        <v>521109.899694298</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>291620.045071953</v>
+        <v>524509.3188006496</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>293554.6303723554</v>
+        <v>527988.8739108802</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>295535.4671875436</v>
+        <v>531551.617234417</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>297564.2241541836</v>
+        <v>535200.5499897833</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>299642.5403423542</v>
+        <v>538938.6202168857</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>301772.091515886</v>
+        <v>542768.8419532024</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>303954.3271989006</v>
+        <v>546693.8223203031</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>306190.8523803251</v>
+        <v>550716.4480595593</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>308483.1785065057</v>
+        <v>554839.4376661732</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>310832.7834641088</v>
+        <v>559065.4492747338</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>313241.1112017408</v>
+        <v>563397.0799786601</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>315709.5714908938</v>
+        <v>567836.8654002373</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>318239.539824844</v>
+        <v>572387.2795087735</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>320832.357453928</v>
+        <v>577050.7346840501</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>323489.3315552265</v>
+        <v>581829.5820215134</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>326211.7355341792</v>
+        <v>586726.1118747626</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>329000.8094555621</v>
+        <v>591742.5546307063</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>331857.7606009523</v>
+        <v>596881.081712223</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>334783.764149048</v>
+        <v>602143.8068017869</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>337779.9639755456</v>
+        <v>607532.7872801321</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>340847.4735687205</v>
+        <v>613050.0258730197</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>343987.3770564469</v>
+        <v>618697.4724984424</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>347200.7303405378</v>
+        <v>624477.0263068525</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>350488.5623341829</v>
+        <v>630390.5379068259</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>353851.8762968509</v>
+        <v>636439.8117660232</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>357291.6512632815</v>
+        <v>642626.6087813822</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>360808.8435601719</v>
+        <v>648952.6490070384</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>364404.3884067707</v>
+        <v>655419.6145331614</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>368079.2015927357</v>
+        <v>662029.152503758</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>371834.1812298176</v>
+        <v>668782.8782672602</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>375670.2095701963</v>
+        <v>675682.3786469944</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>379588.1548874016</v>
+        <v>682729.2153242143</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>383588.8734137354</v>
+        <v>689924.928322759</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>387673.2113292871</v>
+        <v>697271.0395865068</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>391842.0067963003</v>
+        <v>704769.0566383963</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>396096.0920343185</v>
+        <v>712420.4763127959</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>400436.2954303899</v>
+        <v>720226.7885509275</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>404863.4436785334</v>
+        <v>728189.4802489222</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>409378.3639438916</v>
+        <v>736310.039150276</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>413981.8860456563</v>
+        <v>744589.9577720723</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>418674.8446537471</v>
+        <v>753030.7373559379</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>423458.0814942041</v>
+        <v>761633.891834675</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>428332.4475580038</v>
+        <v>770400.9518050478</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>433298.8053080744</v>
+        <v>779333.4684973317</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>438358.0308801693</v>
+        <v>788433.0177338172</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>443511.0162720334</v>
+        <v>797701.2038662536</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>448758.6715161905</v>
+        <v>807139.663683837</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>454101.9268320788</v>
+        <v>816750.0702840522</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>459541.7347520392</v>
+        <v>826534.1368964855</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>465079.0722173744</v>
+        <v>836493.6206528085</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>470714.9426392751</v>
+        <v>846630.3262935694</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>476450.3779204794</v>
+        <v>856946.1098043615</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>482286.440433106</v>
+        <v>867442.8819731624</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>488224.224948443</v>
+        <v>878122.6118612642</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>494264.8605138791</v>
+        <v>888987.3301791289</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>500409.5122733745</v>
+        <v>900039.1325607004</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>506659.3832266915</v>
+        <v>911280.1827275619</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>513015.7159229764</v>
+        <v>922712.7155350239</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>519479.7940850479</v>
+        <v>934339.0398935768</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>526052.9441596804</v>
+        <v>946161.5415572374</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>532736.5367895728</v>
+        <v>958182.6857710411</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>539531.9882028985</v>
+        <v>970405.0197702933</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>546440.7615163455</v>
+        <v>982831.1751242235</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>553464.367946472</v>
+        <v>995463.8699147362</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>560604.3679261942</v>
+        <v>1008305.910744531</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>567862.3721207263</v>
+        <v>1021360.19456438</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>575240.0423390043</v>
+        <v>1034629.710312414</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>582739.092336737</v>
+        <v>1048117.540358501</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>590361.2885042391</v>
+        <v>1061826.861741381</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>598108.4504370211</v>
+        <v>1075760.947194936</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>605982.4513822165</v>
+        <v>1089923.16595113</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>613985.218556373</v>
+        <v>1104316.984311597</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>622118.7333301926</v>
+        <v>1118945.965979913</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>630385.0312739598</v>
+        <v>1133813.772143302</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>638786.2020593424</v>
+        <v>1148924.161296015</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>647324.3892111676</v>
+        <v>1164280.988792875</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>656001.7897043482</v>
+        <v>1179888.206124302</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>664820.65339995</v>
+        <v>1195749.859902027</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>673783.2823143492</v>
+        <v>1211870.09054459</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>682892.0297162253</v>
+        <v>1228253.130653189</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>692149.2990445829</v>
+        <v>1244903.303065626</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>701557.5426422133</v>
+        <v>1261825.01857831</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>711119.2602979711</v>
+        <v>1279022.773324382</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>720836.9975919357</v>
+        <v>1296501.145797315</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>730713.3440366595</v>
+        <v>1314264.793507756</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>740750.9310083295</v>
+        <v>1332318.449262503</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>750952.4294611664</v>
+        <v>1350666.917053609</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>761320.5474186401</v>
+        <v>1369315.067546067</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>771858.0272351822</v>
+        <v>1388267.83315272</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>782567.6426211525</v>
+        <v>1407530.20268334</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>793452.1954257208</v>
+        <v>1427107.215558313</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>804514.512170354</v>
+        <v>1447003.955573743</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>815757.4403272223</v>
+        <v>1467225.544207778</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>827183.8443362054</v>
+        <v>1487777.133456775</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>838796.6013545271</v>
+        <v>1508663.898190572</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>850598.5967334004</v>
+        <v>1529891.02801676</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>862592.7192167811</v>
+        <v>1551463.718645134</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>874781.8558557681</v>
+        <v>1573387.162740706</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>887168.8866356689</v>
+        <v>1595666.540259921</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>899756.6788102685</v>
+        <v>1618307.008260241</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>912548.0809397496</v>
+        <v>1641313.690176718</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>925545.9166290053</v>
+        <v>1664691.664559694</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>938752.9779641611</v>
+        <v>1688445.953269689</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>952172.0186445565</v>
+        <v>1712581.509124554</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>965805.7468089099</v>
+        <v>1737103.202996571</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>701418.8911809621</v>
+        <v>996501.5013996494</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>711493.5115745763</v>
+        <v>1010814.452582594</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>721727.4114230759</v>
+        <v>1025353.691106714</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>732122.3434980259</v>
+        <v>1040121.707123782</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>742679.9990024676</v>
+        <v>1055120.903315552</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>753402.0011402287</v>
+        <v>1070353.585757708</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>764289.8984802464</v>
+        <v>1085821.954492609</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>775345.1581205868</v>
+        <v>1101528.093817448</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>786569.1586582905</v>
+        <v>1117473.962296555</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>797963.182973843</v>
+        <v>1133661.382510338</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>809528.4108380984</v>
+        <v>1150092.030551989</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>821265.9113512547</v>
+        <v>1166767.425285579</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>833176.6352262867</v>
+        <v>1183688.917383179</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>845261.4069287439</v>
+        <v>1200857.678157921</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>857520.9166867151</v>
+        <v>1218274.688212602</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>869955.7123875734</v>
+        <v>1235940.72592744</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>882566.1913770667</v>
+        <v>1253856.355809095</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>895352.5921801401</v>
+        <v>1272021.916728487</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>908314.9861642813</v>
+        <v>1290437.510076968</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>921453.2691653031</v>
+        <v>1309102.987869116</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>934767.1531011064</v>
+        <v>1328017.940828468</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>948256.1575962831</v>
+        <v>1347181.686488638</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>961919.6016467409</v>
+        <v>1366593.257351303</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>975756.5953501655</v>
+        <v>1386251.389137723</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>989766.0317338977</v>
+        <v>1406154.509178655</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1003946.578711513</v>
+        <v>1426300.724987115</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1018296.671200581</v>
+        <v>1446687.813060126</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1032814.503436785</v>
+        <v>1467313.207959438</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1047498.021520321</v>
+        <v>1488173.991722244</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1062344.916232003</v>
+        <v>1509266.883655056</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1077352.616157158</v>
+        <v>1530588.230564879</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1092518.281158082</v>
+        <v>1552133.997485557</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1107838.79623496</v>
+        <v>1573899.758956024</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1123310.765817375</v>
+        <v>1595880.690910291</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1138930.508529065</v>
+        <v>1618071.563239763</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1154694.052468372</v>
+        <v>1640466.733088196</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1170597.131047663</v>
+        <v>1663060.138940808</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1186635.179436846</v>
+        <v>1685845.29557158</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1202803.331652421</v>
+        <v>1708815.289907707</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1219096.418336635</v>
+        <v>1731962.777874445</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1235508.965269924</v>
+        <v>1755279.982281754</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1252035.192657816</v>
+        <v>1778758.691811203</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1268669.015234995</v>
+        <v>1802390.261163814</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1285404.043224333</v>
+        <v>1826165.61242255</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1302233.584192845</v>
+        <v>1850075.237689062</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1319150.645837407</v>
+        <v>1874109.20304134</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1336147.939739142</v>
+        <v>1898257.153867547</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1353217.886114946</v>
+        <v>1922508.321616479</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1370352.619599861</v>
+        <v>1946851.532012556</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>1387543.996084216</v>
+        <v>1971275.214769293</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>1404783.600631568</v>
+        <v>1995767.414838282</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>1422062.756496232</v>
+        <v>2020315.805220334</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1439372.535258497</v>
+        <v>2044907.70136452</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>1456703.768089168</v>
+        <v>2069530.07717164</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>1474047.05815246</v>
+        <v>2094169.58261493</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>1443059.875553148</v>
+        <v>2022356.35159514</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>1459836.346109943</v>
+        <v>2045867.504779187</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>1476596.019113839</v>
+        <v>2069355.117264494</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>1493329.061868115</v>
+        <v>2092805.409153908</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>1510025.497558056</v>
+        <v>2116204.398578106</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>1526675.223776145</v>
+        <v>2139537.927657462</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>1543268.032076729</v>
+        <v>2162791.689906673</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>1559793.62852581</v>
+        <v>2185951.259033966</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>1576241.655211115</v>
+        <v>2209002.119086104</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>1592601.712672196</v>
+        <v>2231929.695882733</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>1608863.383200144</v>
+        <v>2254719.389669443</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>1625016.254959041</v>
+        <v>2277356.608922446</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>1641049.946868019</v>
+        <v>2299826.805219194</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>1656954.134184396</v>
+        <v>2322115.509091517</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>1672718.574720692</v>
+        <v>2344208.366767087</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>1774084.322382677</v>
+        <v>2561484.275347198</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>1790323.957682951</v>
+        <v>2584931.622203384</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>1806385.265571468</v>
+        <v>2608121.493777633</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>1822258.116725804</v>
+        <v>2631039.265004061</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>1837932.61352426</v>
+        <v>2653670.645354293</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>1853399.119869996</v>
+        <v>2676001.721898587</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>1868648.291074875</v>
+        <v>2698019.002453164</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>1883671.103704577</v>
+        <v>2719709.458671607</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>1898458.885285275</v>
+        <v>2741060.568936396</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>1913003.343769992</v>
+        <v>2762060.360903447</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>1948521.834487068</v>
+        <v>2974784.041478297</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>1962711.000032436</v>
+        <v>2996446.463976818</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>1976631.612484325</v>
+        <v>3017698.889808827</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>1990277.116397109</v>
+        <v>3038531.310857044</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>2003641.482656598</v>
+        <v>3058934.522547849</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3666762.244839409</v>
+        <v>3078900.163822461</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3690009.951916802</v>
+        <v>3098420.755655166</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3712719.822551149</v>
+        <v>3117489.737974618</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3734885.180452685</v>
+        <v>3136101.504846132</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3756500.525313571</v>
+        <v>3154251.43778136</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>3368379.752545911</v>
+        <v>2466913.02564107</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>3386662.516622516</v>
+        <v>2480302.842751569</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>3404446.743580937</v>
+        <v>2493327.544346313</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>3421732.032497133</v>
+        <v>2505986.836799043</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>3438519.173417885</v>
+        <v>2518281.298719309</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>3454810.168094692</v>
+        <v>2530212.396137435</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>3470608.247889703</v>
+        <v>2541782.495618342</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>3485917.888752404</v>
+        <v>2552994.875230093</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>3500744.823187113</v>
+        <v>2563853.73330857</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>3515096.049118001</v>
+        <v>2574364.194949977</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>1827604.643336314</v>
+        <v>1827953.431039269</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>1834557.706063066</v>
+        <v>1834907.82071755</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>1841279.232074374</v>
+        <v>1841630.629492954</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>1847775.479335753</v>
+        <v>1848128.116525291</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>1854053.358724596</v>
+        <v>1854407.194010855</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>1860120.428226545</v>
+        <v>1860475.421377687</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>1865984.885290695</v>
+        <v>1866340.997639315</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>1871655.557307019</v>
+        <v>1872012.75187037</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>1877141.890185551</v>
+        <v>1877500.131783582</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>1882453.935000466</v>
+        <v>1882813.190371315</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2011807.282141327</v>
+        <v>1907439.040922031</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2017131.982475828</v>
+        <v>1912487.507238559</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2022306.759892265</v>
+        <v>1917393.828316037</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2027344.722174631</v>
+        <v>1922170.431934774</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2032259.518945904</v>
+        <v>1926830.259604622</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2037065.314411496</v>
+        <v>1931386.740722435</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2041776.757814375</v>
+        <v>1935853.764559917</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2046408.9515653</v>
+        <v>1940245.650047193</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2050977.41701407</v>
+        <v>1944577.113319763</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2055498.057824271</v>
+        <v>1948863.232993307</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2059987.120922392</v>
+        <v>1953119.413138656</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2064461.154983735</v>
+        <v>1957361.343921378</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2068936.966433089</v>
+        <v>1961604.959885039</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2073431.572928239</v>
+        <v>1965866.395847884</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2077962.154311856</v>
+        <v>1970161.940399243</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2082546.001017096</v>
+        <v>1974507.986981732</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2087200.459919601</v>
+        <v>1978920.982552338</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2091942.87764392</v>
+        <v>1983417.373829986</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>2096790.541338233</v>
+        <v>1988013.55114273</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>2101760.616946332</v>
+        <v>1992725.789902067</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>2106870.085024556</v>
+        <v>1997570.189749539</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>2112135.674162134</v>
+        <v>2002562.611431094</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>2117573.792091834</v>
+        <v>2007718.611481559</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>2123200.454588988</v>
+        <v>2013053.37481224</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>2129031.212293708</v>
+        <v>2018581.645329435</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>2135081.075603953</v>
+        <v>2024317.654723893</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>2141364.437828991</v>
+        <v>2030275.04961091</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>2147894.996810063</v>
+        <v>2036466.817217141</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>2154685.675259445</v>
+        <v>2042905.2098523</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>2161748.540094986</v>
+        <v>2049601.668428455</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>2169094.721084673</v>
+        <v>2056566.745325132</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>2176734.329156159</v>
+        <v>2063810.026936771</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>2184676.374758841</v>
+        <v>2071340.056270005</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>2192928.686707015</v>
+        <v>2079164.255997058</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>2201497.831969471</v>
+        <v>2087288.852406483</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>2210389.036909012</v>
+        <v>2095718.800728605</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>2219606.110515425</v>
+        <v>2104457.712351001</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>2229151.370199136</v>
+        <v>2113507.784461819</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>2239025.5707631</v>
+        <v>2122869.732706461</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>2249227.837184716</v>
+        <v>2132542.727456616</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>23857510.00534276</v>
+        <v>9699885.690674141</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>28712.71815792335</v>
+        <v>11685.9146597009</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>29149.04883510671</v>
+        <v>11875.72552154433</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>29594.66742225323</v>
+        <v>12069.71595875655</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>30049.89468217752</v>
+        <v>12268.02987379376</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>30515.06421812177</v>
+        <v>12470.81701177828</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>30990.52282805719</v>
+        <v>12678.23313567577</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>31476.63085327739</v>
+        <v>12890.44020022374</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>31973.76251987389</v>
+        <v>13107.60652402435</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>32482.30627119146</v>
+        <v>13329.9069590074</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>33002.66509001155</v>
+        <v>13557.52305673024</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>33535.25680878914</v>
+        <v>13790.64323080299</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>34080.51440575688</v>
+        <v>14029.46291451064</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>34638.88628565898</v>
+        <v>14274.18471308726</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>35210.83654260603</v>
+        <v>14525.01854956817</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>35796.84520362204</v>
+        <v>14782.18180358324</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>36397.40845035474</v>
+        <v>15045.89944199411</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>37013.03881715563</v>
+        <v>15316.40414057351</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>37644.26536329933</v>
+        <v>15593.93639573695</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>38291.63381689547</v>
+        <v>15878.74462523914</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>38955.70668866017</v>
+        <v>16171.08525699309</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>39637.06335275204</v>
+        <v>16471.2228047631</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>40336.30009262762</v>
+        <v>16779.42992978414</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>41054.03010955377</v>
+        <v>17095.98748721999</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>41790.88349107687</v>
+        <v>17421.18455622284</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>42547.50713745575</v>
+        <v>17755.31845264115</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>43324.56464328828</v>
+        <v>18098.69472309051</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>44122.73613209348</v>
+        <v>18451.62711931326</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>44942.71804154036</v>
+        <v>18814.43755171459</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>45785.22285668532</v>
+        <v>19187.45602081444</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>46650.97878917174</v>
+        <v>19571.02052559333</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>47540.72939999693</v>
+        <v>19965.47694755388</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>48455.23316358861</v>
+        <v>20371.17890936858</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>49395.2629711894</v>
+        <v>20788.48760708162</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>50361.60557133541</v>
+        <v>21217.77161473505</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>51355.06094568917</v>
+        <v>21659.40666047937</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>52376.44161810099</v>
+        <v>22113.77537305788</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>53426.5718955673</v>
+        <v>22581.26699788034</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>54506.28703925356</v>
+        <v>23062.27708168263</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>55616.43236431264</v>
+        <v>23557.20712499946</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>56757.86226710599</v>
+        <v>24066.46420161763</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>57931.4391792543</v>
+        <v>24590.46054451876</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>59138.03244699974</v>
+        <v>25129.61309741378</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>60378.517135947</v>
+        <v>25684.34303163909</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>61653.77276036023</v>
+        <v>26255.07522780235</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>62964.68193696901</v>
+        <v>26842.23772189217</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>64312.12896375584</v>
+        <v>27446.26111578461</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>65696.99832355649</v>
+        <v>28067.57795180493</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>67120.17311359763</v>
+        <v>28706.62205155378</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>68582.53340193293</v>
+        <v>29363.82781913779</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>70084.95451181856</v>
+        <v>30039.62950898111</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>71628.30523596574</v>
+        <v>30734.46045877981</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>73213.44598232755</v>
+        <v>31448.75228804613</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>74841.22685413987</v>
+        <v>32182.93406314997</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>76512.48566630627</v>
+        <v>32937.43142950194</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>78228.04590155766</v>
+        <v>33712.66571210571</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>79988.7146097521</v>
+        <v>34509.05298569006</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>81795.28025359413</v>
+        <v>35327.00311560409</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>83648.51050535454</v>
+        <v>36166.91877123259</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>85549.14999887088</v>
+        <v>37029.19441357358</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>87497.91804154094</v>
+        <v>37914.2152588215</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>89495.50629152139</v>
+        <v>38822.35622003317</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>91542.5764060121</v>
+        <v>39753.98082926097</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>93639.75766577054</v>
+        <v>40709.44014224036</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>95787.64458308642</v>
+        <v>41689.07162864288</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>97986.79449879307</v>
+        <v>42693.19805021404</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>100237.7251759107</v>
+        <v>43722.12633001475</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>102540.9123969092</v>
+        <v>44776.14641574886</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>104896.7875719525</v>
+        <v>45855.53014034966</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>107305.7353659628</v>
+        <v>46960.53008323386</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>109768.0913527791</v>
+        <v>48091.37843585416</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>112284.1397041778</v>
+        <v>49248.28587498969</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>114854.1109227061</v>
+        <v>50431.44044776603</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>117478.1796266764</v>
+        <v>51641.0064721645</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>120156.4623962336</v>
+        <v>52877.1234570641</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>122889.0156893934</v>
+        <v>54139.90504588853</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>125675.8338371893</v>
+        <v>55429.43798807234</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>128516.8471267926</v>
+        <v>56745.78114247823</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>131411.9199820066</v>
+        <v>58088.96451717119</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>134360.8492500244</v>
+        <v>59458.98834976783</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>137363.3626036323</v>
+        <v>60855.8222327477</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>140419.1170678204</v>
+        <v>62279.40428805383</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>143527.6976797078</v>
+        <v>63729.64039532551</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>146688.6162904202</v>
+        <v>65206.4034780252</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>149901.3105175778</v>
+        <v>66709.53285176812</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>153165.1428562958</v>
+        <v>68238.83363886697</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>156479.3999572553</v>
+        <v>69794.07625343101</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>159843.2920791604</v>
+        <v>71374.99596084413</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>163255.9527225885</v>
+        <v>72981.2925153432</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>166716.4384528808</v>
+        <v>74612.62987973851</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>170223.7289179148</v>
+        <v>76268.63603054445</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>173776.7270667984</v>
+        <v>77948.90285190832</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>177374.2595751937</v>
+        <v>79652.98612160758</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>181015.0774819709</v>
+        <v>81380.40559196004</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>184697.85704131</v>
+        <v>83130.64516825812</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>188421.20079424</v>
+        <v>84903.15318730261</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>192183.6388623257</v>
+        <v>86697.34279805822</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>195983.630465924</v>
+        <v>88512.59244634125</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>199819.5656685315</v>
+        <v>90348.24646506026</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>203689.7673478787</v>
+        <v>92203.61577115349</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>207592.4933942836</v>
+        <v>94077.97867030995</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>211525.9391349254</v>
+        <v>95970.58176973392</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>215488.2399827242</v>
+        <v>97880.64099922443</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>219477.474307818</v>
+        <v>99807.34274052808</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>223491.6665276105</v>
+        <v>101749.845064006</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>227528.7904122127</v>
+        <v>103707.2790720316</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>231586.7725996154</v>
+        <v>105678.7503473988</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>235663.496315426</v>
+        <v>107663.3405052287</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>239756.8052903003</v>
+        <v>109660.1088460722</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>243864.5078676121</v>
+        <v>111668.094107613</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>247984.3812933864</v>
+        <v>113686.3163121177</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>252114.176179068</v>
+        <v>115713.7787060811</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>256251.6211277549</v>
+        <v>117749.4697885136</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>260394.4275129172</v>
+        <v>119792.3654235408</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>264540.2943984749</v>
+        <v>121841.4310328782</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>268686.9135881866</v>
+        <v>123895.6238632772</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>272831.9747917175</v>
+        <v>125953.8953237255</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>276973.1708938422</v>
+        <v>128015.1933867103</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>281108.2033131744</v>
+        <v>130078.4650477749</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>285234.7874357647</v>
+        <v>132142.6588370535</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>289350.658108743</v>
+        <v>134206.7273763374</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>293453.5751785176</v>
+        <v>136269.629974854</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>297541.3290578576</v>
+        <v>138330.3352567905</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>301611.7463057076</v>
+        <v>140387.8238133075</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>305662.6952034209</v>
+        <v>142441.0908716406</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>309692.0913106842</v>
+        <v>144489.1489736279</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>313697.9029846778</v>
+        <v>146531.0306560555</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>317678.1568452746</v>
+        <v>148565.7911247918</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>321630.943169992</v>
+        <v>150592.5109150347</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>325554.4212011806</v>
+        <v>152610.2985293477</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>329446.824349624</v>
+        <v>154618.2930458679</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>333306.4652775121</v>
+        <v>156615.6666884368</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>337131.7408445282</v>
+        <v>158601.6273506852</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>340921.1369018527</v>
+        <v>160575.42106653</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>344673.2329174111</v>
+        <v>162536.3344187738</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>348386.7064185112</v>
+        <v>164483.6968787494</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>352060.337236536</v>
+        <v>166416.8830691822</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>355693.0115398044</v>
+        <v>168335.3149430553</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>359283.7256416943</v>
+        <v>170238.4638716576</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>362831.5895708867</v>
+        <v>172125.8526348184</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>366335.8303919835</v>
+        <v>173997.0573069246</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>369795.7952657084</v>
+        <v>175851.7090327137</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>373210.9542378358</v>
+        <v>177689.4956867428</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>376580.9027481695</v>
+        <v>179510.163411417</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>379905.363850451</v>
+        <v>181313.5180281977</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>383184.19013655</v>
+        <v>183099.4263177399</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>386417.3653575717</v>
+        <v>184867.8171643261</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>389605.0057372965</v>
+        <v>186618.6825612495</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>392747.3609732289</v>
+        <v>188352.0784737004</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>395844.8149217156</v>
+        <v>190068.1255562433</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>398897.885965677</v>
+        <v>191767.0097229502</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>401907.227063048</v>
+        <v>193448.9825680132</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>404873.6254767391</v>
+        <v>195114.3616359555</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>407798.0021866242</v>
+        <v>196763.5305403978</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>410681.4109860985</v>
+        <v>198396.938931314</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>413525.0372668871</v>
+        <v>200015.1023112585</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>416330.1964956432</v>
+        <v>201618.601700983</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>419098.3323889511</v>
+        <v>203208.0831563607</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>421831.0147923437</v>
+        <v>204784.2571380573</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>424529.9372714774</v>
+        <v>206347.8977366441</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>427196.9144237448</v>
+        <v>207899.8417559355</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>429833.8789198858</v>
+        <v>209440.9876579859</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>432442.8782861223</v>
+        <v>210972.2943736858</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>435026.0714376601</v>
+        <v>212494.779983091</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>437585.7249762005</v>
+        <v>214009.5202705426</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>440124.2092640142</v>
+        <v>215517.6471596336</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>442643.9942879752</v>
+        <v>217020.3470335521</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>445147.6453280192</v>
+        <v>218518.8589469034</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>447637.8184448525</v>
+        <v>220014.4727353543</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>450117.2558019848</v>
+        <v>221508.5270296248</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>452588.7808381373</v>
+        <v>223002.4071809059</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>455055.2933061625</v>
+        <v>224497.5431048844</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>457519.7641950732</v>
+        <v>225995.4070518687</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>459985.2305518778</v>
+        <v>227497.5113106183</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>462454.790220482</v>
+        <v>229005.4058538501</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>464931.5965147545</v>
+        <v>230520.6759333818</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>467418.8528429241</v>
+        <v>232044.9396329939</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>469919.8073007735</v>
+        <v>233579.8453873202</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>472437.7472506289</v>
+        <v>235127.0694749268</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>474975.9939034681</v>
+        <v>236688.313493983</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>477537.896920967</v>
+        <v>238265.3018287663</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>480126.8290540623</v>
+        <v>239859.7791151968</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>482746.1808344307</v>
+        <v>241473.5077136009</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>485399.3553351598</v>
+        <v>243108.2651969162</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>488089.7630157295</v>
+        <v>244765.84186206</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>490820.8166667087</v>
+        <v>246448.0382723976</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>493595.9264689157</v>
+        <v>248156.6628390065</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>496418.4951804643</v>
+        <v>249893.5294478366</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>499291.9134660172</v>
+        <v>251660.4551403954</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>502219.5553801858</v>
+        <v>253459.2578544607</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>505204.7740174932</v>
+        <v>255291.7542316344</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>508250.8973407563</v>
+        <v>257159.757498333</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>511361.2241975107</v>
+        <v>259065.0754257514</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>514539.0205351548</v>
+        <v>261009.508374922</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>517787.515823725</v>
+        <v>262994.8474321652</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>521109.899694298</v>
+        <v>265022.8726398068</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>524509.3188006496</v>
+        <v>267095.3513269116</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>527988.8739108802</v>
+        <v>269214.0365443545</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>531551.617234417</v>
+        <v>271380.6656079342</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>535200.5499897833</v>
+        <v>273596.9587532661</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>538938.6202168857</v>
+        <v>275864.6179053826</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>542768.8419532024</v>
+        <v>278185.3876414219</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>546693.8223203031</v>
+        <v>280560.8127704113</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>550716.4480595593</v>
+        <v>282992.589819907</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>554839.4376661732</v>
+        <v>285482.3375822458</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>559065.4492747338</v>
+        <v>288031.6521908458</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>563397.0799786601</v>
+        <v>290642.1066212763</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>567836.8654002373</v>
+        <v>293315.2503178603</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>572387.2795087735</v>
+        <v>296052.6089456796</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>577050.7346840501</v>
+        <v>298855.6842676677</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>581829.5820215134</v>
+        <v>301725.9541460983</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>586726.1118747626</v>
+        <v>304664.8726673046</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>591742.5546307063</v>
+        <v>307673.8703883587</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>596881.081712223</v>
+        <v>310754.3547041427</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>602143.8068017869</v>
+        <v>313907.7103325222</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>607532.7872801321</v>
+        <v>317135.2999156098</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>613050.0258730197</v>
+        <v>320438.4647345766</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>618697.4724984424</v>
+        <v>323818.525535047</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>624477.0263068525</v>
+        <v>327276.7834602204</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>630390.5379068259</v>
+        <v>330814.5210887356</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>636439.8117660232</v>
+        <v>334433.0035729292</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>642626.6087813822</v>
+        <v>338133.479875229</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>648952.6490070384</v>
+        <v>341917.1840975367</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>655419.6145331614</v>
+        <v>345785.3369008774</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>662029.152503758</v>
+        <v>349739.1470098434</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>668782.8782672602</v>
+        <v>353779.8127993631</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>675682.3786469944</v>
+        <v>357908.5239577245</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>682729.2153242143</v>
+        <v>362126.4632226929</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>689924.928322759</v>
+        <v>366434.8081856008</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>697271.0395865068</v>
+        <v>370834.7331593517</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>704769.0566383963</v>
+        <v>375327.411104962</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>712420.4763127959</v>
+        <v>379914.0156128111</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>720226.7885509275</v>
+        <v>384595.7229336217</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>728189.4802489222</v>
+        <v>389373.7140540629</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>736310.039150276</v>
+        <v>394249.1768129976</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>744589.9577720723</v>
+        <v>399223.3080530553</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>753030.7373559379</v>
+        <v>404297.3158030179</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>761633.891834675</v>
+        <v>409472.4214864401</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>770400.9518050478</v>
+        <v>414749.8621516323</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>779333.4684973317</v>
+        <v>420130.8927181425</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>788433.0177338172</v>
+        <v>425616.7882356835</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>797701.2038662536</v>
+        <v>431208.8461502082</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>807139.663683837</v>
+        <v>436908.3885726603</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>816750.0702840522</v>
+        <v>442716.7645462527</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>826534.1368964855</v>
+        <v>448635.3523068996</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>836493.6206528085</v>
+        <v>454665.5615330393</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>846630.3262935694</v>
+        <v>460808.8355796462</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>856946.1098043615</v>
+        <v>467066.653692232</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>867442.8819731624</v>
+        <v>473440.5331961661</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>878122.6118612642</v>
+        <v>479932.031656928</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>888987.3301791289</v>
+        <v>486542.7490062722</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>900039.1325607004</v>
+        <v>493274.3296304251</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>911280.1827275619</v>
+        <v>500128.4644152257</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>922712.7155350239</v>
+        <v>507106.8927434332</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>934339.0398935768</v>
+        <v>514211.4044401266</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>946161.5415572374</v>
+        <v>521443.8416610218</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>958182.6857710411</v>
+        <v>528806.1007188695</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>970405.0197702933</v>
+        <v>536300.1338432474</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>982831.1751242235</v>
+        <v>543927.9508690221</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>995463.8699147362</v>
+        <v>551691.6208476234</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>1008305.910744531</v>
+        <v>559593.2735771966</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>1021360.19456438</v>
+        <v>567635.1010451505</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>1034629.710312414</v>
+        <v>575819.3587782733</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>1048117.540358501</v>
+        <v>584148.3670956314</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>1061826.861741381</v>
+        <v>592624.5122564244</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>1075760.947194936</v>
+        <v>601250.2474997176</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>1089923.16595113</v>
+        <v>610028.0939680146</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>1104316.984311597</v>
+        <v>618960.6415090095</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>1118945.965979913</v>
+        <v>628050.5493498478</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>1133813.772143302</v>
+        <v>637300.5466363045</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>1148924.161296015</v>
+        <v>646713.432831152</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>1164280.988792875</v>
+        <v>656292.0779638363</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>1179888.206124302</v>
+        <v>666039.422725076</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1195749.859902027</v>
+        <v>675958.4783987143</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1211870.09054459</v>
+        <v>686052.3266230404</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1228253.130653189</v>
+        <v>696324.1189745005</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1244903.303065626</v>
+        <v>706777.0763650759</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1261825.01857831</v>
+        <v>717414.4882457248</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1279022.773324382</v>
+        <v>728239.7116071497</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1296501.145797315</v>
+        <v>739256.1697697706</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1314264.793507756</v>
+        <v>750467.3509537836</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1332318.449262503</v>
+        <v>761876.8066207267</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1350666.917053609</v>
+        <v>773488.1495773697</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1369315.067546067</v>
+        <v>785305.0518328771</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1388267.83315272</v>
+        <v>797331.2422002207</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1407530.20268334</v>
+        <v>809570.5036317325</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1427107.215558313</v>
+        <v>822026.6702805663</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1447003.955573743</v>
+        <v>834703.6242776703</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1467225.544207778</v>
+        <v>847605.2922154675</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1487777.133456775</v>
+        <v>860735.6413286524</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1508663.898190572</v>
+        <v>874098.6753627792</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1529891.02801676</v>
+        <v>887698.4301215693</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1551463.718645134</v>
+        <v>901538.9686845042</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1573387.162740706</v>
+        <v>915624.3762845577</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1595666.540259921</v>
+        <v>929958.7548394143</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1618307.008260241</v>
+        <v>944546.2171268706</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1641313.690176718</v>
+        <v>959390.8805970071</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1664691.664559694</v>
+        <v>974496.8608139205</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1688445.953269689</v>
+        <v>989868.2645208763</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1712581.509124554</v>
+        <v>1005509.182322066</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1737103.202996571</v>
+        <v>1021423.680975624</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>996501.5013996494</v>
+        <v>742916.6087189526</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1010814.452582594</v>
+        <v>754711.5365601749</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1025353.691106714</v>
+        <v>766710.9173484211</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1040121.707123782</v>
+        <v>778917.5336883342</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1055120.903315552</v>
+        <v>791334.1192625684</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1070353.585757708</v>
+        <v>803963.351602413</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1085821.954492609</v>
+        <v>816807.844574137</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1101528.093817448</v>
+        <v>829870.140583089</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1117473.962296555</v>
+        <v>843152.7024991243</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1133661.382510338</v>
+        <v>856657.9053098806</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1150092.030551989</v>
+        <v>870388.0275074192</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1166767.425285579</v>
+        <v>884345.2422157555</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1183688.917383179</v>
+        <v>898531.6080698979</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1200857.678157921</v>
+        <v>912949.0598566189</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1218274.688212602</v>
+        <v>927599.3989293426</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1235940.72592744</v>
+        <v>942484.2834127529</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1253856.355809095</v>
+        <v>957605.2182117465</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1272021.916728487</v>
+        <v>972963.5448437202</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1290437.510076968</v>
+        <v>988560.4311149116</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1309102.987869116</v>
+        <v>1004396.860660848</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1328017.940828468</v>
+        <v>1020473.622377306</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1347181.686488638</v>
+        <v>1036791.299765605</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1366593.257351303</v>
+        <v>1053350.260223277</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1386251.389137723</v>
+        <v>1070150.644307823</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1406154.509178655</v>
+        <v>1087192.35500795</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1426300.724987115</v>
+        <v>1104475.047056801</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1446687.813060126</v>
+        <v>1121998.11632341</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1467313.207959438</v>
+        <v>1139760.68932206</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1488173.991722244</v>
+        <v>1157761.61288052</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1509266.883655056</v>
+        <v>1175999.444010328</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1530588.230564879</v>
+        <v>1194472.440023556</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1552133.997485557</v>
+        <v>1213178.548944011</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1573899.758956024</v>
+        <v>1232115.400260483</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1595880.690910291</v>
+        <v>1251280.296072729</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1618071.563239763</v>
+        <v>1270670.202682062</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1640466.733088196</v>
+        <v>1290281.742678907</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1663060.138940808</v>
+        <v>1310111.187581223</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1685845.29557158</v>
+        <v>1330154.451080425</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1708815.289907707</v>
+        <v>1350407.082948089</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1731962.777874445</v>
+        <v>1370864.263660847</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1755279.982281754</v>
+        <v>1391520.79980007</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1778758.691811203</v>
+        <v>1412371.120281411</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1802390.261163814</v>
+        <v>1433409.273471654</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1826165.61242255</v>
+        <v>1454628.925245568</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1850075.237689062</v>
+        <v>1476023.358040792</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1874109.20304134</v>
+        <v>1497585.470959191</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1898257.153867547</v>
+        <v>1519307.780970642</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1922508.321616479</v>
+        <v>1541182.425264032</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1946851.532012556</v>
+        <v>1563201.164796804</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>1971275.214769293</v>
+        <v>1585355.38908387</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>1995767.414838282</v>
+        <v>1607636.12226963</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2020315.805220334</v>
+        <v>1630034.03051914</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2044907.70136452</v>
+        <v>1652539.430764084</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2069530.07717164</v>
+        <v>1675142.300832307</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2094169.58261493</v>
+        <v>1697832.290986967</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2022356.35159514</v>
+        <v>1739943.19513992</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2045867.504779187</v>
+        <v>1763031.828664017</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2069355.117264494</v>
+        <v>1786175.314448619</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2092805.409153908</v>
+        <v>1809362.007222513</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2116204.398578106</v>
+        <v>1832580.010735044</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2139537.927657462</v>
+        <v>1855817.198222353</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2162791.689906673</v>
+        <v>1879061.234328326</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>2185951.259033966</v>
+        <v>1902299.598455009</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>2209002.119086104</v>
+        <v>1925519.609516464</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>2231929.695882733</v>
+        <v>1948708.452062896</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2254719.389669443</v>
+        <v>1971853.20372914</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2277356.608922446</v>
+        <v>1994940.863964042</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2299826.805219194</v>
+        <v>2017958.383980387</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2322115.509091517</v>
+        <v>2040892.697866217</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2344208.366767087</v>
+        <v>2063730.754788127</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2561484.275347198</v>
+        <v>2271296.2074177</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2584931.622203384</v>
+        <v>2295905.515225163</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2608121.493777633</v>
+        <v>2320367.882913813</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2631039.265004061</v>
+        <v>2344669.540452928</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2653670.645354293</v>
+        <v>2368796.924219991</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2676001.721898587</v>
+        <v>2392736.717234386</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2698019.002453164</v>
+        <v>2416475.88987384</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2719709.458671607</v>
+        <v>2440001.74095175</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2741060.568936396</v>
+        <v>2463301.939030315</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2762060.360903447</v>
+        <v>2486364.563839826</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>2974784.041478297</v>
+        <v>2836296.328478963</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>2996446.463976818</v>
+        <v>2861790.17588789</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3017698.889808827</v>
+        <v>2886978.310524836</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3038531.310857044</v>
+        <v>2911849.582543322</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3058934.522547849</v>
+        <v>2936393.537509797</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3078900.163822461</v>
+        <v>2960600.460769617</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3098420.755655166</v>
+        <v>2984461.420868326</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3117489.737974618</v>
+        <v>3007968.311878001</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3136101.504846132</v>
+        <v>3031113.894478184</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3154251.43778136</v>
+        <v>3053891.835647081</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>2466913.02564107</v>
+        <v>2368245.097680628</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>2480302.842751569</v>
+        <v>2385202.647786327</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>2493327.544346313</v>
+        <v>2401867.021377388</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>2505986.836799043</v>
+        <v>2418236.414199798</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>2518281.298719309</v>
+        <v>2434309.852649362</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>2530212.396137435</v>
+        <v>2450087.215682663</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>2541782.495618342</v>
+        <v>2465569.254947479</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>2552994.875230093</v>
+        <v>2480757.61303896</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>2563853.73330857</v>
+        <v>2495654.839801602</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>2574364.194949977</v>
+        <v>2510264.406586557</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>1827953.431039269</v>
+        <v>1335665.170675893</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>1834907.82071755</v>
+        <v>1343097.649000939</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>1841630.629492954</v>
+        <v>1350386.430585815</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>1848128.116525291</v>
+        <v>1357535.354500242</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>1854407.194010855</v>
+        <v>1364548.767414383</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>1860475.421377687</v>
+        <v>1371431.523801733</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>1866340.997639315</v>
+        <v>1378188.984784289</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>1872012.75187037</v>
+        <v>1384827.01557611</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>1877500.131783582</v>
+        <v>1391351.981492626</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>1882813.190371315</v>
+        <v>1397770.742480518</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>1907439.040922031</v>
+        <v>1601866.282889121</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>1912487.507238559</v>
+        <v>1608972.534674009</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>1917393.828316037</v>
+        <v>1615984.397694879</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>1922170.431934774</v>
+        <v>1622911.857676494</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>1926830.259604622</v>
+        <v>1629765.406543248</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>1931386.740722435</v>
+        <v>1636556.025071313</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>1935853.764559917</v>
+        <v>1643295.163511616</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>1940245.650047193</v>
+        <v>1649994.720128542</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>1944577.113319763</v>
+        <v>1656667.017600441</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>1948863.232993307</v>
+        <v>1663324.777224498</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>1953119.413138656</v>
+        <v>1669981.090874444</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>1957361.343921378</v>
+        <v>1676649.390652046</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>1961604.959885039</v>
+        <v>1683343.416185014</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>1965866.395847884</v>
+        <v>1690077.179515302</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>1970161.940399243</v>
+        <v>1696864.927535141</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>1974507.986981732</v>
+        <v>1703721.101927394</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>1978920.982552338</v>
+        <v>1710660.296572209</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>1983417.373829986</v>
+        <v>1717697.21239397</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>1988013.55114273</v>
+        <v>1724846.609626967</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>1992725.789902067</v>
+        <v>1732123.257490357</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>1997570.189749539</v>
+        <v>1739541.881278263</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>2002562.611431094</v>
+        <v>1747117.106879905</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>2007718.611481559</v>
+        <v>1754863.402768393</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>2013053.37481224</v>
+        <v>1762795.019506691</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>2018581.645329435</v>
+        <v>1770925.926850566</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>2024317.654723893</v>
+        <v>1779269.748540178</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>2030275.04961091</v>
+        <v>1787839.694908358</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>2036466.817217141</v>
+        <v>1796648.493449948</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>2042905.2098523</v>
+        <v>1805708.317535955</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>2049601.668428455</v>
+        <v>1815030.713480763</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>2056566.745325132</v>
+        <v>1824626.52620529</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>2063810.026936771</v>
+        <v>1834505.823776707</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>2071340.056270005</v>
+        <v>1844677.821137107</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>2079164.255997058</v>
+        <v>1855150.803372922</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>2087288.852406483</v>
+        <v>1865932.048913398</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>2095718.800728605</v>
+        <v>1877027.753084754</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>2104457.712351001</v>
+        <v>1888442.952487179</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>2113507.784461819</v>
+        <v>1900181.450689196</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>2122869.732706461</v>
+        <v>1912245.745784435</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>2132542.727456616</v>
+        <v>1924636.960376356</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_SFH_UFA.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>9699885.690674141</v>
+        <v>9699885.690677596</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>11685.9146597009</v>
+        <v>11685.9146599525</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>11875.72552154433</v>
+        <v>11875.72552181328</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>12069.71595875655</v>
+        <v>12069.71595904474</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>12268.02987379376</v>
+        <v>12268.0298741012</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>12470.81701177828</v>
+        <v>12470.81701209922</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>12678.23313567577</v>
+        <v>12678.2331360198</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>12890.44020022374</v>
+        <v>12890.44020059087</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>13107.60652402435</v>
+        <v>13107.60652441457</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>13329.9069590074</v>
+        <v>13329.90695941688</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>13557.52305673024</v>
+        <v>13557.52305716282</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>13790.64323080299</v>
+        <v>13790.64323126443</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>14029.46291451064</v>
+        <v>14029.46291500094</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>14274.18471308726</v>
+        <v>14274.18471360258</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>14525.01854956817</v>
+        <v>14525.01855011235</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>14782.18180358324</v>
+        <v>14782.18180415821</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>15045.89944199411</v>
+        <v>15045.8994426037</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>15316.40414057351</v>
+        <v>15316.4041412158</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>15593.93639573695</v>
+        <v>15593.93639641579</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>15878.74462523914</v>
+        <v>15878.74462594877</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>16171.08525699309</v>
+        <v>16171.08525774694</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>16471.2228047631</v>
+        <v>16471.2228055535</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>16779.42992978414</v>
+        <v>16779.42993061877</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>17095.98748721999</v>
+        <v>17095.98748809693</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>17421.18455622284</v>
+        <v>17421.18455714018</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>17755.31845264115</v>
+        <v>17755.3184536104</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>18098.69472309051</v>
+        <v>18098.69472410208</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>18451.62711931326</v>
+        <v>18451.62712038251</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>18814.43755171459</v>
+        <v>18814.43755283191</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>19187.45602081444</v>
+        <v>19187.45602198561</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>19571.02052559333</v>
+        <v>19571.02052681835</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>19965.47694755388</v>
+        <v>19965.47694883658</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>20371.17890936858</v>
+        <v>20371.17891071089</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>20788.48760708162</v>
+        <v>20788.48760848546</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>21217.77161473505</v>
+        <v>21217.77161620042</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>21659.40666047937</v>
+        <v>21659.40666201011</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>22113.77537305788</v>
+        <v>22113.77537465592</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>22581.26699788034</v>
+        <v>22581.26699954761</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>23062.27708168263</v>
+        <v>23062.27708342488</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>23557.20712499946</v>
+        <v>23557.2071268071</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>24066.46420161763</v>
+        <v>24066.46420350027</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>24590.46054451876</v>
+        <v>24590.46054647446</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>25129.61309741378</v>
+        <v>25129.61309945407</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>25684.34303163909</v>
+        <v>25684.34303376206</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>26255.07522780235</v>
+        <v>26255.07522999458</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>26842.23772189217</v>
+        <v>26842.23772417669</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>27446.26111578461</v>
+        <v>27446.26111815374</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>28067.57795180493</v>
+        <v>28067.57795425485</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>28706.62205155378</v>
+        <v>28706.62205409599</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>29363.82781913779</v>
+        <v>29363.82782176656</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>30039.62950898111</v>
+        <v>30039.62951170219</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>30734.46045877981</v>
+        <v>30734.46046159704</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>31448.75228804613</v>
+        <v>31448.75229095569</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>32182.93406314997</v>
+        <v>32182.93406615571</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>32937.43142950194</v>
+        <v>32937.43143260001</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>33712.66571210571</v>
+        <v>33712.66571530188</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>34509.05298569006</v>
+        <v>34509.05298898818</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>35327.00311560409</v>
+        <v>35327.00311899266</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>36166.91877123259</v>
+        <v>36166.91877472887</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>37029.19441357358</v>
+        <v>37029.194417168</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>37914.2152588215</v>
+        <v>37914.2152625083</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>38822.35622003317</v>
+        <v>38822.3562238277</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>39753.98082926097</v>
+        <v>39753.98083315368</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>40709.44014224036</v>
+        <v>40709.44014623507</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>41689.07162864288</v>
+        <v>41689.07163274534</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>42693.19805021404</v>
+        <v>42693.19805440702</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>43722.12633001475</v>
+        <v>43722.12633430784</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>44776.14641574886</v>
+        <v>44776.14642014207</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>45855.53014034966</v>
+        <v>45855.530144843</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>46960.53008323386</v>
+        <v>46960.53008781775</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>48091.37843585416</v>
+        <v>48091.37844054203</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>49248.28587498969</v>
+        <v>49248.28587977387</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>50431.44044776603</v>
+        <v>50431.44045263695</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>51641.0064721645</v>
+        <v>51641.00647713176</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>52877.1234570641</v>
+        <v>52877.12346211429</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>54139.90504588853</v>
+        <v>54139.90505103123</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>55429.43798807234</v>
+        <v>55429.43799330181</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>56745.78114247823</v>
+        <v>56745.7811477849</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>58088.96451717119</v>
+        <v>58088.96452255698</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>59458.98834976783</v>
+        <v>59458.98835523275</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>60855.8222327477</v>
+        <v>60855.82223828409</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>62279.40428805383</v>
+        <v>62279.40429365979</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>63729.64039532551</v>
+        <v>63729.64040099911</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>65206.4034780252</v>
+        <v>65206.40348376454</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>66709.53285176812</v>
+        <v>66709.53285755978</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>68238.83363886697</v>
+        <v>68238.83364472057</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>69794.07625343101</v>
+        <v>69794.07625932734</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>71374.99596084413</v>
+        <v>71374.99596679665</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>72981.2925153432</v>
+        <v>72981.29252132698</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>74612.62987973851</v>
+        <v>74612.62988576505</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>76268.63603054445</v>
+        <v>76268.63603660611</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>77948.90285190832</v>
+        <v>77948.90285798593</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>79652.98612160758</v>
+        <v>79652.98612771647</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>81380.40559196004</v>
+        <v>81380.40559807913</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>83130.64516825812</v>
+        <v>83130.64517438166</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>84903.15318730261</v>
+        <v>84903.15319343829</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>86697.34279805822</v>
+        <v>86697.34280418688</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>88512.59244634125</v>
+        <v>88512.59245247247</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>90348.24646506026</v>
+        <v>90348.24647116527</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>92203.61577115349</v>
+        <v>92203.61577724955</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>94077.97867030995</v>
+        <v>94077.97867637982</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>95970.58176973392</v>
+        <v>95970.58177576802</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>97880.64099922443</v>
+        <v>97880.64100522465</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>99807.34274052808</v>
+        <v>99807.34274648294</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>101749.845064006</v>
+        <v>101749.8450699117</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>103707.2790720316</v>
+        <v>103707.2790778804</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>105678.7503473988</v>
+        <v>105678.7503531888</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>107663.3405052287</v>
+        <v>107663.3405109504</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>109660.1088460722</v>
+        <v>109660.1088517178</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>111668.094107613</v>
+        <v>111668.0941131788</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>113686.3163121177</v>
+        <v>113686.3163175941</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>115713.7787060811</v>
+        <v>115713.7787114719</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>117749.4697885136</v>
+        <v>117749.4697938034</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>119792.3654235408</v>
+        <v>119792.3654287277</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>121841.4310328782</v>
+        <v>121841.4310379584</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>123895.6238632772</v>
+        <v>123895.623868245</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>125953.8953237255</v>
+        <v>125953.8953285731</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>128015.1933867103</v>
+        <v>128015.1933914301</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>130078.4650477749</v>
+        <v>130078.4650523707</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>132142.6588370535</v>
+        <v>132142.6588415196</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>134206.7273763374</v>
+        <v>134206.7273806604</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>136269.629974854</v>
+        <v>136269.6299790395</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>138330.3352567905</v>
+        <v>138330.335260833</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>140387.8238133075</v>
+        <v>140387.823817203</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>142441.0908716406</v>
+        <v>142441.0908753833</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>144489.1489736279</v>
+        <v>144489.1489772197</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>146531.0306560555</v>
+        <v>146531.0306594812</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>148565.7911247918</v>
+        <v>148565.7911280723</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>150592.5109150347</v>
+        <v>150592.5109181491</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>152610.2985293477</v>
+        <v>152610.2985322959</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>154618.2930458679</v>
+        <v>154618.2930486575</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>156615.6666884368</v>
+        <v>156615.6666910603</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>158601.6273506852</v>
+        <v>158601.6273531501</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>160575.42106653</v>
+        <v>160575.4210688191</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>162536.3344187738</v>
+        <v>162536.3344209043</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>164483.6968787494</v>
+        <v>164483.6968807194</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>166416.8830691822</v>
+        <v>166416.883070986</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>168335.3149430553</v>
+        <v>168335.3149446966</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>170238.4638716576</v>
+        <v>170238.4638731405</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>172125.8526348184</v>
+        <v>172125.8526361407</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>173997.0573069246</v>
+        <v>173997.0573080922</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>175851.7090327137</v>
+        <v>175851.7090337265</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>177689.4956867428</v>
+        <v>177689.4956876104</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>179510.163411417</v>
+        <v>179510.1634121299</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>181313.5180281977</v>
+        <v>181313.5180287769</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>183099.4263177399</v>
+        <v>183099.4263181738</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>184867.8171643261</v>
+        <v>184867.8171646244</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>186618.6825612495</v>
+        <v>186618.6825614179</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>188352.0784737004</v>
+        <v>188352.0784737447</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>190068.1255562433</v>
+        <v>190068.1255561749</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>191767.0097229502</v>
+        <v>191767.0097227634</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>193448.9825680132</v>
+        <v>193448.9825677157</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>195114.3616359555</v>
+        <v>195114.3616355587</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>196763.5305403978</v>
+        <v>196763.5305398979</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>198396.938931314</v>
+        <v>198396.938930736</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>200015.1023112585</v>
+        <v>200015.1023105888</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>201618.601700983</v>
+        <v>201618.6017002487</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>203208.0831563607</v>
+        <v>203208.0831555443</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>204784.2571380573</v>
+        <v>204784.2571371915</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>206347.8977366441</v>
+        <v>206347.8977357192</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>207899.8417559355</v>
+        <v>207899.8417549632</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>209440.9876579859</v>
+        <v>209440.9876569814</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>210972.2943736858</v>
+        <v>210972.2943726471</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>212494.779983091</v>
+        <v>212494.7799820297</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>214009.5202705426</v>
+        <v>214009.5202694683</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>215517.6471596336</v>
+        <v>215517.6471585558</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>217020.3470335521</v>
+        <v>217020.3470324709</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>218518.8589469034</v>
+        <v>218518.8589458359</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>220014.4727353543</v>
+        <v>220014.4727343045</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>221508.5270296248</v>
+        <v>221508.5270285984</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>223002.4071809059</v>
+        <v>223002.4071799105</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>224497.5431048844</v>
+        <v>224497.5431039392</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>225995.4070518687</v>
+        <v>225995.407050966</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>227497.5113106183</v>
+        <v>227497.5113097773</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>229005.4058538501</v>
+        <v>229005.405853067</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>230520.6759333818</v>
+        <v>230520.6759326758</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>232044.9396329939</v>
+        <v>232044.9396323687</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>233579.8453873202</v>
+        <v>233579.8453867836</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>235127.0694749268</v>
+        <v>235127.0694744825</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>236688.313493983</v>
+        <v>236688.3134936388</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>238265.3018287663</v>
+        <v>238265.3018285298</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>239859.7791151968</v>
+        <v>239859.7791150756</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>241473.5077136009</v>
+        <v>241473.5077136028</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>243108.2651969162</v>
+        <v>243108.2651970412</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>244765.84186206</v>
+        <v>244765.8418623195</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>246448.0382723976</v>
+        <v>246448.0382727877</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>248156.6628390065</v>
+        <v>248156.6628395427</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>249893.5294478366</v>
+        <v>249893.5294485266</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>251660.4551403954</v>
+        <v>251660.4551412352</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>253459.2578544607</v>
+        <v>253459.2578554542</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>255291.7542316344</v>
+        <v>255291.7542327893</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>257159.757498333</v>
+        <v>257159.7574996607</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>259065.0754257514</v>
+        <v>259065.0754272405</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>261009.508374922</v>
+        <v>261009.508376584</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>262994.8474321652</v>
+        <v>262994.8474340076</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>265022.8726398068</v>
+        <v>265022.8726418182</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>267095.3513269116</v>
+        <v>267095.3513291151</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>269214.0365443545</v>
+        <v>269214.0365467269</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>271380.6656079342</v>
+        <v>271380.6656104987</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>273596.9587532661</v>
+        <v>273596.9587560188</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>275864.6179053826</v>
+        <v>275864.6179083196</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>278185.3876414219</v>
+        <v>278185.3876445399</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>280560.8127704113</v>
+        <v>280560.8127737289</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>282992.589819907</v>
+        <v>282992.5898234051</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>285482.3375822458</v>
+        <v>285482.337585936</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>288031.6521908458</v>
+        <v>288031.6521947316</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>290642.1066212763</v>
+        <v>290642.1066253427</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>293315.2503178603</v>
+        <v>293315.2503221071</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>296052.6089456796</v>
+        <v>296052.6089501261</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>298855.6842676677</v>
+        <v>298855.6842722983</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>301725.9541460983</v>
+        <v>301725.9541509094</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>304664.8726673046</v>
+        <v>304664.872672296</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>307673.8703883587</v>
+        <v>307673.8703935304</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>310754.3547041427</v>
+        <v>310754.3547094909</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>313907.7103325222</v>
+        <v>313907.7103380431</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>317135.2999156098</v>
+        <v>317135.2999213109</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>320438.4647345766</v>
+        <v>320438.4647404426</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>323818.525535047</v>
+        <v>323818.5255410934</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>327276.7834602204</v>
+        <v>327276.7834664123</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>330814.5210887356</v>
+        <v>330814.5210951001</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>334433.0035729292</v>
+        <v>334433.0035794355</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>338133.479875229</v>
+        <v>338133.4798819039</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>341917.1840975367</v>
+        <v>341917.1841043532</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>345785.3369008774</v>
+        <v>345785.3369078394</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>349739.1470098434</v>
+        <v>349739.1470169585</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>353779.8127993631</v>
+        <v>353779.8128065969</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>357908.5239577245</v>
+        <v>357908.5239650998</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>362126.4632226929</v>
+        <v>362126.4632302019</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>366434.8081856008</v>
+        <v>366434.8081932322</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>370834.7331593517</v>
+        <v>370834.7331670899</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>375327.411104962</v>
+        <v>375327.4111128262</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>379914.0156128111</v>
+        <v>379914.0156207897</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>384595.7229336217</v>
+        <v>384595.7229416955</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>389373.7140540629</v>
+        <v>389373.7140622433</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>394249.1768129976</v>
+        <v>394249.176821273</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>399223.3080530553</v>
+        <v>399223.3080614179</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>404297.3158030179</v>
+        <v>404297.3158114715</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>409472.4214864401</v>
+        <v>409472.4214949654</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>414749.8621516323</v>
+        <v>414749.8621602409</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>420130.8927181425</v>
+        <v>420130.8927268151</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>425616.7882356835</v>
+        <v>425616.7882444314</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>431208.8461502082</v>
+        <v>431208.8461590122</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>436908.3885726603</v>
+        <v>436908.3885815202</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>442716.7645462527</v>
+        <v>442716.7645551647</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>448635.3523068996</v>
+        <v>448635.352315852</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>454665.5615330393</v>
+        <v>454665.5615420358</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>460808.8355796462</v>
+        <v>460808.8355886867</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>467066.653692232</v>
+        <v>467066.6537012972</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>473440.5331961661</v>
+        <v>473440.5332052598</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>479932.031656928</v>
+        <v>479932.0316660423</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>486542.7490062722</v>
+        <v>486542.7490153994</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>493274.3296304251</v>
+        <v>493274.3296395649</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>500128.4644152257</v>
+        <v>500128.4644243781</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>507106.8927434332</v>
+        <v>507106.8927525826</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>514211.4044401266</v>
+        <v>514211.4044492807</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>521443.8416610218</v>
+        <v>521443.841670165</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>528806.1007188695</v>
+        <v>528806.1007280092</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>536300.1338432474</v>
+        <v>536300.1338523607</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>543927.9508690221</v>
+        <v>543927.9508781165</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>551691.6208476234</v>
+        <v>551691.6208566909</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>559593.2735771966</v>
+        <v>559593.2735862525</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>567635.1010451505</v>
+        <v>567635.1010541561</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>575819.3587782733</v>
+        <v>575819.3587872672</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>584148.3670956314</v>
+        <v>584148.3671045515</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>592624.5122564244</v>
+        <v>592624.5122653095</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>601250.2474997176</v>
+        <v>601250.2475085594</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>610028.0939680146</v>
+        <v>610028.0939767978</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>618960.6415090095</v>
+        <v>618960.6415177338</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>628050.5493498478</v>
+        <v>628050.549358521</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>637300.5466363045</v>
+        <v>637300.5466449031</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>646713.432831152</v>
+        <v>646713.4328396838</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>656292.0779638363</v>
+        <v>656292.077972301</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>666039.422725076</v>
+        <v>666039.4227334581</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>675958.4783987143</v>
+        <v>675958.4784070062</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>686052.3266230404</v>
+        <v>686052.3266312572</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>696324.1189745005</v>
+        <v>696324.1189826345</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>706777.0763650759</v>
+        <v>706777.0763731116</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>717414.4882457248</v>
+        <v>717414.4882536468</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>728239.7116071497</v>
+        <v>728239.7116149962</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>739256.1697697706</v>
+        <v>739256.1697775031</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>750467.3509537836</v>
+        <v>750467.3509614096</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>761876.8066207267</v>
+        <v>761876.8066282464</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>773488.1495773697</v>
+        <v>773488.1495847756</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>785305.0518328771</v>
+        <v>785305.0518401613</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>797331.2422002207</v>
+        <v>797331.2422073754</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>809570.5036317325</v>
+        <v>809570.5036387809</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>822026.6702805663</v>
+        <v>822026.6702874703</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>834703.6242776703</v>
+        <v>834703.6242844372</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>847605.2922154675</v>
+        <v>847605.2922221207</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>860735.6413286524</v>
+        <v>860735.641335146</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>874098.6753627792</v>
+        <v>874098.6753691132</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>887698.4301215693</v>
+        <v>887698.43012779</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>901538.9686845042</v>
+        <v>901538.9686905426</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>915624.3762845577</v>
+        <v>915624.376290445</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>929958.7548394143</v>
+        <v>929958.7548451582</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>944546.2171268706</v>
+        <v>944546.2171324331</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>959390.8805970071</v>
+        <v>959390.8806023962</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>974496.8608139205</v>
+        <v>974496.8608191441</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>989868.2645208763</v>
+        <v>989868.2645259273</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1005509.182322066</v>
+        <v>1005509.182326937</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1021423.680975624</v>
+        <v>1021423.680980299</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>742916.6087189526</v>
+        <v>742916.6087221667</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>754711.5365601749</v>
+        <v>754711.5365632446</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>766710.9173484211</v>
+        <v>766710.9173513523</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>778917.5336883342</v>
+        <v>778917.5336911159</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>791334.1192625684</v>
+        <v>791334.1192651957</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>803963.351602413</v>
+        <v>803963.3516048974</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>816807.844574137</v>
+        <v>816807.8445764569</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>829870.140583089</v>
+        <v>829870.1405852339</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>843152.7024991243</v>
+        <v>843152.7025011053</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>856657.9053098806</v>
+        <v>856657.9053117201</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>870388.0275074192</v>
+        <v>870388.0275090628</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>884345.2422157555</v>
+        <v>884345.2422172255</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>898531.6080698979</v>
+        <v>898531.6080711838</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>912949.0598566189</v>
+        <v>912949.05985771</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>927599.3989293426</v>
+        <v>927599.3989302614</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>942484.2834127529</v>
+        <v>942484.2834134669</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>957605.2182117465</v>
+        <v>957605.2182122447</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>972963.5448437202</v>
+        <v>972963.544844025</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>988560.4311149116</v>
+        <v>988560.4311150123</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1004396.860660848</v>
+        <v>1004396.860660724</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1020473.622377306</v>
+        <v>1020473.622376945</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1036791.299765605</v>
+        <v>1036791.29976504</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1053350.260223277</v>
+        <v>1053350.260222477</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1070150.644307823</v>
+        <v>1070150.644306765</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1087192.35500795</v>
+        <v>1087192.355006667</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1104475.047056801</v>
+        <v>1104475.04705526</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1121998.11632341</v>
+        <v>1121998.116321611</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1139760.68932206</v>
+        <v>1139760.689319972</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1157761.61288052</v>
+        <v>1157761.612878174</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1175999.444010328</v>
+        <v>1175999.444007735</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1194472.440023556</v>
+        <v>1194472.440020651</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1213178.548944011</v>
+        <v>1213178.548940804</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1232115.400260483</v>
+        <v>1232115.400256997</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1251280.296072729</v>
+        <v>1251280.29606893</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1270670.202682062</v>
+        <v>1270670.20267795</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1290281.742678907</v>
+        <v>1290281.742674471</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1310111.187581223</v>
+        <v>1310111.187576451</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1330154.451080425</v>
+        <v>1330154.45107535</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1350407.082948089</v>
+        <v>1350407.082942624</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1370864.263660847</v>
+        <v>1370864.263655067</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1391520.79980007</v>
+        <v>1391520.799793887</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1412371.120281411</v>
+        <v>1412371.120274903</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1433409.273471654</v>
+        <v>1433409.273464744</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1454628.925245568</v>
+        <v>1454628.925238287</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1476023.358040792</v>
+        <v>1476023.358033118</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1497585.470959191</v>
+        <v>1497585.470951146</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1519307.780970642</v>
+        <v>1519307.780962138</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1541182.425264032</v>
+        <v>1541182.425255124</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1563201.164796804</v>
+        <v>1563201.164787514</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>1585355.38908387</v>
+        <v>1585355.389074119</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>1607636.12226963</v>
+        <v>1607636.122259441</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>1630034.03051914</v>
+        <v>1630034.030508524</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1652539.430764084</v>
+        <v>1652539.430753007</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>1675142.300832307</v>
+        <v>1675142.300820792</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>1697832.290986967</v>
+        <v>1697832.290974957</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>1739943.19513992</v>
+        <v>1739943.19512731</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>1763031.828664017</v>
+        <v>1763031.82865094</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>1786175.314448619</v>
+        <v>1786175.314435076</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>1809362.007222513</v>
+        <v>1809362.007208503</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>1832580.010735044</v>
+        <v>1832580.0107205</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>1855817.198222353</v>
+        <v>1855817.198207321</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>1879061.234328326</v>
+        <v>1879061.234312826</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>1902299.598455009</v>
+        <v>1902299.598438954</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>1925519.609516464</v>
+        <v>1925519.609499942</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>1948708.452062896</v>
+        <v>1948708.452045906</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>1971853.20372914</v>
+        <v>1971853.203711638</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>1994940.863964042</v>
+        <v>1994940.863946074</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2017958.383980387</v>
+        <v>2017958.383961863</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2040892.697866217</v>
+        <v>2040892.697847225</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2063730.754788127</v>
+        <v>2063730.754768712</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2271296.2074177</v>
+        <v>2271296.207395961</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2295905.515225163</v>
+        <v>2295905.515202987</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2320367.882913813</v>
+        <v>2320367.882891152</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2344669.540452928</v>
+        <v>2344669.54042971</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2368796.924219991</v>
+        <v>2368796.924196362</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2392736.717234386</v>
+        <v>2392736.717210223</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2416475.88987384</v>
+        <v>2416475.889849339</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2440001.74095175</v>
+        <v>2440001.740926837</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2463301.939030315</v>
+        <v>2463301.939004942</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2486364.563839826</v>
+        <v>2486364.563814138</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>2836296.328478963</v>
+        <v>2836296.328449514</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>2861790.17588789</v>
+        <v>2861790.17585814</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>2886978.310524836</v>
+        <v>2886978.310494703</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>2911849.582543322</v>
+        <v>2911849.58251297</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>2936393.537509797</v>
+        <v>2936393.537479225</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>2960600.460769617</v>
+        <v>2960600.460738798</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>2984461.420868326</v>
+        <v>2984461.420837452</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3007968.311878001</v>
+        <v>3007968.311847018</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3031113.894478184</v>
+        <v>3031113.894447282</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3053891.835647081</v>
+        <v>3053891.835616151</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>2368245.097680628</v>
+        <v>2368245.097656964</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>2385202.647786327</v>
+        <v>2385202.647762767</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>2401867.021377388</v>
+        <v>2401867.021354039</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>2418236.414199798</v>
+        <v>2418236.414176743</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>2434309.852649362</v>
+        <v>2434309.852626644</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>2450087.215682663</v>
+        <v>2450087.215660385</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>2465569.254947479</v>
+        <v>2465569.254925685</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>2480757.61303896</v>
+        <v>2480757.613017735</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>2495654.839801602</v>
+        <v>2495654.839781028</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>2510264.406586557</v>
+        <v>2510264.406566761</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>1335665.170675893</v>
+        <v>1335665.170665843</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>1343097.649000939</v>
+        <v>1343097.648991412</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>1350386.430585815</v>
+        <v>1350386.430576811</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>1357535.354500242</v>
+        <v>1357535.35449185</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>1364548.767414383</v>
+        <v>1364548.767406692</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>1371431.523801733</v>
+        <v>1371431.523794732</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>1378188.984784289</v>
+        <v>1378188.984778079</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>1384827.01557611</v>
+        <v>1384827.015570757</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>1391351.981492626</v>
+        <v>1391351.981488174</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>1397770.742480518</v>
+        <v>1397770.74247709</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>1601866.282889121</v>
+        <v>1601866.282886455</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>1608972.534674009</v>
+        <v>1608972.534672613</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>1615984.397694879</v>
+        <v>1615984.397694828</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>1622911.857676494</v>
+        <v>1622911.857677917</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>1629765.406543248</v>
+        <v>1629765.406546297</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>1636556.025071313</v>
+        <v>1636556.025075987</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>1643295.163511616</v>
+        <v>1643295.163518042</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>1649994.720128542</v>
+        <v>1649994.720136849</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>1656667.017600441</v>
+        <v>1656667.017610652</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>1663324.777224498</v>
+        <v>1663324.777236715</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>1669981.090874444</v>
+        <v>1669981.090888821</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>1676649.390652046</v>
+        <v>1676649.390668657</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>1683343.416185014</v>
+        <v>1683343.416203937</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>1690077.179515302</v>
+        <v>1690077.179536613</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>1696864.927535141</v>
+        <v>1696864.927558991</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>1703721.101927394</v>
+        <v>1703721.101953835</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>1710660.296572209</v>
+        <v>1710660.296601292</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>1717697.21239397</v>
+        <v>1717697.212425898</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>1724846.609626967</v>
+        <v>1724846.609661688</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>1732123.257490357</v>
+        <v>1732123.257527949</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>1739541.881278263</v>
+        <v>1739541.881318902</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>1747117.106879905</v>
+        <v>1747117.106923643</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>1754863.402768393</v>
+        <v>1754863.402815229</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1762795.019506691</v>
+        <v>1762795.019556626</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1770925.926850566</v>
+        <v>1770925.926903803</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1779269.748540178</v>
+        <v>1779269.74859659</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1787839.694908358</v>
+        <v>1787839.694968047</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1796648.493449948</v>
+        <v>1796648.493512965</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1805708.317535955</v>
+        <v>1805708.317602273</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1815030.713480763</v>
+        <v>1815030.713550358</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1824626.52620529</v>
+        <v>1824626.526278136</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1834505.823776707</v>
+        <v>1834505.823852829</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1844677.821137107</v>
+        <v>1844677.821216378</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1855150.803372922</v>
+        <v>1855150.803455394</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1865932.048913398</v>
+        <v>1865932.048998842</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1877027.753084754</v>
+        <v>1877027.75317322</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1888442.952487179</v>
+        <v>1888442.952578541</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1900181.450689196</v>
+        <v>1900181.450783251</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1912245.745784435</v>
+        <v>1912245.74588108</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1924636.960376356</v>
+        <v>1924636.960475541</v>
       </c>
     </row>
   </sheetData>
